--- a/12520406-Hồ Thị Thanh Thảo/SalesModel-UseCase.xlsx
+++ b/12520406-Hồ Thị Thanh Thảo/SalesModel-UseCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanhthao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Đồ án kì 1-2015\OOAD-2015\12520406-Hồ Thị Thanh Thảo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7305" tabRatio="922" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7305" tabRatio="922" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeHistory" sheetId="36" r:id="rId1"/>
@@ -791,9 +791,6 @@
     <t>Actor: Technical staff</t>
   </si>
   <si>
-    <t xml:space="preserve">Người dùng nhập vào ô tìm kiếm tên khách hàng. Nếu đã có, hệ thống load thông tin khách hàng lên biểu mẫu hóa đơn. </t>
-  </si>
-  <si>
     <t>Người dùng nhấn vào tab "Đổi/Trả"</t>
   </si>
   <si>
@@ -1284,6 +1281,9 @@
   </si>
   <si>
     <t>Module cần có những chức năng tiện ích khác như tìm kiếm khách hàng, tìm kiếm sản phẩm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người dùng nhập vào ô tên khách hàng. Nếu đã có, hệ thống load thông tin khách hàng lên biểu mẫu hóa đơn. </t>
   </si>
 </sst>
 </file>
@@ -6653,6 +6653,87 @@
     <xf numFmtId="166" fontId="50" fillId="36" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="50" fillId="36" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="50" fillId="36" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="36" borderId="19" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="36" borderId="21" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="36" borderId="20" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="61" fillId="36" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="36" borderId="16" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="36" borderId="22" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="35" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="35" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="35" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="34" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="34" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="34" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="36" borderId="16" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="36" borderId="18" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="37" borderId="28" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="37" borderId="29" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="37" borderId="27" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="37" borderId="27" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="50" fillId="25" borderId="12" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="78" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="64" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="54" fillId="28" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="54" fillId="28" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="54" fillId="28" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6661,15 +6742,6 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6689,45 +6761,6 @@
     <xf numFmtId="0" fontId="50" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6736,15 +6769,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="54" fillId="28" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6776,29 +6800,50 @@
     <xf numFmtId="167" fontId="4" fillId="25" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="54" fillId="28" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="50" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="54" fillId="28" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="54" fillId="28" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="54" fillId="28" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="50" fillId="29" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6810,6 +6855,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="32" borderId="12" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6840,59 +6888,11 @@
     <xf numFmtId="166" fontId="50" fillId="35" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="19" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="21" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="20" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="61" fillId="36" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="16" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="22" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="36" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="35" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="35" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="35" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="34" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="34" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="34" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="16" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="18" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="37" borderId="28" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="37" borderId="29" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="37" borderId="27" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="37" borderId="27" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="12" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="78" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="64" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3719">
     <cellStyle name="??" xfId="1"/>
@@ -11317,15 +11317,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>60159</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>120315</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>80211</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>97</xdr:row>
-          <xdr:rowOff>25065</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11353,23 +11353,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -12357,16 +12344,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="94" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="95" t="s">
         <v>371</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>372</v>
       </c>
       <c r="D7" s="96">
         <v>42321</v>
       </c>
       <c r="E7" s="97" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="98" customFormat="1">
@@ -12479,8 +12466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A29" zoomScale="95" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75"/>
@@ -12493,176 +12480,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="12.75" customHeight="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="321" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="269" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="304" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="270"/>
-      <c r="S1" s="270"/>
-      <c r="T1" s="270"/>
-      <c r="U1" s="270"/>
-      <c r="V1" s="270"/>
-      <c r="W1" s="270"/>
-      <c r="X1" s="270"/>
-      <c r="Y1" s="270"/>
-      <c r="Z1" s="270"/>
-      <c r="AA1" s="270"/>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="270"/>
-      <c r="AD1" s="270"/>
-      <c r="AE1" s="270"/>
-      <c r="AF1" s="270"/>
-      <c r="AG1" s="270"/>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="270"/>
-      <c r="AK1" s="270"/>
-      <c r="AL1" s="271"/>
-      <c r="AM1" s="269" t="s">
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="305"/>
+      <c r="L1" s="305"/>
+      <c r="M1" s="305"/>
+      <c r="N1" s="305"/>
+      <c r="O1" s="305"/>
+      <c r="P1" s="305"/>
+      <c r="Q1" s="305"/>
+      <c r="R1" s="305"/>
+      <c r="S1" s="305"/>
+      <c r="T1" s="305"/>
+      <c r="U1" s="305"/>
+      <c r="V1" s="305"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="305"/>
+      <c r="Y1" s="305"/>
+      <c r="Z1" s="305"/>
+      <c r="AA1" s="305"/>
+      <c r="AB1" s="305"/>
+      <c r="AC1" s="305"/>
+      <c r="AD1" s="305"/>
+      <c r="AE1" s="305"/>
+      <c r="AF1" s="305"/>
+      <c r="AG1" s="305"/>
+      <c r="AH1" s="305"/>
+      <c r="AI1" s="305"/>
+      <c r="AJ1" s="305"/>
+      <c r="AK1" s="305"/>
+      <c r="AL1" s="306"/>
+      <c r="AM1" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="270"/>
-      <c r="AO1" s="270"/>
-      <c r="AP1" s="271"/>
-      <c r="AQ1" s="270" t="s">
+      <c r="AN1" s="305"/>
+      <c r="AO1" s="305"/>
+      <c r="AP1" s="306"/>
+      <c r="AQ1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="AR1" s="270"/>
-      <c r="AS1" s="270"/>
-      <c r="AT1" s="271"/>
-      <c r="AU1" s="269" t="s">
+      <c r="AR1" s="305"/>
+      <c r="AS1" s="305"/>
+      <c r="AT1" s="306"/>
+      <c r="AU1" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="270"/>
-      <c r="AW1" s="270"/>
-      <c r="AX1" s="271"/>
+      <c r="AV1" s="305"/>
+      <c r="AW1" s="305"/>
+      <c r="AX1" s="306"/>
     </row>
     <row r="2" spans="1:50" ht="15" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="275" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="307" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="276"/>
-      <c r="S2" s="276"/>
-      <c r="T2" s="276"/>
-      <c r="U2" s="276"/>
-      <c r="V2" s="276"/>
-      <c r="W2" s="276"/>
-      <c r="X2" s="276"/>
-      <c r="Y2" s="276"/>
-      <c r="Z2" s="276"/>
-      <c r="AA2" s="276"/>
-      <c r="AB2" s="276"/>
-      <c r="AC2" s="276"/>
-      <c r="AD2" s="276"/>
-      <c r="AE2" s="276"/>
-      <c r="AF2" s="276"/>
-      <c r="AG2" s="276"/>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="276"/>
-      <c r="AJ2" s="276"/>
-      <c r="AK2" s="276"/>
-      <c r="AL2" s="277"/>
-      <c r="AM2" s="275" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="308"/>
+      <c r="L2" s="308"/>
+      <c r="M2" s="308"/>
+      <c r="N2" s="308"/>
+      <c r="O2" s="308"/>
+      <c r="P2" s="308"/>
+      <c r="Q2" s="308"/>
+      <c r="R2" s="308"/>
+      <c r="S2" s="308"/>
+      <c r="T2" s="308"/>
+      <c r="U2" s="308"/>
+      <c r="V2" s="308"/>
+      <c r="W2" s="308"/>
+      <c r="X2" s="308"/>
+      <c r="Y2" s="308"/>
+      <c r="Z2" s="308"/>
+      <c r="AA2" s="308"/>
+      <c r="AB2" s="308"/>
+      <c r="AC2" s="308"/>
+      <c r="AD2" s="308"/>
+      <c r="AE2" s="308"/>
+      <c r="AF2" s="308"/>
+      <c r="AG2" s="308"/>
+      <c r="AH2" s="308"/>
+      <c r="AI2" s="308"/>
+      <c r="AJ2" s="308"/>
+      <c r="AK2" s="308"/>
+      <c r="AL2" s="309"/>
+      <c r="AM2" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="276"/>
-      <c r="AO2" s="276"/>
-      <c r="AP2" s="277"/>
-      <c r="AQ2" s="281">
+      <c r="AN2" s="308"/>
+      <c r="AO2" s="308"/>
+      <c r="AP2" s="309"/>
+      <c r="AQ2" s="313">
         <v>42314</v>
       </c>
-      <c r="AR2" s="281"/>
-      <c r="AS2" s="281"/>
-      <c r="AT2" s="282"/>
-      <c r="AU2" s="281"/>
-      <c r="AV2" s="281"/>
-      <c r="AW2" s="281"/>
-      <c r="AX2" s="282"/>
+      <c r="AR2" s="313"/>
+      <c r="AS2" s="313"/>
+      <c r="AT2" s="314"/>
+      <c r="AU2" s="313"/>
+      <c r="AV2" s="313"/>
+      <c r="AW2" s="313"/>
+      <c r="AX2" s="314"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="285"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="279"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
-      <c r="R3" s="279"/>
-      <c r="S3" s="279"/>
-      <c r="T3" s="279"/>
-      <c r="U3" s="279"/>
-      <c r="V3" s="279"/>
-      <c r="W3" s="279"/>
-      <c r="X3" s="279"/>
-      <c r="Y3" s="279"/>
-      <c r="Z3" s="279"/>
-      <c r="AA3" s="279"/>
-      <c r="AB3" s="279"/>
-      <c r="AC3" s="279"/>
-      <c r="AD3" s="279"/>
-      <c r="AE3" s="279"/>
-      <c r="AF3" s="279"/>
-      <c r="AG3" s="279"/>
-      <c r="AH3" s="279"/>
-      <c r="AI3" s="279"/>
-      <c r="AJ3" s="279"/>
-      <c r="AK3" s="279"/>
-      <c r="AL3" s="280"/>
-      <c r="AM3" s="278"/>
-      <c r="AN3" s="279"/>
-      <c r="AO3" s="279"/>
-      <c r="AP3" s="280"/>
-      <c r="AQ3" s="283"/>
-      <c r="AR3" s="283"/>
-      <c r="AS3" s="283"/>
-      <c r="AT3" s="284"/>
-      <c r="AU3" s="283"/>
-      <c r="AV3" s="283"/>
-      <c r="AW3" s="283"/>
-      <c r="AX3" s="284"/>
+      <c r="A3" s="321"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="311"/>
+      <c r="L3" s="311"/>
+      <c r="M3" s="311"/>
+      <c r="N3" s="311"/>
+      <c r="O3" s="311"/>
+      <c r="P3" s="311"/>
+      <c r="Q3" s="311"/>
+      <c r="R3" s="311"/>
+      <c r="S3" s="311"/>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="311"/>
+      <c r="AA3" s="311"/>
+      <c r="AB3" s="311"/>
+      <c r="AC3" s="311"/>
+      <c r="AD3" s="311"/>
+      <c r="AE3" s="311"/>
+      <c r="AF3" s="311"/>
+      <c r="AG3" s="311"/>
+      <c r="AH3" s="311"/>
+      <c r="AI3" s="311"/>
+      <c r="AJ3" s="311"/>
+      <c r="AK3" s="311"/>
+      <c r="AL3" s="312"/>
+      <c r="AM3" s="310"/>
+      <c r="AN3" s="311"/>
+      <c r="AO3" s="311"/>
+      <c r="AP3" s="312"/>
+      <c r="AQ3" s="315"/>
+      <c r="AR3" s="315"/>
+      <c r="AS3" s="315"/>
+      <c r="AT3" s="316"/>
+      <c r="AU3" s="315"/>
+      <c r="AV3" s="315"/>
+      <c r="AW3" s="315"/>
+      <c r="AX3" s="316"/>
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="18"/>
@@ -12879,7 +12866,7 @@
     <row r="8" spans="1:50" ht="12.75" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -12933,7 +12920,7 @@
     <row r="9" spans="1:50" ht="12.75" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -13312,32 +13299,32 @@
       <c r="C16" s="34">
         <v>1</v>
       </c>
-      <c r="D16" s="289" t="s">
-        <v>374</v>
-      </c>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="291"/>
-      <c r="L16" s="289" t="s">
+      <c r="D16" s="287" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16" s="288"/>
+      <c r="F16" s="288"/>
+      <c r="G16" s="288"/>
+      <c r="H16" s="288"/>
+      <c r="I16" s="288"/>
+      <c r="J16" s="288"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="287" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="290"/>
-      <c r="N16" s="290"/>
-      <c r="O16" s="290"/>
-      <c r="P16" s="290"/>
-      <c r="Q16" s="290"/>
-      <c r="R16" s="290"/>
-      <c r="S16" s="290"/>
-      <c r="T16" s="290"/>
-      <c r="U16" s="290"/>
-      <c r="V16" s="290"/>
-      <c r="W16" s="290"/>
-      <c r="X16" s="290"/>
-      <c r="Y16" s="291"/>
+      <c r="M16" s="288"/>
+      <c r="N16" s="288"/>
+      <c r="O16" s="288"/>
+      <c r="P16" s="288"/>
+      <c r="Q16" s="288"/>
+      <c r="R16" s="288"/>
+      <c r="S16" s="288"/>
+      <c r="T16" s="288"/>
+      <c r="U16" s="288"/>
+      <c r="V16" s="288"/>
+      <c r="W16" s="288"/>
+      <c r="X16" s="288"/>
+      <c r="Y16" s="289"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
@@ -13368,28 +13355,28 @@
       <c r="A17" s="18"/>
       <c r="B17" s="25"/>
       <c r="C17" s="34"/>
-      <c r="D17" s="289"/>
-      <c r="E17" s="290"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
-      <c r="J17" s="290"/>
-      <c r="K17" s="291"/>
-      <c r="L17" s="289"/>
-      <c r="M17" s="290"/>
-      <c r="N17" s="290"/>
-      <c r="O17" s="290"/>
-      <c r="P17" s="290"/>
-      <c r="Q17" s="290"/>
-      <c r="R17" s="290"/>
-      <c r="S17" s="290"/>
-      <c r="T17" s="290"/>
-      <c r="U17" s="290"/>
-      <c r="V17" s="290"/>
-      <c r="W17" s="290"/>
-      <c r="X17" s="290"/>
-      <c r="Y17" s="291"/>
+      <c r="D17" s="287"/>
+      <c r="E17" s="288"/>
+      <c r="F17" s="288"/>
+      <c r="G17" s="288"/>
+      <c r="H17" s="288"/>
+      <c r="I17" s="288"/>
+      <c r="J17" s="288"/>
+      <c r="K17" s="289"/>
+      <c r="L17" s="287"/>
+      <c r="M17" s="288"/>
+      <c r="N17" s="288"/>
+      <c r="O17" s="288"/>
+      <c r="P17" s="288"/>
+      <c r="Q17" s="288"/>
+      <c r="R17" s="288"/>
+      <c r="S17" s="288"/>
+      <c r="T17" s="288"/>
+      <c r="U17" s="288"/>
+      <c r="V17" s="288"/>
+      <c r="W17" s="288"/>
+      <c r="X17" s="288"/>
+      <c r="Y17" s="289"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
       <c r="AB17" s="19"/>
@@ -14837,54 +14824,54 @@
       <c r="C45" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="272" t="s">
+      <c r="D45" s="317" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="272"/>
-      <c r="F45" s="272"/>
-      <c r="G45" s="272"/>
-      <c r="H45" s="272" t="s">
+      <c r="E45" s="317"/>
+      <c r="F45" s="317"/>
+      <c r="G45" s="317"/>
+      <c r="H45" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="I45" s="272"/>
-      <c r="J45" s="272"/>
-      <c r="K45" s="272"/>
-      <c r="L45" s="272"/>
-      <c r="M45" s="272"/>
-      <c r="N45" s="272"/>
-      <c r="O45" s="272"/>
-      <c r="P45" s="272"/>
-      <c r="Q45" s="272"/>
-      <c r="R45" s="272"/>
-      <c r="S45" s="272"/>
-      <c r="T45" s="272"/>
-      <c r="U45" s="272"/>
-      <c r="V45" s="272"/>
-      <c r="W45" s="286" t="s">
+      <c r="I45" s="317"/>
+      <c r="J45" s="317"/>
+      <c r="K45" s="317"/>
+      <c r="L45" s="317"/>
+      <c r="M45" s="317"/>
+      <c r="N45" s="317"/>
+      <c r="O45" s="317"/>
+      <c r="P45" s="317"/>
+      <c r="Q45" s="317"/>
+      <c r="R45" s="317"/>
+      <c r="S45" s="317"/>
+      <c r="T45" s="317"/>
+      <c r="U45" s="317"/>
+      <c r="V45" s="317"/>
+      <c r="W45" s="284" t="s">
         <v>5</v>
       </c>
-      <c r="X45" s="287"/>
-      <c r="Y45" s="287"/>
-      <c r="Z45" s="287"/>
-      <c r="AA45" s="287"/>
-      <c r="AB45" s="287"/>
-      <c r="AC45" s="287"/>
-      <c r="AD45" s="287"/>
-      <c r="AE45" s="287"/>
-      <c r="AF45" s="287"/>
-      <c r="AG45" s="287"/>
-      <c r="AH45" s="287"/>
-      <c r="AI45" s="287"/>
-      <c r="AJ45" s="287"/>
-      <c r="AK45" s="287"/>
-      <c r="AL45" s="287"/>
-      <c r="AM45" s="287"/>
-      <c r="AN45" s="287"/>
-      <c r="AO45" s="287"/>
-      <c r="AP45" s="287"/>
-      <c r="AQ45" s="287"/>
-      <c r="AR45" s="287"/>
-      <c r="AS45" s="288"/>
+      <c r="X45" s="285"/>
+      <c r="Y45" s="285"/>
+      <c r="Z45" s="285"/>
+      <c r="AA45" s="285"/>
+      <c r="AB45" s="285"/>
+      <c r="AC45" s="285"/>
+      <c r="AD45" s="285"/>
+      <c r="AE45" s="285"/>
+      <c r="AF45" s="285"/>
+      <c r="AG45" s="285"/>
+      <c r="AH45" s="285"/>
+      <c r="AI45" s="285"/>
+      <c r="AJ45" s="285"/>
+      <c r="AK45" s="285"/>
+      <c r="AL45" s="285"/>
+      <c r="AM45" s="285"/>
+      <c r="AN45" s="285"/>
+      <c r="AO45" s="285"/>
+      <c r="AP45" s="285"/>
+      <c r="AQ45" s="285"/>
+      <c r="AR45" s="285"/>
+      <c r="AS45" s="286"/>
       <c r="AT45" s="4"/>
       <c r="AU45" s="4"/>
       <c r="AV45" s="4"/>
@@ -14897,54 +14884,54 @@
       <c r="C46" s="42">
         <v>1</v>
       </c>
-      <c r="D46" s="274" t="s">
+      <c r="D46" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="274"/>
-      <c r="F46" s="274"/>
-      <c r="G46" s="274"/>
-      <c r="H46" s="256" t="s">
+      <c r="E46" s="294"/>
+      <c r="F46" s="294"/>
+      <c r="G46" s="294"/>
+      <c r="H46" s="318" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="257"/>
-      <c r="J46" s="257"/>
-      <c r="K46" s="257"/>
-      <c r="L46" s="257"/>
-      <c r="M46" s="257"/>
-      <c r="N46" s="257"/>
-      <c r="O46" s="257"/>
-      <c r="P46" s="257"/>
-      <c r="Q46" s="257"/>
-      <c r="R46" s="257"/>
-      <c r="S46" s="257"/>
-      <c r="T46" s="257"/>
-      <c r="U46" s="257"/>
-      <c r="V46" s="258"/>
-      <c r="W46" s="266" t="s">
+      <c r="I46" s="319"/>
+      <c r="J46" s="319"/>
+      <c r="K46" s="319"/>
+      <c r="L46" s="319"/>
+      <c r="M46" s="319"/>
+      <c r="N46" s="319"/>
+      <c r="O46" s="319"/>
+      <c r="P46" s="319"/>
+      <c r="Q46" s="319"/>
+      <c r="R46" s="319"/>
+      <c r="S46" s="319"/>
+      <c r="T46" s="319"/>
+      <c r="U46" s="319"/>
+      <c r="V46" s="320"/>
+      <c r="W46" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="X46" s="267"/>
-      <c r="Y46" s="267"/>
-      <c r="Z46" s="267"/>
-      <c r="AA46" s="267"/>
-      <c r="AB46" s="267"/>
-      <c r="AC46" s="267"/>
-      <c r="AD46" s="267"/>
-      <c r="AE46" s="267"/>
-      <c r="AF46" s="267"/>
-      <c r="AG46" s="267"/>
-      <c r="AH46" s="267"/>
-      <c r="AI46" s="267"/>
-      <c r="AJ46" s="267"/>
-      <c r="AK46" s="267"/>
-      <c r="AL46" s="267"/>
-      <c r="AM46" s="267"/>
-      <c r="AN46" s="267"/>
-      <c r="AO46" s="267"/>
-      <c r="AP46" s="267"/>
-      <c r="AQ46" s="267"/>
-      <c r="AR46" s="267"/>
-      <c r="AS46" s="268"/>
+      <c r="X46" s="291"/>
+      <c r="Y46" s="291"/>
+      <c r="Z46" s="291"/>
+      <c r="AA46" s="291"/>
+      <c r="AB46" s="291"/>
+      <c r="AC46" s="291"/>
+      <c r="AD46" s="291"/>
+      <c r="AE46" s="291"/>
+      <c r="AF46" s="291"/>
+      <c r="AG46" s="291"/>
+      <c r="AH46" s="291"/>
+      <c r="AI46" s="291"/>
+      <c r="AJ46" s="291"/>
+      <c r="AK46" s="291"/>
+      <c r="AL46" s="291"/>
+      <c r="AM46" s="291"/>
+      <c r="AN46" s="291"/>
+      <c r="AO46" s="291"/>
+      <c r="AP46" s="291"/>
+      <c r="AQ46" s="291"/>
+      <c r="AR46" s="291"/>
+      <c r="AS46" s="292"/>
       <c r="AT46" s="4"/>
       <c r="AU46" s="4"/>
       <c r="AV46" s="4"/>
@@ -14957,54 +14944,54 @@
       <c r="C47" s="42">
         <v>2</v>
       </c>
-      <c r="D47" s="273" t="s">
+      <c r="D47" s="293" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="274"/>
-      <c r="F47" s="274"/>
-      <c r="G47" s="274"/>
-      <c r="H47" s="256" t="s">
+      <c r="E47" s="294"/>
+      <c r="F47" s="294"/>
+      <c r="G47" s="294"/>
+      <c r="H47" s="318" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="257"/>
-      <c r="J47" s="257"/>
-      <c r="K47" s="257"/>
-      <c r="L47" s="257"/>
-      <c r="M47" s="257"/>
-      <c r="N47" s="257"/>
-      <c r="O47" s="257"/>
-      <c r="P47" s="257"/>
-      <c r="Q47" s="257"/>
-      <c r="R47" s="257"/>
-      <c r="S47" s="257"/>
-      <c r="T47" s="257"/>
-      <c r="U47" s="257"/>
-      <c r="V47" s="258"/>
-      <c r="W47" s="266" t="s">
+      <c r="I47" s="319"/>
+      <c r="J47" s="319"/>
+      <c r="K47" s="319"/>
+      <c r="L47" s="319"/>
+      <c r="M47" s="319"/>
+      <c r="N47" s="319"/>
+      <c r="O47" s="319"/>
+      <c r="P47" s="319"/>
+      <c r="Q47" s="319"/>
+      <c r="R47" s="319"/>
+      <c r="S47" s="319"/>
+      <c r="T47" s="319"/>
+      <c r="U47" s="319"/>
+      <c r="V47" s="320"/>
+      <c r="W47" s="290" t="s">
         <v>10</v>
       </c>
-      <c r="X47" s="267"/>
-      <c r="Y47" s="267"/>
-      <c r="Z47" s="267"/>
-      <c r="AA47" s="267"/>
-      <c r="AB47" s="267"/>
-      <c r="AC47" s="267"/>
-      <c r="AD47" s="267"/>
-      <c r="AE47" s="267"/>
-      <c r="AF47" s="267"/>
-      <c r="AG47" s="267"/>
-      <c r="AH47" s="267"/>
-      <c r="AI47" s="267"/>
-      <c r="AJ47" s="267"/>
-      <c r="AK47" s="267"/>
-      <c r="AL47" s="267"/>
-      <c r="AM47" s="267"/>
-      <c r="AN47" s="267"/>
-      <c r="AO47" s="267"/>
-      <c r="AP47" s="267"/>
-      <c r="AQ47" s="267"/>
-      <c r="AR47" s="267"/>
-      <c r="AS47" s="268"/>
+      <c r="X47" s="291"/>
+      <c r="Y47" s="291"/>
+      <c r="Z47" s="291"/>
+      <c r="AA47" s="291"/>
+      <c r="AB47" s="291"/>
+      <c r="AC47" s="291"/>
+      <c r="AD47" s="291"/>
+      <c r="AE47" s="291"/>
+      <c r="AF47" s="291"/>
+      <c r="AG47" s="291"/>
+      <c r="AH47" s="291"/>
+      <c r="AI47" s="291"/>
+      <c r="AJ47" s="291"/>
+      <c r="AK47" s="291"/>
+      <c r="AL47" s="291"/>
+      <c r="AM47" s="291"/>
+      <c r="AN47" s="291"/>
+      <c r="AO47" s="291"/>
+      <c r="AP47" s="291"/>
+      <c r="AQ47" s="291"/>
+      <c r="AR47" s="291"/>
+      <c r="AS47" s="292"/>
       <c r="AT47" s="4"/>
       <c r="AU47" s="4"/>
       <c r="AV47" s="4"/>
@@ -15017,54 +15004,54 @@
       <c r="C48" s="42">
         <v>3</v>
       </c>
-      <c r="D48" s="273" t="s">
+      <c r="D48" s="293" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="274"/>
-      <c r="F48" s="274"/>
-      <c r="G48" s="274"/>
-      <c r="H48" s="256" t="s">
+      <c r="E48" s="294"/>
+      <c r="F48" s="294"/>
+      <c r="G48" s="294"/>
+      <c r="H48" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="257"/>
-      <c r="J48" s="257"/>
-      <c r="K48" s="257"/>
-      <c r="L48" s="257"/>
-      <c r="M48" s="257"/>
-      <c r="N48" s="257"/>
-      <c r="O48" s="257"/>
-      <c r="P48" s="257"/>
-      <c r="Q48" s="257"/>
-      <c r="R48" s="257"/>
-      <c r="S48" s="257"/>
-      <c r="T48" s="257"/>
-      <c r="U48" s="257"/>
-      <c r="V48" s="258"/>
-      <c r="W48" s="266" t="s">
+      <c r="I48" s="319"/>
+      <c r="J48" s="319"/>
+      <c r="K48" s="319"/>
+      <c r="L48" s="319"/>
+      <c r="M48" s="319"/>
+      <c r="N48" s="319"/>
+      <c r="O48" s="319"/>
+      <c r="P48" s="319"/>
+      <c r="Q48" s="319"/>
+      <c r="R48" s="319"/>
+      <c r="S48" s="319"/>
+      <c r="T48" s="319"/>
+      <c r="U48" s="319"/>
+      <c r="V48" s="320"/>
+      <c r="W48" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="X48" s="267"/>
-      <c r="Y48" s="267"/>
-      <c r="Z48" s="267"/>
-      <c r="AA48" s="267"/>
-      <c r="AB48" s="267"/>
-      <c r="AC48" s="267"/>
-      <c r="AD48" s="267"/>
-      <c r="AE48" s="267"/>
-      <c r="AF48" s="267"/>
-      <c r="AG48" s="267"/>
-      <c r="AH48" s="267"/>
-      <c r="AI48" s="267"/>
-      <c r="AJ48" s="267"/>
-      <c r="AK48" s="267"/>
-      <c r="AL48" s="267"/>
-      <c r="AM48" s="267"/>
-      <c r="AN48" s="267"/>
-      <c r="AO48" s="267"/>
-      <c r="AP48" s="267"/>
-      <c r="AQ48" s="267"/>
-      <c r="AR48" s="267"/>
-      <c r="AS48" s="268"/>
+      <c r="X48" s="291"/>
+      <c r="Y48" s="291"/>
+      <c r="Z48" s="291"/>
+      <c r="AA48" s="291"/>
+      <c r="AB48" s="291"/>
+      <c r="AC48" s="291"/>
+      <c r="AD48" s="291"/>
+      <c r="AE48" s="291"/>
+      <c r="AF48" s="291"/>
+      <c r="AG48" s="291"/>
+      <c r="AH48" s="291"/>
+      <c r="AI48" s="291"/>
+      <c r="AJ48" s="291"/>
+      <c r="AK48" s="291"/>
+      <c r="AL48" s="291"/>
+      <c r="AM48" s="291"/>
+      <c r="AN48" s="291"/>
+      <c r="AO48" s="291"/>
+      <c r="AP48" s="291"/>
+      <c r="AQ48" s="291"/>
+      <c r="AR48" s="291"/>
+      <c r="AS48" s="292"/>
       <c r="AT48" s="4"/>
       <c r="AU48" s="4"/>
       <c r="AV48" s="4"/>
@@ -15077,54 +15064,54 @@
       <c r="C49" s="42">
         <v>4</v>
       </c>
-      <c r="D49" s="273" t="s">
+      <c r="D49" s="293" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="274"/>
-      <c r="F49" s="274"/>
-      <c r="G49" s="274"/>
-      <c r="H49" s="256" t="s">
+      <c r="E49" s="294"/>
+      <c r="F49" s="294"/>
+      <c r="G49" s="294"/>
+      <c r="H49" s="318" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="257"/>
-      <c r="J49" s="257"/>
-      <c r="K49" s="257"/>
-      <c r="L49" s="257"/>
-      <c r="M49" s="257"/>
-      <c r="N49" s="257"/>
-      <c r="O49" s="257"/>
-      <c r="P49" s="257"/>
-      <c r="Q49" s="257"/>
-      <c r="R49" s="257"/>
-      <c r="S49" s="257"/>
-      <c r="T49" s="257"/>
-      <c r="U49" s="257"/>
-      <c r="V49" s="258"/>
-      <c r="W49" s="266" t="s">
+      <c r="I49" s="319"/>
+      <c r="J49" s="319"/>
+      <c r="K49" s="319"/>
+      <c r="L49" s="319"/>
+      <c r="M49" s="319"/>
+      <c r="N49" s="319"/>
+      <c r="O49" s="319"/>
+      <c r="P49" s="319"/>
+      <c r="Q49" s="319"/>
+      <c r="R49" s="319"/>
+      <c r="S49" s="319"/>
+      <c r="T49" s="319"/>
+      <c r="U49" s="319"/>
+      <c r="V49" s="320"/>
+      <c r="W49" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="X49" s="267"/>
-      <c r="Y49" s="267"/>
-      <c r="Z49" s="267"/>
-      <c r="AA49" s="267"/>
-      <c r="AB49" s="267"/>
-      <c r="AC49" s="267"/>
-      <c r="AD49" s="267"/>
-      <c r="AE49" s="267"/>
-      <c r="AF49" s="267"/>
-      <c r="AG49" s="267"/>
-      <c r="AH49" s="267"/>
-      <c r="AI49" s="267"/>
-      <c r="AJ49" s="267"/>
-      <c r="AK49" s="267"/>
-      <c r="AL49" s="267"/>
-      <c r="AM49" s="267"/>
-      <c r="AN49" s="267"/>
-      <c r="AO49" s="267"/>
-      <c r="AP49" s="267"/>
-      <c r="AQ49" s="267"/>
-      <c r="AR49" s="267"/>
-      <c r="AS49" s="268"/>
+      <c r="X49" s="291"/>
+      <c r="Y49" s="291"/>
+      <c r="Z49" s="291"/>
+      <c r="AA49" s="291"/>
+      <c r="AB49" s="291"/>
+      <c r="AC49" s="291"/>
+      <c r="AD49" s="291"/>
+      <c r="AE49" s="291"/>
+      <c r="AF49" s="291"/>
+      <c r="AG49" s="291"/>
+      <c r="AH49" s="291"/>
+      <c r="AI49" s="291"/>
+      <c r="AJ49" s="291"/>
+      <c r="AK49" s="291"/>
+      <c r="AL49" s="291"/>
+      <c r="AM49" s="291"/>
+      <c r="AN49" s="291"/>
+      <c r="AO49" s="291"/>
+      <c r="AP49" s="291"/>
+      <c r="AQ49" s="291"/>
+      <c r="AR49" s="291"/>
+      <c r="AS49" s="292"/>
       <c r="AT49" s="4"/>
       <c r="AU49" s="4"/>
       <c r="AV49" s="4"/>
@@ -15137,54 +15124,54 @@
       <c r="C50" s="42">
         <v>5</v>
       </c>
-      <c r="D50" s="273" t="s">
+      <c r="D50" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="274"/>
-      <c r="F50" s="274"/>
-      <c r="G50" s="274"/>
-      <c r="H50" s="266" t="s">
+      <c r="E50" s="294"/>
+      <c r="F50" s="294"/>
+      <c r="G50" s="294"/>
+      <c r="H50" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="267"/>
-      <c r="J50" s="267"/>
-      <c r="K50" s="267"/>
-      <c r="L50" s="267"/>
-      <c r="M50" s="267"/>
-      <c r="N50" s="267"/>
-      <c r="O50" s="267"/>
-      <c r="P50" s="267"/>
-      <c r="Q50" s="267"/>
-      <c r="R50" s="267"/>
-      <c r="S50" s="267"/>
-      <c r="T50" s="267"/>
-      <c r="U50" s="267"/>
-      <c r="V50" s="268"/>
-      <c r="W50" s="266" t="s">
+      <c r="I50" s="291"/>
+      <c r="J50" s="291"/>
+      <c r="K50" s="291"/>
+      <c r="L50" s="291"/>
+      <c r="M50" s="291"/>
+      <c r="N50" s="291"/>
+      <c r="O50" s="291"/>
+      <c r="P50" s="291"/>
+      <c r="Q50" s="291"/>
+      <c r="R50" s="291"/>
+      <c r="S50" s="291"/>
+      <c r="T50" s="291"/>
+      <c r="U50" s="291"/>
+      <c r="V50" s="292"/>
+      <c r="W50" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="X50" s="267"/>
-      <c r="Y50" s="267"/>
-      <c r="Z50" s="267"/>
-      <c r="AA50" s="267"/>
-      <c r="AB50" s="267"/>
-      <c r="AC50" s="267"/>
-      <c r="AD50" s="267"/>
-      <c r="AE50" s="267"/>
-      <c r="AF50" s="267"/>
-      <c r="AG50" s="267"/>
-      <c r="AH50" s="267"/>
-      <c r="AI50" s="267"/>
-      <c r="AJ50" s="267"/>
-      <c r="AK50" s="267"/>
-      <c r="AL50" s="267"/>
-      <c r="AM50" s="267"/>
-      <c r="AN50" s="267"/>
-      <c r="AO50" s="267"/>
-      <c r="AP50" s="267"/>
-      <c r="AQ50" s="267"/>
-      <c r="AR50" s="267"/>
-      <c r="AS50" s="268"/>
+      <c r="X50" s="291"/>
+      <c r="Y50" s="291"/>
+      <c r="Z50" s="291"/>
+      <c r="AA50" s="291"/>
+      <c r="AB50" s="291"/>
+      <c r="AC50" s="291"/>
+      <c r="AD50" s="291"/>
+      <c r="AE50" s="291"/>
+      <c r="AF50" s="291"/>
+      <c r="AG50" s="291"/>
+      <c r="AH50" s="291"/>
+      <c r="AI50" s="291"/>
+      <c r="AJ50" s="291"/>
+      <c r="AK50" s="291"/>
+      <c r="AL50" s="291"/>
+      <c r="AM50" s="291"/>
+      <c r="AN50" s="291"/>
+      <c r="AO50" s="291"/>
+      <c r="AP50" s="291"/>
+      <c r="AQ50" s="291"/>
+      <c r="AR50" s="291"/>
+      <c r="AS50" s="292"/>
       <c r="AT50" s="4"/>
       <c r="AU50" s="4"/>
       <c r="AV50" s="4"/>
@@ -15302,53 +15289,53 @@
       <c r="B53" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="259" t="s">
+      <c r="C53" s="325" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="259"/>
-      <c r="E53" s="259"/>
-      <c r="F53" s="259"/>
-      <c r="G53" s="259"/>
-      <c r="H53" s="259" t="s">
+      <c r="D53" s="325"/>
+      <c r="E53" s="325"/>
+      <c r="F53" s="325"/>
+      <c r="G53" s="325"/>
+      <c r="H53" s="325" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="259"/>
-      <c r="J53" s="259"/>
-      <c r="K53" s="259"/>
-      <c r="L53" s="259"/>
-      <c r="M53" s="259"/>
-      <c r="N53" s="259"/>
-      <c r="O53" s="259"/>
-      <c r="P53" s="259"/>
-      <c r="Q53" s="259"/>
-      <c r="R53" s="259" t="s">
+      <c r="I53" s="325"/>
+      <c r="J53" s="325"/>
+      <c r="K53" s="325"/>
+      <c r="L53" s="325"/>
+      <c r="M53" s="325"/>
+      <c r="N53" s="325"/>
+      <c r="O53" s="325"/>
+      <c r="P53" s="325"/>
+      <c r="Q53" s="325"/>
+      <c r="R53" s="325" t="s">
         <v>21</v>
       </c>
-      <c r="S53" s="259"/>
-      <c r="T53" s="259"/>
-      <c r="U53" s="259"/>
-      <c r="V53" s="259"/>
-      <c r="W53" s="259"/>
-      <c r="X53" s="259"/>
-      <c r="Y53" s="259"/>
-      <c r="Z53" s="259"/>
-      <c r="AA53" s="259"/>
-      <c r="AB53" s="259"/>
-      <c r="AC53" s="259"/>
-      <c r="AD53" s="259"/>
-      <c r="AE53" s="259"/>
-      <c r="AF53" s="259"/>
-      <c r="AG53" s="259"/>
-      <c r="AH53" s="259"/>
-      <c r="AI53" s="259"/>
-      <c r="AJ53" s="259"/>
-      <c r="AK53" s="259"/>
-      <c r="AL53" s="259"/>
-      <c r="AM53" s="259"/>
-      <c r="AN53" s="259"/>
-      <c r="AO53" s="259"/>
-      <c r="AP53" s="259"/>
-      <c r="AQ53" s="259"/>
+      <c r="S53" s="325"/>
+      <c r="T53" s="325"/>
+      <c r="U53" s="325"/>
+      <c r="V53" s="325"/>
+      <c r="W53" s="325"/>
+      <c r="X53" s="325"/>
+      <c r="Y53" s="325"/>
+      <c r="Z53" s="325"/>
+      <c r="AA53" s="325"/>
+      <c r="AB53" s="325"/>
+      <c r="AC53" s="325"/>
+      <c r="AD53" s="325"/>
+      <c r="AE53" s="325"/>
+      <c r="AF53" s="325"/>
+      <c r="AG53" s="325"/>
+      <c r="AH53" s="325"/>
+      <c r="AI53" s="325"/>
+      <c r="AJ53" s="325"/>
+      <c r="AK53" s="325"/>
+      <c r="AL53" s="325"/>
+      <c r="AM53" s="325"/>
+      <c r="AN53" s="325"/>
+      <c r="AO53" s="325"/>
+      <c r="AP53" s="325"/>
+      <c r="AQ53" s="325"/>
       <c r="AR53" s="35"/>
       <c r="AS53" s="35"/>
       <c r="AT53" s="35"/>
@@ -15362,13 +15349,13 @@
       <c r="B54" s="133">
         <v>1</v>
       </c>
-      <c r="C54" s="260" t="s">
+      <c r="C54" s="326" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="261"/>
-      <c r="E54" s="261"/>
-      <c r="F54" s="261"/>
-      <c r="G54" s="262"/>
+      <c r="D54" s="327"/>
+      <c r="E54" s="327"/>
+      <c r="F54" s="327"/>
+      <c r="G54" s="328"/>
       <c r="H54" s="134" t="s">
         <v>57</v>
       </c>
@@ -15381,34 +15368,34 @@
       <c r="O54" s="135"/>
       <c r="P54" s="135"/>
       <c r="Q54" s="135"/>
-      <c r="R54" s="263" t="s">
+      <c r="R54" s="329" t="s">
         <v>65</v>
       </c>
-      <c r="S54" s="264"/>
-      <c r="T54" s="264"/>
-      <c r="U54" s="264"/>
-      <c r="V54" s="264"/>
-      <c r="W54" s="264"/>
-      <c r="X54" s="264"/>
-      <c r="Y54" s="264"/>
-      <c r="Z54" s="264"/>
-      <c r="AA54" s="264"/>
-      <c r="AB54" s="264"/>
-      <c r="AC54" s="264"/>
-      <c r="AD54" s="264"/>
-      <c r="AE54" s="264"/>
-      <c r="AF54" s="264"/>
-      <c r="AG54" s="264"/>
-      <c r="AH54" s="264"/>
-      <c r="AI54" s="264"/>
-      <c r="AJ54" s="264"/>
-      <c r="AK54" s="264"/>
-      <c r="AL54" s="264"/>
-      <c r="AM54" s="264"/>
-      <c r="AN54" s="264"/>
-      <c r="AO54" s="264"/>
-      <c r="AP54" s="264"/>
-      <c r="AQ54" s="265"/>
+      <c r="S54" s="330"/>
+      <c r="T54" s="330"/>
+      <c r="U54" s="330"/>
+      <c r="V54" s="330"/>
+      <c r="W54" s="330"/>
+      <c r="X54" s="330"/>
+      <c r="Y54" s="330"/>
+      <c r="Z54" s="330"/>
+      <c r="AA54" s="330"/>
+      <c r="AB54" s="330"/>
+      <c r="AC54" s="330"/>
+      <c r="AD54" s="330"/>
+      <c r="AE54" s="330"/>
+      <c r="AF54" s="330"/>
+      <c r="AG54" s="330"/>
+      <c r="AH54" s="330"/>
+      <c r="AI54" s="330"/>
+      <c r="AJ54" s="330"/>
+      <c r="AK54" s="330"/>
+      <c r="AL54" s="330"/>
+      <c r="AM54" s="330"/>
+      <c r="AN54" s="330"/>
+      <c r="AO54" s="330"/>
+      <c r="AP54" s="330"/>
+      <c r="AQ54" s="331"/>
       <c r="AR54" s="4"/>
       <c r="AS54" s="4"/>
       <c r="AT54" s="4"/>
@@ -15422,13 +15409,13 @@
       <c r="B55" s="137">
         <v>2</v>
       </c>
-      <c r="C55" s="244" t="s">
+      <c r="C55" s="295" t="s">
         <v>156</v>
       </c>
-      <c r="D55" s="245"/>
-      <c r="E55" s="245"/>
-      <c r="F55" s="245"/>
-      <c r="G55" s="246"/>
+      <c r="D55" s="296"/>
+      <c r="E55" s="296"/>
+      <c r="F55" s="296"/>
+      <c r="G55" s="297"/>
       <c r="H55" s="130" t="s">
         <v>58</v>
       </c>
@@ -15441,34 +15428,34 @@
       <c r="O55" s="131"/>
       <c r="P55" s="131"/>
       <c r="Q55" s="131"/>
-      <c r="R55" s="247" t="s">
+      <c r="R55" s="322" t="s">
         <v>59</v>
       </c>
-      <c r="S55" s="248"/>
-      <c r="T55" s="248"/>
-      <c r="U55" s="248"/>
-      <c r="V55" s="248"/>
-      <c r="W55" s="248"/>
-      <c r="X55" s="248"/>
-      <c r="Y55" s="248"/>
-      <c r="Z55" s="248"/>
-      <c r="AA55" s="248"/>
-      <c r="AB55" s="248"/>
-      <c r="AC55" s="248"/>
-      <c r="AD55" s="248"/>
-      <c r="AE55" s="248"/>
-      <c r="AF55" s="248"/>
-      <c r="AG55" s="248"/>
-      <c r="AH55" s="248"/>
-      <c r="AI55" s="248"/>
-      <c r="AJ55" s="248"/>
-      <c r="AK55" s="248"/>
-      <c r="AL55" s="248"/>
-      <c r="AM55" s="248"/>
-      <c r="AN55" s="248"/>
-      <c r="AO55" s="248"/>
-      <c r="AP55" s="248"/>
-      <c r="AQ55" s="249"/>
+      <c r="S55" s="323"/>
+      <c r="T55" s="323"/>
+      <c r="U55" s="323"/>
+      <c r="V55" s="323"/>
+      <c r="W55" s="323"/>
+      <c r="X55" s="323"/>
+      <c r="Y55" s="323"/>
+      <c r="Z55" s="323"/>
+      <c r="AA55" s="323"/>
+      <c r="AB55" s="323"/>
+      <c r="AC55" s="323"/>
+      <c r="AD55" s="323"/>
+      <c r="AE55" s="323"/>
+      <c r="AF55" s="323"/>
+      <c r="AG55" s="323"/>
+      <c r="AH55" s="323"/>
+      <c r="AI55" s="323"/>
+      <c r="AJ55" s="323"/>
+      <c r="AK55" s="323"/>
+      <c r="AL55" s="323"/>
+      <c r="AM55" s="323"/>
+      <c r="AN55" s="323"/>
+      <c r="AO55" s="323"/>
+      <c r="AP55" s="323"/>
+      <c r="AQ55" s="324"/>
       <c r="AR55" s="19"/>
       <c r="AS55" s="19"/>
       <c r="AT55" s="19"/>
@@ -15482,15 +15469,15 @@
       <c r="B56" s="133">
         <v>3</v>
       </c>
-      <c r="C56" s="244" t="s">
+      <c r="C56" s="295" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="245"/>
-      <c r="E56" s="245"/>
-      <c r="F56" s="245"/>
-      <c r="G56" s="246"/>
+      <c r="D56" s="296"/>
+      <c r="E56" s="296"/>
+      <c r="F56" s="296"/>
+      <c r="G56" s="297"/>
       <c r="H56" s="132" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I56" s="131"/>
       <c r="J56" s="131"/>
@@ -15501,34 +15488,34 @@
       <c r="O56" s="131"/>
       <c r="P56" s="131"/>
       <c r="Q56" s="131"/>
-      <c r="R56" s="244" t="s">
+      <c r="R56" s="295" t="s">
         <v>155</v>
       </c>
-      <c r="S56" s="245"/>
-      <c r="T56" s="245"/>
-      <c r="U56" s="245"/>
-      <c r="V56" s="245"/>
-      <c r="W56" s="245"/>
-      <c r="X56" s="245"/>
-      <c r="Y56" s="245"/>
-      <c r="Z56" s="245"/>
-      <c r="AA56" s="245"/>
-      <c r="AB56" s="245"/>
-      <c r="AC56" s="245"/>
-      <c r="AD56" s="245"/>
-      <c r="AE56" s="245"/>
-      <c r="AF56" s="245"/>
-      <c r="AG56" s="245"/>
-      <c r="AH56" s="245"/>
-      <c r="AI56" s="245"/>
-      <c r="AJ56" s="245"/>
-      <c r="AK56" s="245"/>
-      <c r="AL56" s="245"/>
-      <c r="AM56" s="245"/>
-      <c r="AN56" s="245"/>
-      <c r="AO56" s="245"/>
-      <c r="AP56" s="245"/>
-      <c r="AQ56" s="246"/>
+      <c r="S56" s="296"/>
+      <c r="T56" s="296"/>
+      <c r="U56" s="296"/>
+      <c r="V56" s="296"/>
+      <c r="W56" s="296"/>
+      <c r="X56" s="296"/>
+      <c r="Y56" s="296"/>
+      <c r="Z56" s="296"/>
+      <c r="AA56" s="296"/>
+      <c r="AB56" s="296"/>
+      <c r="AC56" s="296"/>
+      <c r="AD56" s="296"/>
+      <c r="AE56" s="296"/>
+      <c r="AF56" s="296"/>
+      <c r="AG56" s="296"/>
+      <c r="AH56" s="296"/>
+      <c r="AI56" s="296"/>
+      <c r="AJ56" s="296"/>
+      <c r="AK56" s="296"/>
+      <c r="AL56" s="296"/>
+      <c r="AM56" s="296"/>
+      <c r="AN56" s="296"/>
+      <c r="AO56" s="296"/>
+      <c r="AP56" s="296"/>
+      <c r="AQ56" s="297"/>
       <c r="AR56" s="19"/>
       <c r="AS56" s="19"/>
       <c r="AT56" s="19"/>
@@ -15542,15 +15529,15 @@
       <c r="B57" s="137">
         <v>4</v>
       </c>
-      <c r="C57" s="244" t="s">
+      <c r="C57" s="295" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="245"/>
-      <c r="E57" s="245"/>
-      <c r="F57" s="245"/>
-      <c r="G57" s="246"/>
+      <c r="D57" s="296"/>
+      <c r="E57" s="296"/>
+      <c r="F57" s="296"/>
+      <c r="G57" s="297"/>
       <c r="H57" s="134" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I57" s="135"/>
       <c r="J57" s="135"/>
@@ -15561,34 +15548,34 @@
       <c r="O57" s="135"/>
       <c r="P57" s="135"/>
       <c r="Q57" s="135"/>
-      <c r="R57" s="250" t="s">
-        <v>357</v>
-      </c>
-      <c r="S57" s="251"/>
-      <c r="T57" s="251"/>
-      <c r="U57" s="251"/>
-      <c r="V57" s="251"/>
-      <c r="W57" s="251"/>
-      <c r="X57" s="251"/>
-      <c r="Y57" s="251"/>
-      <c r="Z57" s="251"/>
-      <c r="AA57" s="251"/>
-      <c r="AB57" s="251"/>
-      <c r="AC57" s="251"/>
-      <c r="AD57" s="251"/>
-      <c r="AE57" s="251"/>
-      <c r="AF57" s="251"/>
-      <c r="AG57" s="251"/>
-      <c r="AH57" s="251"/>
-      <c r="AI57" s="251"/>
-      <c r="AJ57" s="251"/>
-      <c r="AK57" s="251"/>
-      <c r="AL57" s="251"/>
-      <c r="AM57" s="251"/>
-      <c r="AN57" s="251"/>
-      <c r="AO57" s="251"/>
-      <c r="AP57" s="251"/>
-      <c r="AQ57" s="252"/>
+      <c r="R57" s="298" t="s">
+        <v>356</v>
+      </c>
+      <c r="S57" s="299"/>
+      <c r="T57" s="299"/>
+      <c r="U57" s="299"/>
+      <c r="V57" s="299"/>
+      <c r="W57" s="299"/>
+      <c r="X57" s="299"/>
+      <c r="Y57" s="299"/>
+      <c r="Z57" s="299"/>
+      <c r="AA57" s="299"/>
+      <c r="AB57" s="299"/>
+      <c r="AC57" s="299"/>
+      <c r="AD57" s="299"/>
+      <c r="AE57" s="299"/>
+      <c r="AF57" s="299"/>
+      <c r="AG57" s="299"/>
+      <c r="AH57" s="299"/>
+      <c r="AI57" s="299"/>
+      <c r="AJ57" s="299"/>
+      <c r="AK57" s="299"/>
+      <c r="AL57" s="299"/>
+      <c r="AM57" s="299"/>
+      <c r="AN57" s="299"/>
+      <c r="AO57" s="299"/>
+      <c r="AP57" s="299"/>
+      <c r="AQ57" s="300"/>
       <c r="AR57" s="19"/>
       <c r="AS57" s="19"/>
       <c r="AT57" s="19"/>
@@ -15602,15 +15589,15 @@
       <c r="B58" s="133">
         <v>5</v>
       </c>
-      <c r="C58" s="253" t="s">
+      <c r="C58" s="301" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="254"/>
-      <c r="E58" s="254"/>
-      <c r="F58" s="254"/>
-      <c r="G58" s="255"/>
+      <c r="D58" s="302"/>
+      <c r="E58" s="302"/>
+      <c r="F58" s="302"/>
+      <c r="G58" s="303"/>
       <c r="H58" s="130" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I58" s="131"/>
       <c r="J58" s="131"/>
@@ -15621,34 +15608,34 @@
       <c r="O58" s="131"/>
       <c r="P58" s="131"/>
       <c r="Q58" s="138"/>
-      <c r="R58" s="247" t="s">
-        <v>275</v>
-      </c>
-      <c r="S58" s="248"/>
-      <c r="T58" s="248"/>
-      <c r="U58" s="248"/>
-      <c r="V58" s="248"/>
-      <c r="W58" s="248"/>
-      <c r="X58" s="248"/>
-      <c r="Y58" s="248"/>
-      <c r="Z58" s="248"/>
-      <c r="AA58" s="248"/>
-      <c r="AB58" s="248"/>
-      <c r="AC58" s="248"/>
-      <c r="AD58" s="248"/>
-      <c r="AE58" s="248"/>
-      <c r="AF58" s="248"/>
-      <c r="AG58" s="248"/>
-      <c r="AH58" s="248"/>
-      <c r="AI58" s="248"/>
-      <c r="AJ58" s="248"/>
-      <c r="AK58" s="248"/>
-      <c r="AL58" s="248"/>
-      <c r="AM58" s="248"/>
-      <c r="AN58" s="248"/>
-      <c r="AO58" s="248"/>
-      <c r="AP58" s="248"/>
-      <c r="AQ58" s="249"/>
+      <c r="R58" s="322" t="s">
+        <v>274</v>
+      </c>
+      <c r="S58" s="323"/>
+      <c r="T58" s="323"/>
+      <c r="U58" s="323"/>
+      <c r="V58" s="323"/>
+      <c r="W58" s="323"/>
+      <c r="X58" s="323"/>
+      <c r="Y58" s="323"/>
+      <c r="Z58" s="323"/>
+      <c r="AA58" s="323"/>
+      <c r="AB58" s="323"/>
+      <c r="AC58" s="323"/>
+      <c r="AD58" s="323"/>
+      <c r="AE58" s="323"/>
+      <c r="AF58" s="323"/>
+      <c r="AG58" s="323"/>
+      <c r="AH58" s="323"/>
+      <c r="AI58" s="323"/>
+      <c r="AJ58" s="323"/>
+      <c r="AK58" s="323"/>
+      <c r="AL58" s="323"/>
+      <c r="AM58" s="323"/>
+      <c r="AN58" s="323"/>
+      <c r="AO58" s="323"/>
+      <c r="AP58" s="323"/>
+      <c r="AQ58" s="324"/>
       <c r="AR58" s="19"/>
       <c r="AS58" s="19"/>
       <c r="AT58" s="19"/>
@@ -15662,13 +15649,13 @@
       <c r="B59" s="137">
         <v>6</v>
       </c>
-      <c r="C59" s="244" t="s">
+      <c r="C59" s="295" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="245"/>
-      <c r="E59" s="245"/>
-      <c r="F59" s="245"/>
-      <c r="G59" s="246"/>
+      <c r="D59" s="296"/>
+      <c r="E59" s="296"/>
+      <c r="F59" s="296"/>
+      <c r="G59" s="297"/>
       <c r="H59" s="134" t="s">
         <v>67</v>
       </c>
@@ -15681,34 +15668,34 @@
       <c r="O59" s="135"/>
       <c r="P59" s="135"/>
       <c r="Q59" s="135"/>
-      <c r="R59" s="250" t="s">
+      <c r="R59" s="298" t="s">
         <v>66</v>
       </c>
-      <c r="S59" s="251"/>
-      <c r="T59" s="251"/>
-      <c r="U59" s="251"/>
-      <c r="V59" s="251"/>
-      <c r="W59" s="251"/>
-      <c r="X59" s="251"/>
-      <c r="Y59" s="251"/>
-      <c r="Z59" s="251"/>
-      <c r="AA59" s="251"/>
-      <c r="AB59" s="251"/>
-      <c r="AC59" s="251"/>
-      <c r="AD59" s="251"/>
-      <c r="AE59" s="251"/>
-      <c r="AF59" s="251"/>
-      <c r="AG59" s="251"/>
-      <c r="AH59" s="251"/>
-      <c r="AI59" s="251"/>
-      <c r="AJ59" s="251"/>
-      <c r="AK59" s="251"/>
-      <c r="AL59" s="251"/>
-      <c r="AM59" s="251"/>
-      <c r="AN59" s="251"/>
-      <c r="AO59" s="251"/>
-      <c r="AP59" s="251"/>
-      <c r="AQ59" s="252"/>
+      <c r="S59" s="299"/>
+      <c r="T59" s="299"/>
+      <c r="U59" s="299"/>
+      <c r="V59" s="299"/>
+      <c r="W59" s="299"/>
+      <c r="X59" s="299"/>
+      <c r="Y59" s="299"/>
+      <c r="Z59" s="299"/>
+      <c r="AA59" s="299"/>
+      <c r="AB59" s="299"/>
+      <c r="AC59" s="299"/>
+      <c r="AD59" s="299"/>
+      <c r="AE59" s="299"/>
+      <c r="AF59" s="299"/>
+      <c r="AG59" s="299"/>
+      <c r="AH59" s="299"/>
+      <c r="AI59" s="299"/>
+      <c r="AJ59" s="299"/>
+      <c r="AK59" s="299"/>
+      <c r="AL59" s="299"/>
+      <c r="AM59" s="299"/>
+      <c r="AN59" s="299"/>
+      <c r="AO59" s="299"/>
+      <c r="AP59" s="299"/>
+      <c r="AQ59" s="300"/>
       <c r="AR59" s="19"/>
       <c r="AS59" s="19"/>
       <c r="AT59" s="19"/>
@@ -15741,11 +15728,11 @@
       <c r="U60" s="141"/>
       <c r="V60" s="141"/>
       <c r="W60" s="141"/>
-      <c r="X60" s="348"/>
-      <c r="Y60" s="348"/>
-      <c r="Z60" s="348"/>
-      <c r="AA60" s="348"/>
-      <c r="AB60" s="348"/>
+      <c r="X60" s="282"/>
+      <c r="Y60" s="282"/>
+      <c r="Z60" s="282"/>
+      <c r="AA60" s="282"/>
+      <c r="AB60" s="282"/>
       <c r="AC60" s="141"/>
       <c r="AD60" s="141"/>
       <c r="AE60" s="141"/>
@@ -15793,11 +15780,11 @@
       <c r="U61" s="27"/>
       <c r="V61" s="27"/>
       <c r="W61" s="27"/>
-      <c r="X61" s="349"/>
-      <c r="Y61" s="346"/>
-      <c r="Z61" s="346"/>
-      <c r="AA61" s="346"/>
-      <c r="AB61" s="346"/>
+      <c r="X61" s="283"/>
+      <c r="Y61" s="280"/>
+      <c r="Z61" s="280"/>
+      <c r="AA61" s="280"/>
+      <c r="AB61" s="280"/>
       <c r="AC61" s="50" t="s">
         <v>36</v>
       </c>
@@ -15847,11 +15834,11 @@
       <c r="U62" s="27"/>
       <c r="V62" s="27"/>
       <c r="W62" s="27"/>
-      <c r="X62" s="349"/>
-      <c r="Y62" s="346"/>
-      <c r="Z62" s="346"/>
-      <c r="AA62" s="346"/>
-      <c r="AB62" s="346"/>
+      <c r="X62" s="283"/>
+      <c r="Y62" s="280"/>
+      <c r="Z62" s="280"/>
+      <c r="AA62" s="280"/>
+      <c r="AB62" s="280"/>
       <c r="AC62" s="27"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
@@ -15905,11 +15892,11 @@
       <c r="U63" s="27"/>
       <c r="V63" s="27"/>
       <c r="W63" s="27"/>
-      <c r="X63" s="349"/>
-      <c r="Y63" s="346"/>
-      <c r="Z63" s="346"/>
-      <c r="AA63" s="346"/>
-      <c r="AB63" s="346"/>
+      <c r="X63" s="283"/>
+      <c r="Y63" s="280"/>
+      <c r="Z63" s="280"/>
+      <c r="AA63" s="280"/>
+      <c r="AB63" s="280"/>
       <c r="AC63" s="27"/>
       <c r="AD63" s="54" t="s">
         <v>35</v>
@@ -15926,8 +15913,8 @@
       </c>
       <c r="AM63" s="60"/>
       <c r="AN63" s="204"/>
-      <c r="AO63" s="347" t="s">
-        <v>358</v>
+      <c r="AO63" s="281" t="s">
+        <v>357</v>
       </c>
       <c r="AP63" s="203"/>
       <c r="AQ63" s="203"/>
@@ -15971,11 +15958,11 @@
       <c r="U64" s="27"/>
       <c r="V64" s="27"/>
       <c r="W64" s="27"/>
-      <c r="X64" s="349"/>
-      <c r="Y64" s="346"/>
-      <c r="Z64" s="346"/>
-      <c r="AA64" s="346"/>
-      <c r="AB64" s="346"/>
+      <c r="X64" s="283"/>
+      <c r="Y64" s="280"/>
+      <c r="Z64" s="280"/>
+      <c r="AA64" s="280"/>
+      <c r="AB64" s="280"/>
       <c r="AC64" s="27"/>
       <c r="AD64" s="57" t="s">
         <v>57</v>
@@ -16033,11 +16020,11 @@
       <c r="U65" s="27"/>
       <c r="V65" s="27"/>
       <c r="W65" s="27"/>
-      <c r="X65" s="349"/>
-      <c r="Y65" s="346"/>
-      <c r="Z65" s="346"/>
-      <c r="AA65" s="346"/>
-      <c r="AB65" s="346"/>
+      <c r="X65" s="283"/>
+      <c r="Y65" s="280"/>
+      <c r="Z65" s="280"/>
+      <c r="AA65" s="280"/>
+      <c r="AB65" s="280"/>
       <c r="AC65" s="27"/>
       <c r="AD65" s="51" t="s">
         <v>154</v>
@@ -16099,14 +16086,14 @@
       <c r="U66" s="27"/>
       <c r="V66" s="27"/>
       <c r="W66" s="27"/>
-      <c r="X66" s="349"/>
-      <c r="Y66" s="346"/>
-      <c r="Z66" s="346"/>
-      <c r="AA66" s="346"/>
-      <c r="AB66" s="346"/>
+      <c r="X66" s="283"/>
+      <c r="Y66" s="280"/>
+      <c r="Z66" s="280"/>
+      <c r="AA66" s="280"/>
+      <c r="AB66" s="280"/>
       <c r="AC66" s="27"/>
       <c r="AD66" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE66" s="48"/>
       <c r="AF66" s="48"/>
@@ -16161,14 +16148,14 @@
       <c r="U67" s="27"/>
       <c r="V67" s="27"/>
       <c r="W67" s="27"/>
-      <c r="X67" s="349"/>
-      <c r="Y67" s="346"/>
-      <c r="Z67" s="346"/>
-      <c r="AA67" s="346"/>
-      <c r="AB67" s="346"/>
+      <c r="X67" s="283"/>
+      <c r="Y67" s="280"/>
+      <c r="Z67" s="280"/>
+      <c r="AA67" s="280"/>
+      <c r="AB67" s="280"/>
       <c r="AC67" s="27"/>
       <c r="AD67" s="134" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AE67" s="48"/>
       <c r="AF67" s="48"/>
@@ -16223,14 +16210,14 @@
       <c r="U68" s="27"/>
       <c r="V68" s="27"/>
       <c r="W68" s="27"/>
-      <c r="X68" s="349"/>
-      <c r="Y68" s="346"/>
-      <c r="Z68" s="346"/>
-      <c r="AA68" s="346"/>
-      <c r="AB68" s="346"/>
+      <c r="X68" s="283"/>
+      <c r="Y68" s="280"/>
+      <c r="Z68" s="280"/>
+      <c r="AA68" s="280"/>
+      <c r="AB68" s="280"/>
       <c r="AC68" s="27"/>
       <c r="AD68" s="130" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AE68" s="48"/>
       <c r="AF68" s="48"/>
@@ -16285,11 +16272,11 @@
       <c r="U69" s="27"/>
       <c r="V69" s="27"/>
       <c r="W69" s="27"/>
-      <c r="X69" s="349"/>
-      <c r="Y69" s="346"/>
-      <c r="Z69" s="346"/>
-      <c r="AA69" s="346"/>
-      <c r="AB69" s="346"/>
+      <c r="X69" s="283"/>
+      <c r="Y69" s="280"/>
+      <c r="Z69" s="280"/>
+      <c r="AA69" s="280"/>
+      <c r="AB69" s="280"/>
       <c r="AC69" s="27"/>
       <c r="AD69" s="51" t="s">
         <v>67</v>
@@ -16347,31 +16334,31 @@
       <c r="U70" s="27"/>
       <c r="V70" s="27"/>
       <c r="W70" s="27"/>
-      <c r="X70" s="349"/>
-      <c r="Y70" s="346"/>
-      <c r="Z70" s="346"/>
-      <c r="AA70" s="346"/>
-      <c r="AB70" s="346"/>
+      <c r="X70" s="283"/>
+      <c r="Y70" s="280"/>
+      <c r="Z70" s="280"/>
+      <c r="AA70" s="280"/>
+      <c r="AB70" s="280"/>
       <c r="AC70" s="27"/>
-      <c r="AD70" s="346"/>
-      <c r="AE70" s="346"/>
-      <c r="AF70" s="346"/>
-      <c r="AG70" s="346"/>
-      <c r="AH70" s="346"/>
-      <c r="AI70" s="346"/>
-      <c r="AJ70" s="346"/>
-      <c r="AK70" s="346"/>
-      <c r="AL70" s="346"/>
-      <c r="AM70" s="346"/>
-      <c r="AN70" s="346"/>
-      <c r="AO70" s="346"/>
-      <c r="AP70" s="346"/>
-      <c r="AQ70" s="346"/>
-      <c r="AR70" s="346"/>
-      <c r="AS70" s="346"/>
-      <c r="AT70" s="346"/>
-      <c r="AU70" s="346"/>
-      <c r="AV70" s="346"/>
+      <c r="AD70" s="280"/>
+      <c r="AE70" s="280"/>
+      <c r="AF70" s="280"/>
+      <c r="AG70" s="280"/>
+      <c r="AH70" s="280"/>
+      <c r="AI70" s="280"/>
+      <c r="AJ70" s="280"/>
+      <c r="AK70" s="280"/>
+      <c r="AL70" s="280"/>
+      <c r="AM70" s="280"/>
+      <c r="AN70" s="280"/>
+      <c r="AO70" s="280"/>
+      <c r="AP70" s="280"/>
+      <c r="AQ70" s="280"/>
+      <c r="AR70" s="280"/>
+      <c r="AS70" s="280"/>
+      <c r="AT70" s="280"/>
+      <c r="AU70" s="280"/>
+      <c r="AV70" s="280"/>
       <c r="AW70" s="27"/>
       <c r="AX70" s="44"/>
       <c r="AY70" s="47"/>
@@ -16405,27 +16392,27 @@
       <c r="U71" s="27"/>
       <c r="V71" s="27"/>
       <c r="W71" s="27"/>
-      <c r="X71" s="349"/>
-      <c r="Y71" s="349"/>
-      <c r="Z71" s="346"/>
-      <c r="AA71" s="346"/>
-      <c r="AB71" s="346"/>
-      <c r="AC71" s="346"/>
-      <c r="AD71" s="346"/>
-      <c r="AE71" s="346"/>
-      <c r="AF71" s="346"/>
-      <c r="AG71" s="346"/>
-      <c r="AH71" s="346"/>
-      <c r="AI71" s="346"/>
-      <c r="AJ71" s="346"/>
-      <c r="AK71" s="346"/>
-      <c r="AL71" s="346"/>
-      <c r="AM71" s="346"/>
-      <c r="AN71" s="346"/>
-      <c r="AO71" s="346"/>
-      <c r="AP71" s="346"/>
-      <c r="AQ71" s="346"/>
-      <c r="AR71" s="346"/>
+      <c r="X71" s="283"/>
+      <c r="Y71" s="283"/>
+      <c r="Z71" s="280"/>
+      <c r="AA71" s="280"/>
+      <c r="AB71" s="280"/>
+      <c r="AC71" s="280"/>
+      <c r="AD71" s="280"/>
+      <c r="AE71" s="280"/>
+      <c r="AF71" s="280"/>
+      <c r="AG71" s="280"/>
+      <c r="AH71" s="280"/>
+      <c r="AI71" s="280"/>
+      <c r="AJ71" s="280"/>
+      <c r="AK71" s="280"/>
+      <c r="AL71" s="280"/>
+      <c r="AM71" s="280"/>
+      <c r="AN71" s="280"/>
+      <c r="AO71" s="280"/>
+      <c r="AP71" s="280"/>
+      <c r="AQ71" s="280"/>
+      <c r="AR71" s="280"/>
       <c r="AS71" s="27"/>
       <c r="AT71" s="27"/>
       <c r="AU71" s="27"/>
@@ -16463,11 +16450,11 @@
       <c r="U72" s="27"/>
       <c r="V72" s="27"/>
       <c r="W72" s="27"/>
-      <c r="X72" s="349"/>
-      <c r="Y72" s="349"/>
-      <c r="Z72" s="349"/>
-      <c r="AA72" s="349"/>
-      <c r="AB72" s="349"/>
+      <c r="X72" s="283"/>
+      <c r="Y72" s="283"/>
+      <c r="Z72" s="283"/>
+      <c r="AA72" s="283"/>
+      <c r="AB72" s="283"/>
       <c r="AC72" s="27"/>
       <c r="AD72" s="27"/>
       <c r="AE72" s="27"/>
@@ -16521,11 +16508,11 @@
       <c r="U73" s="27"/>
       <c r="V73" s="27"/>
       <c r="W73" s="27"/>
-      <c r="X73" s="349"/>
-      <c r="Y73" s="349"/>
-      <c r="Z73" s="349"/>
-      <c r="AA73" s="349"/>
-      <c r="AB73" s="349"/>
+      <c r="X73" s="283"/>
+      <c r="Y73" s="283"/>
+      <c r="Z73" s="283"/>
+      <c r="AA73" s="283"/>
+      <c r="AB73" s="283"/>
       <c r="AC73" s="27"/>
       <c r="AD73" s="27"/>
       <c r="AE73" s="27"/>
@@ -16579,11 +16566,11 @@
       <c r="U74" s="27"/>
       <c r="V74" s="27"/>
       <c r="W74" s="27"/>
-      <c r="X74" s="349"/>
-      <c r="Y74" s="349"/>
-      <c r="Z74" s="349"/>
-      <c r="AA74" s="349"/>
-      <c r="AB74" s="349"/>
+      <c r="X74" s="283"/>
+      <c r="Y74" s="283"/>
+      <c r="Z74" s="283"/>
+      <c r="AA74" s="283"/>
+      <c r="AB74" s="283"/>
       <c r="AC74" s="27"/>
       <c r="AD74" s="27"/>
       <c r="AE74" s="27"/>
@@ -17977,17 +17964,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="W45:AS45"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="L16:Y16"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="L17:Y17"/>
-    <mergeCell ref="W47:AS47"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:V50"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="R56:AQ56"/>
-    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="R59:AQ59"/>
+    <mergeCell ref="R58:AQ58"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:V46"/>
+    <mergeCell ref="W46:AS46"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="R55:AQ55"/>
+    <mergeCell ref="H49:V49"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:Q53"/>
+    <mergeCell ref="R53:AQ53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="R54:AQ54"/>
+    <mergeCell ref="W50:AS50"/>
+    <mergeCell ref="W49:AS49"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="R57:AQ57"/>
     <mergeCell ref="C58:G58"/>
@@ -18004,25 +17997,19 @@
     <mergeCell ref="W48:AS48"/>
     <mergeCell ref="D47:G47"/>
     <mergeCell ref="H47:V47"/>
+    <mergeCell ref="W47:AS47"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:V50"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="R56:AQ56"/>
+    <mergeCell ref="C56:G56"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="H48:V48"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:V46"/>
-    <mergeCell ref="W46:AS46"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="R55:AQ55"/>
-    <mergeCell ref="H49:V49"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:Q53"/>
-    <mergeCell ref="R53:AQ53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="R54:AQ54"/>
-    <mergeCell ref="W50:AS50"/>
-    <mergeCell ref="W49:AS49"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="R59:AQ59"/>
-    <mergeCell ref="R58:AQ58"/>
+    <mergeCell ref="W45:AS45"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="L16:Y16"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="L17:Y17"/>
   </mergeCells>
   <phoneticPr fontId="48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18072,8 +18059,8 @@
   </sheetPr>
   <dimension ref="A1:AR135"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75"/>
@@ -18086,166 +18073,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="321" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="269" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="304" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="296" t="s">
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="335" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="296"/>
-      <c r="S1" s="296"/>
-      <c r="T1" s="296" t="s">
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="335"/>
+      <c r="Q1" s="335"/>
+      <c r="R1" s="335"/>
+      <c r="S1" s="335"/>
+      <c r="T1" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="296"/>
-      <c r="V1" s="296"/>
-      <c r="W1" s="296"/>
-      <c r="X1" s="296"/>
-      <c r="Y1" s="296"/>
-      <c r="Z1" s="296"/>
-      <c r="AA1" s="296"/>
-      <c r="AB1" s="296"/>
-      <c r="AC1" s="296"/>
-      <c r="AD1" s="296"/>
-      <c r="AE1" s="296"/>
-      <c r="AF1" s="296"/>
-      <c r="AG1" s="269" t="s">
+      <c r="U1" s="335"/>
+      <c r="V1" s="335"/>
+      <c r="W1" s="335"/>
+      <c r="X1" s="335"/>
+      <c r="Y1" s="335"/>
+      <c r="Z1" s="335"/>
+      <c r="AA1" s="335"/>
+      <c r="AB1" s="335"/>
+      <c r="AC1" s="335"/>
+      <c r="AD1" s="335"/>
+      <c r="AE1" s="335"/>
+      <c r="AF1" s="335"/>
+      <c r="AG1" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="271"/>
-      <c r="AK1" s="270" t="s">
+      <c r="AH1" s="305"/>
+      <c r="AI1" s="305"/>
+      <c r="AJ1" s="306"/>
+      <c r="AK1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="270"/>
-      <c r="AM1" s="270"/>
-      <c r="AN1" s="271"/>
-      <c r="AO1" s="269" t="s">
+      <c r="AL1" s="305"/>
+      <c r="AM1" s="305"/>
+      <c r="AN1" s="306"/>
+      <c r="AO1" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="270"/>
-      <c r="AQ1" s="270"/>
-      <c r="AR1" s="271"/>
+      <c r="AP1" s="305"/>
+      <c r="AQ1" s="305"/>
+      <c r="AR1" s="306"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="275" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="292" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="336" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="292"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="292"/>
-      <c r="Q2" s="292"/>
-      <c r="R2" s="292"/>
-      <c r="S2" s="292"/>
-      <c r="T2" s="292" t="s">
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
+      <c r="T2" s="336" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="292"/>
-      <c r="AA2" s="292"/>
-      <c r="AB2" s="292"/>
-      <c r="AC2" s="292"/>
-      <c r="AD2" s="292"/>
-      <c r="AE2" s="292"/>
-      <c r="AF2" s="292"/>
-      <c r="AG2" s="275" t="s">
+      <c r="U2" s="336"/>
+      <c r="V2" s="336"/>
+      <c r="W2" s="336"/>
+      <c r="X2" s="336"/>
+      <c r="Y2" s="336"/>
+      <c r="Z2" s="336"/>
+      <c r="AA2" s="336"/>
+      <c r="AB2" s="336"/>
+      <c r="AC2" s="336"/>
+      <c r="AD2" s="336"/>
+      <c r="AE2" s="336"/>
+      <c r="AF2" s="336"/>
+      <c r="AG2" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="276"/>
-      <c r="AJ2" s="277"/>
-      <c r="AK2" s="281">
+      <c r="AH2" s="308"/>
+      <c r="AI2" s="308"/>
+      <c r="AJ2" s="309"/>
+      <c r="AK2" s="313">
         <v>42314</v>
       </c>
-      <c r="AL2" s="281"/>
-      <c r="AM2" s="281"/>
-      <c r="AN2" s="282"/>
-      <c r="AO2" s="281"/>
-      <c r="AP2" s="281"/>
-      <c r="AQ2" s="281"/>
-      <c r="AR2" s="282"/>
+      <c r="AL2" s="313"/>
+      <c r="AM2" s="313"/>
+      <c r="AN2" s="314"/>
+      <c r="AO2" s="313"/>
+      <c r="AP2" s="313"/>
+      <c r="AQ2" s="313"/>
+      <c r="AR2" s="314"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="285"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="292"/>
-      <c r="Y3" s="292"/>
-      <c r="Z3" s="292"/>
-      <c r="AA3" s="292"/>
-      <c r="AB3" s="292"/>
-      <c r="AC3" s="292"/>
-      <c r="AD3" s="292"/>
-      <c r="AE3" s="292"/>
-      <c r="AF3" s="292"/>
-      <c r="AG3" s="278"/>
-      <c r="AH3" s="279"/>
-      <c r="AI3" s="279"/>
-      <c r="AJ3" s="280"/>
-      <c r="AK3" s="283"/>
-      <c r="AL3" s="283"/>
-      <c r="AM3" s="283"/>
-      <c r="AN3" s="284"/>
-      <c r="AO3" s="283"/>
-      <c r="AP3" s="283"/>
-      <c r="AQ3" s="283"/>
-      <c r="AR3" s="284"/>
+      <c r="A3" s="321"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
+      <c r="T3" s="336"/>
+      <c r="U3" s="336"/>
+      <c r="V3" s="336"/>
+      <c r="W3" s="336"/>
+      <c r="X3" s="336"/>
+      <c r="Y3" s="336"/>
+      <c r="Z3" s="336"/>
+      <c r="AA3" s="336"/>
+      <c r="AB3" s="336"/>
+      <c r="AC3" s="336"/>
+      <c r="AD3" s="336"/>
+      <c r="AE3" s="336"/>
+      <c r="AF3" s="336"/>
+      <c r="AG3" s="310"/>
+      <c r="AH3" s="311"/>
+      <c r="AI3" s="311"/>
+      <c r="AJ3" s="312"/>
+      <c r="AK3" s="315"/>
+      <c r="AL3" s="315"/>
+      <c r="AM3" s="315"/>
+      <c r="AN3" s="316"/>
+      <c r="AO3" s="315"/>
+      <c r="AP3" s="315"/>
+      <c r="AQ3" s="315"/>
+      <c r="AR3" s="316"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -18438,7 +18425,7 @@
     <row r="8" spans="1:44" s="9" customFormat="1">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="15"/>
@@ -18971,7 +18958,7 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="66" t="s">
-        <v>212</v>
+        <v>376</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -21037,7 +21024,7 @@
       <c r="B62" s="13"/>
       <c r="C62" s="4"/>
       <c r="D62" s="65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -21325,7 +21312,7 @@
       <c r="B68" s="156"/>
       <c r="C68" s="154"/>
       <c r="D68" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E68" s="155"/>
       <c r="F68" s="40"/>
@@ -21373,7 +21360,7 @@
       <c r="B69" s="156"/>
       <c r="C69" s="154"/>
       <c r="D69" s="66" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E69" s="155"/>
       <c r="F69" s="40"/>
@@ -21516,7 +21503,7 @@
       <c r="B72" s="86"/>
       <c r="C72" s="40"/>
       <c r="D72" s="154" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="40"/>
@@ -24003,18 +23990,18 @@
       <c r="AD124" s="4"/>
       <c r="AE124" s="4"/>
       <c r="AF124" s="4"/>
-      <c r="AG124" s="293" t="s">
+      <c r="AG124" s="332" t="s">
         <v>142</v>
       </c>
-      <c r="AH124" s="294"/>
-      <c r="AI124" s="295"/>
+      <c r="AH124" s="333"/>
+      <c r="AI124" s="334"/>
       <c r="AJ124" s="4"/>
       <c r="AK124" s="4"/>
-      <c r="AL124" s="293" t="s">
+      <c r="AL124" s="332" t="s">
         <v>143</v>
       </c>
-      <c r="AM124" s="294"/>
-      <c r="AN124" s="295"/>
+      <c r="AM124" s="333"/>
+      <c r="AN124" s="334"/>
       <c r="AO124" s="4"/>
       <c r="AP124" s="117"/>
       <c r="AQ124" s="4"/>
@@ -24540,6 +24527,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="L2:S3"/>
+    <mergeCell ref="T2:AF3"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
     <mergeCell ref="AG124:AI124"/>
     <mergeCell ref="AL124:AN124"/>
     <mergeCell ref="L1:S1"/>
@@ -24550,11 +24542,6 @@
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AG2:AJ3"/>
     <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="G2:K3"/>
-    <mergeCell ref="L2:S3"/>
-    <mergeCell ref="T2:AF3"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <phoneticPr fontId="48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24590,166 +24577,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="321" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="269" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="304" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="296" t="s">
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="335" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="296"/>
-      <c r="S1" s="296"/>
-      <c r="T1" s="296" t="s">
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="335"/>
+      <c r="Q1" s="335"/>
+      <c r="R1" s="335"/>
+      <c r="S1" s="335"/>
+      <c r="T1" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="296"/>
-      <c r="V1" s="296"/>
-      <c r="W1" s="296"/>
-      <c r="X1" s="296"/>
-      <c r="Y1" s="296"/>
-      <c r="Z1" s="296"/>
-      <c r="AA1" s="296"/>
-      <c r="AB1" s="296"/>
-      <c r="AC1" s="296"/>
-      <c r="AD1" s="296"/>
-      <c r="AE1" s="296"/>
-      <c r="AF1" s="296"/>
-      <c r="AG1" s="269" t="s">
+      <c r="U1" s="335"/>
+      <c r="V1" s="335"/>
+      <c r="W1" s="335"/>
+      <c r="X1" s="335"/>
+      <c r="Y1" s="335"/>
+      <c r="Z1" s="335"/>
+      <c r="AA1" s="335"/>
+      <c r="AB1" s="335"/>
+      <c r="AC1" s="335"/>
+      <c r="AD1" s="335"/>
+      <c r="AE1" s="335"/>
+      <c r="AF1" s="335"/>
+      <c r="AG1" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="271"/>
-      <c r="AK1" s="270" t="s">
+      <c r="AH1" s="305"/>
+      <c r="AI1" s="305"/>
+      <c r="AJ1" s="306"/>
+      <c r="AK1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="270"/>
-      <c r="AM1" s="270"/>
-      <c r="AN1" s="271"/>
-      <c r="AO1" s="269" t="s">
+      <c r="AL1" s="305"/>
+      <c r="AM1" s="305"/>
+      <c r="AN1" s="306"/>
+      <c r="AO1" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="270"/>
-      <c r="AQ1" s="270"/>
-      <c r="AR1" s="271"/>
+      <c r="AP1" s="305"/>
+      <c r="AQ1" s="305"/>
+      <c r="AR1" s="306"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="275" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="292" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="336" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="292"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="292"/>
-      <c r="Q2" s="292"/>
-      <c r="R2" s="292"/>
-      <c r="S2" s="292"/>
-      <c r="T2" s="292" t="s">
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
+      <c r="T2" s="336" t="s">
         <v>162</v>
       </c>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="292"/>
-      <c r="AA2" s="292"/>
-      <c r="AB2" s="292"/>
-      <c r="AC2" s="292"/>
-      <c r="AD2" s="292"/>
-      <c r="AE2" s="292"/>
-      <c r="AF2" s="292"/>
-      <c r="AG2" s="275" t="s">
+      <c r="U2" s="336"/>
+      <c r="V2" s="336"/>
+      <c r="W2" s="336"/>
+      <c r="X2" s="336"/>
+      <c r="Y2" s="336"/>
+      <c r="Z2" s="336"/>
+      <c r="AA2" s="336"/>
+      <c r="AB2" s="336"/>
+      <c r="AC2" s="336"/>
+      <c r="AD2" s="336"/>
+      <c r="AE2" s="336"/>
+      <c r="AF2" s="336"/>
+      <c r="AG2" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="276"/>
-      <c r="AJ2" s="277"/>
-      <c r="AK2" s="281">
+      <c r="AH2" s="308"/>
+      <c r="AI2" s="308"/>
+      <c r="AJ2" s="309"/>
+      <c r="AK2" s="313">
         <v>42318</v>
       </c>
-      <c r="AL2" s="281"/>
-      <c r="AM2" s="281"/>
-      <c r="AN2" s="282"/>
-      <c r="AO2" s="281"/>
-      <c r="AP2" s="281"/>
-      <c r="AQ2" s="281"/>
-      <c r="AR2" s="282"/>
+      <c r="AL2" s="313"/>
+      <c r="AM2" s="313"/>
+      <c r="AN2" s="314"/>
+      <c r="AO2" s="313"/>
+      <c r="AP2" s="313"/>
+      <c r="AQ2" s="313"/>
+      <c r="AR2" s="314"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1">
-      <c r="A3" s="285"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="292"/>
-      <c r="Y3" s="292"/>
-      <c r="Z3" s="292"/>
-      <c r="AA3" s="292"/>
-      <c r="AB3" s="292"/>
-      <c r="AC3" s="292"/>
-      <c r="AD3" s="292"/>
-      <c r="AE3" s="292"/>
-      <c r="AF3" s="292"/>
-      <c r="AG3" s="278"/>
-      <c r="AH3" s="279"/>
-      <c r="AI3" s="279"/>
-      <c r="AJ3" s="280"/>
-      <c r="AK3" s="283"/>
-      <c r="AL3" s="283"/>
-      <c r="AM3" s="283"/>
-      <c r="AN3" s="284"/>
-      <c r="AO3" s="283"/>
-      <c r="AP3" s="283"/>
-      <c r="AQ3" s="283"/>
-      <c r="AR3" s="284"/>
+      <c r="A3" s="321"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
+      <c r="T3" s="336"/>
+      <c r="U3" s="336"/>
+      <c r="V3" s="336"/>
+      <c r="W3" s="336"/>
+      <c r="X3" s="336"/>
+      <c r="Y3" s="336"/>
+      <c r="Z3" s="336"/>
+      <c r="AA3" s="336"/>
+      <c r="AB3" s="336"/>
+      <c r="AC3" s="336"/>
+      <c r="AD3" s="336"/>
+      <c r="AE3" s="336"/>
+      <c r="AF3" s="336"/>
+      <c r="AG3" s="310"/>
+      <c r="AH3" s="311"/>
+      <c r="AI3" s="311"/>
+      <c r="AJ3" s="312"/>
+      <c r="AK3" s="315"/>
+      <c r="AL3" s="315"/>
+      <c r="AM3" s="315"/>
+      <c r="AN3" s="316"/>
+      <c r="AO3" s="315"/>
+      <c r="AP3" s="315"/>
+      <c r="AQ3" s="315"/>
+      <c r="AR3" s="316"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -24894,7 +24881,7 @@
     <row r="7" spans="1:44">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -26142,7 +26129,7 @@
       <c r="A34" s="3"/>
       <c r="B34" s="13"/>
       <c r="D34" s="65" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -26250,7 +26237,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="153" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -26298,7 +26285,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="D38" s="66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -26345,7 +26332,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="73"/>
       <c r="D39" s="66" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -26392,7 +26379,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="D40" s="66" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -26905,7 +26892,7 @@
     <row r="51" spans="1:44">
       <c r="A51" s="3"/>
       <c r="B51" s="71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -27260,13 +27247,13 @@
       <c r="B62" s="125">
         <v>1</v>
       </c>
-      <c r="C62" s="299">
+      <c r="C62" s="339">
         <v>42056</v>
       </c>
-      <c r="D62" s="300"/>
-      <c r="E62" s="300"/>
-      <c r="F62" s="300"/>
-      <c r="G62" s="300"/>
+      <c r="D62" s="340"/>
+      <c r="E62" s="340"/>
+      <c r="F62" s="340"/>
+      <c r="G62" s="340"/>
       <c r="H62" s="108" t="s">
         <v>176</v>
       </c>
@@ -27497,10 +27484,10 @@
       <c r="K71" s="196"/>
       <c r="L71" s="196"/>
       <c r="M71" s="206"/>
-      <c r="N71" s="297" t="s">
+      <c r="N71" s="337" t="s">
         <v>133</v>
       </c>
-      <c r="O71" s="298"/>
+      <c r="O71" s="338"/>
       <c r="P71" s="195" t="s">
         <v>134</v>
       </c>
@@ -27867,11 +27854,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="N71:O71"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="G2:K3"/>
@@ -27882,6 +27864,11 @@
     <mergeCell ref="AO2:AR3"/>
     <mergeCell ref="AK1:AN1"/>
     <mergeCell ref="C62:G62"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27922,166 +27909,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="321" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="269" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="304" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="296" t="s">
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="335" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="296"/>
-      <c r="S1" s="296"/>
-      <c r="T1" s="296" t="s">
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="335"/>
+      <c r="Q1" s="335"/>
+      <c r="R1" s="335"/>
+      <c r="S1" s="335"/>
+      <c r="T1" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="296"/>
-      <c r="V1" s="296"/>
-      <c r="W1" s="296"/>
-      <c r="X1" s="296"/>
-      <c r="Y1" s="296"/>
-      <c r="Z1" s="296"/>
-      <c r="AA1" s="296"/>
-      <c r="AB1" s="296"/>
-      <c r="AC1" s="296"/>
-      <c r="AD1" s="296"/>
-      <c r="AE1" s="296"/>
-      <c r="AF1" s="296"/>
-      <c r="AG1" s="269" t="s">
+      <c r="U1" s="335"/>
+      <c r="V1" s="335"/>
+      <c r="W1" s="335"/>
+      <c r="X1" s="335"/>
+      <c r="Y1" s="335"/>
+      <c r="Z1" s="335"/>
+      <c r="AA1" s="335"/>
+      <c r="AB1" s="335"/>
+      <c r="AC1" s="335"/>
+      <c r="AD1" s="335"/>
+      <c r="AE1" s="335"/>
+      <c r="AF1" s="335"/>
+      <c r="AG1" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="271"/>
-      <c r="AK1" s="270" t="s">
+      <c r="AH1" s="305"/>
+      <c r="AI1" s="305"/>
+      <c r="AJ1" s="306"/>
+      <c r="AK1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="270"/>
-      <c r="AM1" s="270"/>
-      <c r="AN1" s="271"/>
-      <c r="AO1" s="269" t="s">
+      <c r="AL1" s="305"/>
+      <c r="AM1" s="305"/>
+      <c r="AN1" s="306"/>
+      <c r="AO1" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="270"/>
-      <c r="AQ1" s="270"/>
-      <c r="AR1" s="271"/>
+      <c r="AP1" s="305"/>
+      <c r="AQ1" s="305"/>
+      <c r="AR1" s="306"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="275" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="292" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="336" t="s">
         <v>158</v>
       </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="292"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="292"/>
-      <c r="Q2" s="292"/>
-      <c r="R2" s="292"/>
-      <c r="S2" s="292"/>
-      <c r="T2" s="292" t="s">
-        <v>360</v>
-      </c>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="292"/>
-      <c r="AA2" s="292"/>
-      <c r="AB2" s="292"/>
-      <c r="AC2" s="292"/>
-      <c r="AD2" s="292"/>
-      <c r="AE2" s="292"/>
-      <c r="AF2" s="292"/>
-      <c r="AG2" s="275" t="s">
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
+      <c r="T2" s="336" t="s">
+        <v>359</v>
+      </c>
+      <c r="U2" s="336"/>
+      <c r="V2" s="336"/>
+      <c r="W2" s="336"/>
+      <c r="X2" s="336"/>
+      <c r="Y2" s="336"/>
+      <c r="Z2" s="336"/>
+      <c r="AA2" s="336"/>
+      <c r="AB2" s="336"/>
+      <c r="AC2" s="336"/>
+      <c r="AD2" s="336"/>
+      <c r="AE2" s="336"/>
+      <c r="AF2" s="336"/>
+      <c r="AG2" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="276"/>
-      <c r="AJ2" s="277"/>
-      <c r="AK2" s="281">
+      <c r="AH2" s="308"/>
+      <c r="AI2" s="308"/>
+      <c r="AJ2" s="309"/>
+      <c r="AK2" s="313">
         <v>42320</v>
       </c>
-      <c r="AL2" s="281"/>
-      <c r="AM2" s="281"/>
-      <c r="AN2" s="282"/>
-      <c r="AO2" s="281"/>
-      <c r="AP2" s="281"/>
-      <c r="AQ2" s="281"/>
-      <c r="AR2" s="282"/>
+      <c r="AL2" s="313"/>
+      <c r="AM2" s="313"/>
+      <c r="AN2" s="314"/>
+      <c r="AO2" s="313"/>
+      <c r="AP2" s="313"/>
+      <c r="AQ2" s="313"/>
+      <c r="AR2" s="314"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1">
-      <c r="A3" s="285"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="292"/>
-      <c r="Y3" s="292"/>
-      <c r="Z3" s="292"/>
-      <c r="AA3" s="292"/>
-      <c r="AB3" s="292"/>
-      <c r="AC3" s="292"/>
-      <c r="AD3" s="292"/>
-      <c r="AE3" s="292"/>
-      <c r="AF3" s="292"/>
-      <c r="AG3" s="278"/>
-      <c r="AH3" s="279"/>
-      <c r="AI3" s="279"/>
-      <c r="AJ3" s="280"/>
-      <c r="AK3" s="283"/>
-      <c r="AL3" s="283"/>
-      <c r="AM3" s="283"/>
-      <c r="AN3" s="284"/>
-      <c r="AO3" s="283"/>
-      <c r="AP3" s="283"/>
-      <c r="AQ3" s="283"/>
-      <c r="AR3" s="284"/>
+      <c r="A3" s="321"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
+      <c r="T3" s="336"/>
+      <c r="U3" s="336"/>
+      <c r="V3" s="336"/>
+      <c r="W3" s="336"/>
+      <c r="X3" s="336"/>
+      <c r="Y3" s="336"/>
+      <c r="Z3" s="336"/>
+      <c r="AA3" s="336"/>
+      <c r="AB3" s="336"/>
+      <c r="AC3" s="336"/>
+      <c r="AD3" s="336"/>
+      <c r="AE3" s="336"/>
+      <c r="AF3" s="336"/>
+      <c r="AG3" s="310"/>
+      <c r="AH3" s="311"/>
+      <c r="AI3" s="311"/>
+      <c r="AJ3" s="312"/>
+      <c r="AK3" s="315"/>
+      <c r="AL3" s="315"/>
+      <c r="AM3" s="315"/>
+      <c r="AN3" s="316"/>
+      <c r="AO3" s="315"/>
+      <c r="AP3" s="315"/>
+      <c r="AQ3" s="315"/>
+      <c r="AR3" s="316"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -29924,7 +29911,7 @@
       <c r="A44" s="3"/>
       <c r="B44" s="71"/>
       <c r="C44" s="144" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -30130,14 +30117,14 @@
       <c r="B48" s="125">
         <v>1</v>
       </c>
-      <c r="C48" s="299">
+      <c r="C48" s="339">
         <v>42056</v>
       </c>
-      <c r="D48" s="300"/>
-      <c r="E48" s="300"/>
-      <c r="F48" s="300"/>
-      <c r="G48" s="300"/>
-      <c r="H48" s="300"/>
+      <c r="D48" s="340"/>
+      <c r="E48" s="340"/>
+      <c r="F48" s="340"/>
+      <c r="G48" s="340"/>
+      <c r="H48" s="340"/>
       <c r="I48" t="s">
         <v>177</v>
       </c>
@@ -30533,10 +30520,10 @@
       <c r="J58" s="196"/>
       <c r="K58" s="196"/>
       <c r="L58" s="206"/>
-      <c r="M58" s="297" t="s">
+      <c r="M58" s="337" t="s">
         <v>133</v>
       </c>
-      <c r="N58" s="298"/>
+      <c r="N58" s="338"/>
       <c r="O58" s="195" t="s">
         <v>134</v>
       </c>
@@ -31133,6 +31120,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
     <mergeCell ref="T1:AF1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AK1:AN1"/>
@@ -31143,11 +31135,6 @@
     <mergeCell ref="AG2:AJ3"/>
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -31182,166 +31169,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="321" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="269" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="304" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="296" t="s">
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="335" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="296"/>
-      <c r="S1" s="296"/>
-      <c r="T1" s="296" t="s">
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="335"/>
+      <c r="Q1" s="335"/>
+      <c r="R1" s="335"/>
+      <c r="S1" s="335"/>
+      <c r="T1" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="296"/>
-      <c r="V1" s="296"/>
-      <c r="W1" s="296"/>
-      <c r="X1" s="296"/>
-      <c r="Y1" s="296"/>
-      <c r="Z1" s="296"/>
-      <c r="AA1" s="296"/>
-      <c r="AB1" s="296"/>
-      <c r="AC1" s="296"/>
-      <c r="AD1" s="296"/>
-      <c r="AE1" s="296"/>
-      <c r="AF1" s="296"/>
-      <c r="AG1" s="269" t="s">
+      <c r="U1" s="335"/>
+      <c r="V1" s="335"/>
+      <c r="W1" s="335"/>
+      <c r="X1" s="335"/>
+      <c r="Y1" s="335"/>
+      <c r="Z1" s="335"/>
+      <c r="AA1" s="335"/>
+      <c r="AB1" s="335"/>
+      <c r="AC1" s="335"/>
+      <c r="AD1" s="335"/>
+      <c r="AE1" s="335"/>
+      <c r="AF1" s="335"/>
+      <c r="AG1" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="271"/>
-      <c r="AK1" s="270" t="s">
+      <c r="AH1" s="305"/>
+      <c r="AI1" s="305"/>
+      <c r="AJ1" s="306"/>
+      <c r="AK1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="270"/>
-      <c r="AM1" s="270"/>
-      <c r="AN1" s="271"/>
-      <c r="AO1" s="269" t="s">
+      <c r="AL1" s="305"/>
+      <c r="AM1" s="305"/>
+      <c r="AN1" s="306"/>
+      <c r="AO1" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="270"/>
-      <c r="AQ1" s="270"/>
-      <c r="AR1" s="271"/>
+      <c r="AP1" s="305"/>
+      <c r="AQ1" s="305"/>
+      <c r="AR1" s="306"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="275" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="292" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="336" t="s">
+        <v>360</v>
+      </c>
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
+      <c r="T2" s="336" t="s">
         <v>361</v>
       </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="292"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="292"/>
-      <c r="Q2" s="292"/>
-      <c r="R2" s="292"/>
-      <c r="S2" s="292"/>
-      <c r="T2" s="292" t="s">
-        <v>362</v>
-      </c>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="292"/>
-      <c r="AA2" s="292"/>
-      <c r="AB2" s="292"/>
-      <c r="AC2" s="292"/>
-      <c r="AD2" s="292"/>
-      <c r="AE2" s="292"/>
-      <c r="AF2" s="292"/>
-      <c r="AG2" s="275" t="s">
+      <c r="U2" s="336"/>
+      <c r="V2" s="336"/>
+      <c r="W2" s="336"/>
+      <c r="X2" s="336"/>
+      <c r="Y2" s="336"/>
+      <c r="Z2" s="336"/>
+      <c r="AA2" s="336"/>
+      <c r="AB2" s="336"/>
+      <c r="AC2" s="336"/>
+      <c r="AD2" s="336"/>
+      <c r="AE2" s="336"/>
+      <c r="AF2" s="336"/>
+      <c r="AG2" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="276"/>
-      <c r="AJ2" s="277"/>
-      <c r="AK2" s="281">
+      <c r="AH2" s="308"/>
+      <c r="AI2" s="308"/>
+      <c r="AJ2" s="309"/>
+      <c r="AK2" s="313">
         <v>42320</v>
       </c>
-      <c r="AL2" s="281"/>
-      <c r="AM2" s="281"/>
-      <c r="AN2" s="282"/>
-      <c r="AO2" s="281"/>
-      <c r="AP2" s="281"/>
-      <c r="AQ2" s="281"/>
-      <c r="AR2" s="282"/>
+      <c r="AL2" s="313"/>
+      <c r="AM2" s="313"/>
+      <c r="AN2" s="314"/>
+      <c r="AO2" s="313"/>
+      <c r="AP2" s="313"/>
+      <c r="AQ2" s="313"/>
+      <c r="AR2" s="314"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="285"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="292"/>
-      <c r="Y3" s="292"/>
-      <c r="Z3" s="292"/>
-      <c r="AA3" s="292"/>
-      <c r="AB3" s="292"/>
-      <c r="AC3" s="292"/>
-      <c r="AD3" s="292"/>
-      <c r="AE3" s="292"/>
-      <c r="AF3" s="292"/>
-      <c r="AG3" s="278"/>
-      <c r="AH3" s="279"/>
-      <c r="AI3" s="279"/>
-      <c r="AJ3" s="280"/>
-      <c r="AK3" s="283"/>
-      <c r="AL3" s="283"/>
-      <c r="AM3" s="283"/>
-      <c r="AN3" s="284"/>
-      <c r="AO3" s="283"/>
-      <c r="AP3" s="283"/>
-      <c r="AQ3" s="283"/>
-      <c r="AR3" s="284"/>
+      <c r="A3" s="321"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
+      <c r="T3" s="336"/>
+      <c r="U3" s="336"/>
+      <c r="V3" s="336"/>
+      <c r="W3" s="336"/>
+      <c r="X3" s="336"/>
+      <c r="Y3" s="336"/>
+      <c r="Z3" s="336"/>
+      <c r="AA3" s="336"/>
+      <c r="AB3" s="336"/>
+      <c r="AC3" s="336"/>
+      <c r="AD3" s="336"/>
+      <c r="AE3" s="336"/>
+      <c r="AF3" s="336"/>
+      <c r="AG3" s="310"/>
+      <c r="AH3" s="311"/>
+      <c r="AI3" s="311"/>
+      <c r="AJ3" s="312"/>
+      <c r="AK3" s="315"/>
+      <c r="AL3" s="315"/>
+      <c r="AM3" s="315"/>
+      <c r="AN3" s="316"/>
+      <c r="AO3" s="315"/>
+      <c r="AP3" s="315"/>
+      <c r="AQ3" s="315"/>
+      <c r="AR3" s="316"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -31534,7 +31521,7 @@
     <row r="8" spans="1:44" s="9" customFormat="1">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="15"/>
@@ -31727,7 +31714,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -31913,11 +31900,11 @@
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -31963,11 +31950,11 @@
       <c r="A17" s="3"/>
       <c r="B17" s="67"/>
       <c r="C17" s="80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -32015,7 +32002,7 @@
       <c r="C18" s="80"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -32061,11 +32048,11 @@
       <c r="A19" s="3"/>
       <c r="B19" s="67"/>
       <c r="C19" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -32111,11 +32098,11 @@
       <c r="A20" s="3"/>
       <c r="B20" s="67"/>
       <c r="C20" s="80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -32161,11 +32148,11 @@
       <c r="A21" s="3"/>
       <c r="B21" s="67"/>
       <c r="C21" s="80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -32211,11 +32198,11 @@
       <c r="A22" s="3"/>
       <c r="B22" s="67"/>
       <c r="C22" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -32261,13 +32248,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="67"/>
       <c r="C23" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="E23" s="66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -32313,11 +32300,11 @@
       <c r="A24" s="3"/>
       <c r="B24" s="67"/>
       <c r="C24" s="80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -32363,11 +32350,11 @@
       <c r="A25" s="3"/>
       <c r="B25" s="67"/>
       <c r="C25" s="80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -32416,7 +32403,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="66"/>
       <c r="F26" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -32464,7 +32451,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="66"/>
       <c r="F27" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -32512,7 +32499,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="66"/>
       <c r="F28" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -32560,7 +32547,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="66"/>
       <c r="F29" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -32605,11 +32592,11 @@
       <c r="A30" s="3"/>
       <c r="B30" s="67"/>
       <c r="C30" s="80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -32655,11 +32642,11 @@
       <c r="A31" s="3"/>
       <c r="B31" s="67"/>
       <c r="C31" s="80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -32705,10 +32692,10 @@
       <c r="A32" s="3"/>
       <c r="B32" s="67"/>
       <c r="C32" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -32754,7 +32741,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="67"/>
       <c r="C33" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>85</v>
@@ -32800,10 +32787,10 @@
       <c r="A34" s="3"/>
       <c r="B34" s="67"/>
       <c r="C34" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -32989,7 +32976,7 @@
         <v>195</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F38" s="66"/>
       <c r="G38" s="4"/>
@@ -33036,7 +33023,7 @@
       <c r="B39" s="67"/>
       <c r="E39" s="4"/>
       <c r="F39" s="66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -33083,7 +33070,7 @@
       <c r="C40" s="80"/>
       <c r="E40" s="4"/>
       <c r="F40" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -33405,7 +33392,7 @@
       <c r="B47" s="13"/>
       <c r="C47" s="4"/>
       <c r="D47" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -33645,7 +33632,7 @@
       <c r="B52" s="156"/>
       <c r="C52" s="40"/>
       <c r="D52" s="154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E52" s="155"/>
       <c r="F52" s="40"/>
@@ -33693,7 +33680,7 @@
       <c r="B53" s="156"/>
       <c r="C53" s="154"/>
       <c r="D53" s="154" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E53" s="155"/>
       <c r="F53" s="40"/>
@@ -33741,7 +33728,7 @@
       <c r="B54" s="157"/>
       <c r="C54" s="157"/>
       <c r="D54" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
@@ -33789,7 +33776,7 @@
       <c r="B55" s="157"/>
       <c r="C55" s="157"/>
       <c r="D55" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -33837,7 +33824,7 @@
       <c r="B56" s="157"/>
       <c r="C56" s="157"/>
       <c r="D56" s="64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -33933,7 +33920,7 @@
       <c r="B58" s="157"/>
       <c r="C58" s="157"/>
       <c r="D58" s="64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
@@ -34304,7 +34291,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="144" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D66" s="4"/>
       <c r="Y66" s="4"/>
@@ -34348,11 +34335,11 @@
         <v>37</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N68" s="181"/>
       <c r="O68" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AP68" s="4"/>
       <c r="AQ68" s="4"/>
@@ -34392,7 +34379,7 @@
       <c r="D70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -34410,7 +34397,7 @@
       <c r="S70" s="229"/>
       <c r="T70" s="229"/>
       <c r="U70" s="170" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V70" s="187"/>
       <c r="W70" s="171"/>
@@ -34418,7 +34405,7 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
@@ -34490,7 +34477,7 @@
       <c r="D72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -34508,7 +34495,7 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="225" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V72" s="226"/>
       <c r="W72" s="227"/>
@@ -34516,7 +34503,7 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
@@ -34589,7 +34576,7 @@
       <c r="E74" s="4"/>
       <c r="F74"/>
       <c r="G74" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -34737,8 +34724,8 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="R77" s="4"/>
-      <c r="S77" s="344" t="s">
-        <v>242</v>
+      <c r="S77" s="278" t="s">
+        <v>241</v>
       </c>
       <c r="T77"/>
       <c r="U77"/>
@@ -34955,7 +34942,7 @@
       <c r="R82" s="168"/>
       <c r="S82" s="169"/>
       <c r="U82" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
@@ -34963,11 +34950,11 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
-      <c r="AB82" s="329"/>
-      <c r="AC82" s="330"/>
-      <c r="AD82" s="330"/>
-      <c r="AE82" s="330"/>
-      <c r="AF82" s="331"/>
+      <c r="AB82" s="264"/>
+      <c r="AC82" s="265"/>
+      <c r="AD82" s="265"/>
+      <c r="AE82" s="265"/>
+      <c r="AF82" s="266"/>
       <c r="AG82" s="4"/>
       <c r="AH82" s="4"/>
       <c r="AI82" s="4"/>
@@ -34998,7 +34985,7 @@
       </c>
       <c r="P83" s="168"/>
       <c r="Q83" s="167" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R83" s="168"/>
       <c r="S83" s="169"/>
@@ -35125,7 +35112,7 @@
       <c r="R86" s="4"/>
       <c r="S86" s="8"/>
       <c r="U86" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
@@ -35209,7 +35196,7 @@
       <c r="R88" s="4"/>
       <c r="S88" s="8"/>
       <c r="U88" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
@@ -35292,7 +35279,7 @@
       <c r="R90" s="4"/>
       <c r="S90" s="8"/>
       <c r="U90" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
@@ -35362,7 +35349,7 @@
       <c r="R92" s="4"/>
       <c r="S92" s="8"/>
       <c r="U92" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
@@ -35483,7 +35470,7 @@
       <c r="W95" s="4"/>
       <c r="X95"/>
       <c r="Y95" s="231" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z95" s="232"/>
       <c r="AA95" s="232"/>
@@ -35836,14 +35823,14 @@
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="AF104" s="4"/>
-      <c r="AG104" s="300"/>
-      <c r="AH104" s="300"/>
-      <c r="AI104" s="300"/>
+      <c r="AG104" s="340"/>
+      <c r="AH104" s="340"/>
+      <c r="AI104" s="340"/>
       <c r="AJ104" s="4"/>
       <c r="AK104" s="4"/>
-      <c r="AL104" s="300"/>
-      <c r="AM104" s="300"/>
-      <c r="AN104" s="300"/>
+      <c r="AL104" s="340"/>
+      <c r="AM104" s="340"/>
+      <c r="AN104" s="340"/>
       <c r="AO104" s="4"/>
       <c r="AP104" s="4"/>
       <c r="AQ104" s="4"/>
@@ -35958,8 +35945,8 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="3"/>
-      <c r="R108" s="343" t="s">
-        <v>345</v>
+      <c r="R108" s="277" t="s">
+        <v>344</v>
       </c>
       <c r="W108"/>
       <c r="X108"/>
@@ -36046,7 +36033,7 @@
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
@@ -36054,11 +36041,11 @@
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
-      <c r="V110" s="329"/>
-      <c r="W110" s="330"/>
-      <c r="X110" s="330"/>
-      <c r="Y110" s="330"/>
-      <c r="Z110" s="331"/>
+      <c r="V110" s="264"/>
+      <c r="W110" s="265"/>
+      <c r="X110" s="265"/>
+      <c r="Y110" s="265"/>
+      <c r="Z110" s="266"/>
       <c r="AB110" s="4"/>
       <c r="AC110" s="4"/>
       <c r="AD110" s="4"/>
@@ -36233,7 +36220,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
@@ -36320,7 +36307,7 @@
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
@@ -36378,7 +36365,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P118" s="4"/>
       <c r="Q118" s="4"/>
@@ -36468,7 +36455,7 @@
       <c r="Q121" s="4"/>
       <c r="R121"/>
       <c r="S121" s="231" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T121" s="232"/>
       <c r="U121" s="232"/>
@@ -36547,11 +36534,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AG104:AI104"/>
     <mergeCell ref="AL104:AN104"/>
     <mergeCell ref="AO1:AR1"/>
@@ -36562,6 +36544,11 @@
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
     <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -36603,166 +36590,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="321" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="269" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="304" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="296" t="s">
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="335" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="296"/>
-      <c r="S1" s="296"/>
-      <c r="T1" s="296" t="s">
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="335"/>
+      <c r="Q1" s="335"/>
+      <c r="R1" s="335"/>
+      <c r="S1" s="335"/>
+      <c r="T1" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="296"/>
-      <c r="V1" s="296"/>
-      <c r="W1" s="296"/>
-      <c r="X1" s="296"/>
-      <c r="Y1" s="296"/>
-      <c r="Z1" s="296"/>
-      <c r="AA1" s="296"/>
-      <c r="AB1" s="296"/>
-      <c r="AC1" s="296"/>
-      <c r="AD1" s="296"/>
-      <c r="AE1" s="296"/>
-      <c r="AF1" s="296"/>
-      <c r="AG1" s="269" t="s">
+      <c r="U1" s="335"/>
+      <c r="V1" s="335"/>
+      <c r="W1" s="335"/>
+      <c r="X1" s="335"/>
+      <c r="Y1" s="335"/>
+      <c r="Z1" s="335"/>
+      <c r="AA1" s="335"/>
+      <c r="AB1" s="335"/>
+      <c r="AC1" s="335"/>
+      <c r="AD1" s="335"/>
+      <c r="AE1" s="335"/>
+      <c r="AF1" s="335"/>
+      <c r="AG1" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="271"/>
-      <c r="AK1" s="270" t="s">
+      <c r="AH1" s="305"/>
+      <c r="AI1" s="305"/>
+      <c r="AJ1" s="306"/>
+      <c r="AK1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="270"/>
-      <c r="AM1" s="270"/>
-      <c r="AN1" s="271"/>
-      <c r="AO1" s="269" t="s">
+      <c r="AL1" s="305"/>
+      <c r="AM1" s="305"/>
+      <c r="AN1" s="306"/>
+      <c r="AO1" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="270"/>
-      <c r="AQ1" s="270"/>
-      <c r="AR1" s="271"/>
+      <c r="AP1" s="305"/>
+      <c r="AQ1" s="305"/>
+      <c r="AR1" s="306"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="275" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="292" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="336" t="s">
         <v>160</v>
       </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="292"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="292"/>
-      <c r="Q2" s="292"/>
-      <c r="R2" s="292"/>
-      <c r="S2" s="292"/>
-      <c r="T2" s="292" t="s">
-        <v>363</v>
-      </c>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="292"/>
-      <c r="AA2" s="292"/>
-      <c r="AB2" s="292"/>
-      <c r="AC2" s="292"/>
-      <c r="AD2" s="292"/>
-      <c r="AE2" s="292"/>
-      <c r="AF2" s="292"/>
-      <c r="AG2" s="275" t="s">
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
+      <c r="T2" s="336" t="s">
+        <v>362</v>
+      </c>
+      <c r="U2" s="336"/>
+      <c r="V2" s="336"/>
+      <c r="W2" s="336"/>
+      <c r="X2" s="336"/>
+      <c r="Y2" s="336"/>
+      <c r="Z2" s="336"/>
+      <c r="AA2" s="336"/>
+      <c r="AB2" s="336"/>
+      <c r="AC2" s="336"/>
+      <c r="AD2" s="336"/>
+      <c r="AE2" s="336"/>
+      <c r="AF2" s="336"/>
+      <c r="AG2" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="276"/>
-      <c r="AJ2" s="277"/>
-      <c r="AK2" s="281">
+      <c r="AH2" s="308"/>
+      <c r="AI2" s="308"/>
+      <c r="AJ2" s="309"/>
+      <c r="AK2" s="313">
         <v>42321</v>
       </c>
-      <c r="AL2" s="281"/>
-      <c r="AM2" s="281"/>
-      <c r="AN2" s="282"/>
-      <c r="AO2" s="281"/>
-      <c r="AP2" s="281"/>
-      <c r="AQ2" s="281"/>
-      <c r="AR2" s="282"/>
+      <c r="AL2" s="313"/>
+      <c r="AM2" s="313"/>
+      <c r="AN2" s="314"/>
+      <c r="AO2" s="313"/>
+      <c r="AP2" s="313"/>
+      <c r="AQ2" s="313"/>
+      <c r="AR2" s="314"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1">
-      <c r="A3" s="285"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="292"/>
-      <c r="Y3" s="292"/>
-      <c r="Z3" s="292"/>
-      <c r="AA3" s="292"/>
-      <c r="AB3" s="292"/>
-      <c r="AC3" s="292"/>
-      <c r="AD3" s="292"/>
-      <c r="AE3" s="292"/>
-      <c r="AF3" s="292"/>
-      <c r="AG3" s="278"/>
-      <c r="AH3" s="279"/>
-      <c r="AI3" s="279"/>
-      <c r="AJ3" s="280"/>
-      <c r="AK3" s="283"/>
-      <c r="AL3" s="283"/>
-      <c r="AM3" s="283"/>
-      <c r="AN3" s="284"/>
-      <c r="AO3" s="283"/>
-      <c r="AP3" s="283"/>
-      <c r="AQ3" s="283"/>
-      <c r="AR3" s="284"/>
+      <c r="A3" s="321"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
+      <c r="T3" s="336"/>
+      <c r="U3" s="336"/>
+      <c r="V3" s="336"/>
+      <c r="W3" s="336"/>
+      <c r="X3" s="336"/>
+      <c r="Y3" s="336"/>
+      <c r="Z3" s="336"/>
+      <c r="AA3" s="336"/>
+      <c r="AB3" s="336"/>
+      <c r="AC3" s="336"/>
+      <c r="AD3" s="336"/>
+      <c r="AE3" s="336"/>
+      <c r="AF3" s="336"/>
+      <c r="AG3" s="310"/>
+      <c r="AH3" s="311"/>
+      <c r="AI3" s="311"/>
+      <c r="AJ3" s="312"/>
+      <c r="AK3" s="315"/>
+      <c r="AL3" s="315"/>
+      <c r="AM3" s="315"/>
+      <c r="AN3" s="316"/>
+      <c r="AO3" s="315"/>
+      <c r="AP3" s="315"/>
+      <c r="AQ3" s="315"/>
+      <c r="AR3" s="316"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -36907,7 +36894,7 @@
     <row r="7" spans="1:44">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -36955,7 +36942,7 @@
     <row r="8" spans="1:44">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -37138,7 +37125,7 @@
     <row r="12" spans="1:44">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -37467,7 +37454,7 @@
         <v>3.1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -37513,7 +37500,7 @@
       <c r="A20" s="3"/>
       <c r="C20" s="87"/>
       <c r="E20" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -37558,10 +37545,10 @@
     <row r="21" spans="1:44">
       <c r="A21" s="3"/>
       <c r="C21" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -37607,7 +37594,7 @@
       <c r="A22" s="3"/>
       <c r="C22" s="87"/>
       <c r="E22" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -37652,10 +37639,10 @@
     <row r="23" spans="1:44">
       <c r="A23" s="3"/>
       <c r="C23" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -37700,7 +37687,7 @@
     <row r="24" spans="1:44">
       <c r="A24" s="3"/>
       <c r="C24" s="87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>86</v>
@@ -37749,7 +37736,7 @@
       <c r="A25" s="3"/>
       <c r="C25" s="88"/>
       <c r="E25" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -37795,7 +37782,7 @@
       <c r="A26" s="3"/>
       <c r="C26" s="88"/>
       <c r="E26" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -37841,7 +37828,7 @@
       <c r="A27" s="3"/>
       <c r="C27" s="88"/>
       <c r="E27" s="65" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -37886,10 +37873,10 @@
     <row r="28" spans="1:44">
       <c r="A28" s="3"/>
       <c r="C28" s="88" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E28" s="146" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -37935,7 +37922,7 @@
       <c r="A29" s="3"/>
       <c r="C29" s="87"/>
       <c r="E29" s="66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -37981,7 +37968,7 @@
       <c r="A30" s="3"/>
       <c r="C30" s="87"/>
       <c r="E30" s="66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -38169,7 +38156,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -38215,7 +38202,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="78"/>
       <c r="E35" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="17"/>
@@ -38398,7 +38385,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="73"/>
       <c r="C39" s="153" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -38446,7 +38433,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="13"/>
       <c r="D40" s="66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -38493,7 +38480,7 @@
       <c r="B41" s="4"/>
       <c r="C41" s="66"/>
       <c r="D41" s="66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -38540,7 +38527,7 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -38862,7 +38849,7 @@
     <row r="49" spans="1:44">
       <c r="A49" s="3"/>
       <c r="B49" s="71" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -38937,7 +38924,7 @@
     <row r="51" spans="1:44" ht="15">
       <c r="A51" s="3"/>
       <c r="B51" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -38950,7 +38937,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -38964,15 +38951,15 @@
       <c r="W51" s="6"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
-      <c r="Z51" s="314"/>
-      <c r="AA51" s="315"/>
-      <c r="AB51" s="315"/>
-      <c r="AC51" s="315"/>
-      <c r="AD51" s="315"/>
-      <c r="AE51" s="315"/>
-      <c r="AF51" s="315"/>
-      <c r="AG51" s="315"/>
-      <c r="AH51" s="316"/>
+      <c r="Z51" s="251"/>
+      <c r="AA51" s="252"/>
+      <c r="AB51" s="252"/>
+      <c r="AC51" s="252"/>
+      <c r="AD51" s="252"/>
+      <c r="AE51" s="252"/>
+      <c r="AF51" s="252"/>
+      <c r="AG51" s="252"/>
+      <c r="AH51" s="253"/>
       <c r="AI51" s="234"/>
       <c r="AJ51" s="234"/>
       <c r="AK51" s="234"/>
@@ -38988,23 +38975,23 @@
       <c r="A52" s="234"/>
       <c r="B52" s="3"/>
       <c r="C52" s="234" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="234"/>
+      <c r="E52" s="254">
+        <v>42107</v>
+      </c>
+      <c r="F52" s="237" t="s">
         <v>291</v>
       </c>
-      <c r="D52" s="234"/>
-      <c r="E52" s="317">
-        <v>42107</v>
-      </c>
-      <c r="F52" s="237" t="s">
-        <v>292</v>
-      </c>
-      <c r="G52" s="318">
+      <c r="G52" s="255">
         <v>42137</v>
       </c>
       <c r="H52" s="239"/>
       <c r="I52" s="240"/>
       <c r="J52" s="8"/>
-      <c r="M52" s="311" t="s">
-        <v>299</v>
+      <c r="M52" s="248" t="s">
+        <v>298</v>
       </c>
       <c r="N52" s="234"/>
       <c r="O52" s="234"/>
@@ -39020,20 +39007,20 @@
       </c>
       <c r="V52" s="4"/>
       <c r="W52" s="8"/>
-      <c r="Y52" s="310"/>
-      <c r="Z52" s="312"/>
-      <c r="AA52" s="301" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB52" s="302"/>
-      <c r="AC52" s="303"/>
+      <c r="Y52" s="247"/>
+      <c r="Z52" s="249"/>
+      <c r="AA52" s="341" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB52" s="342"/>
+      <c r="AC52" s="343"/>
       <c r="AD52" s="235"/>
       <c r="AE52" s="235"/>
       <c r="AF52" s="222" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG52" s="224"/>
-      <c r="AH52" s="307"/>
+      <c r="AH52" s="244"/>
       <c r="AI52" s="235"/>
       <c r="AJ52" s="235"/>
       <c r="AK52" s="235"/>
@@ -39048,10 +39035,10 @@
       <c r="G53" s="235"/>
       <c r="H53" s="235"/>
       <c r="I53" s="235"/>
-      <c r="J53" s="307"/>
+      <c r="J53" s="244"/>
       <c r="K53" s="235"/>
       <c r="L53" s="235"/>
-      <c r="M53" s="312"/>
+      <c r="M53" s="249"/>
       <c r="N53" s="235"/>
       <c r="O53" s="235"/>
       <c r="P53" s="235"/>
@@ -39061,10 +39048,10 @@
       <c r="T53" s="235"/>
       <c r="U53" s="235"/>
       <c r="V53" s="235"/>
-      <c r="W53" s="307"/>
+      <c r="W53" s="244"/>
       <c r="X53" s="235"/>
       <c r="Y53" s="235"/>
-      <c r="Z53" s="312"/>
+      <c r="Z53" s="249"/>
       <c r="AA53" s="235"/>
       <c r="AB53" s="235"/>
       <c r="AC53" s="235"/>
@@ -39072,7 +39059,7 @@
       <c r="AE53" s="235"/>
       <c r="AF53" s="235"/>
       <c r="AG53" s="235"/>
-      <c r="AH53" s="307"/>
+      <c r="AH53" s="244"/>
       <c r="AI53" s="235"/>
       <c r="AJ53" s="235"/>
       <c r="AK53" s="235"/>
@@ -39081,12 +39068,12 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="235" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D54" s="235"/>
       <c r="E54" s="235"/>
       <c r="F54" s="241" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G54" s="242"/>
       <c r="H54" s="242"/>
@@ -39095,7 +39082,7 @@
       </c>
       <c r="J54" s="8"/>
       <c r="M54" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -39108,20 +39095,20 @@
       <c r="T54" s="242"/>
       <c r="U54" s="243"/>
       <c r="V54" s="235"/>
-      <c r="W54" s="307"/>
+      <c r="W54" s="244"/>
       <c r="X54" s="235"/>
       <c r="Y54" s="235"/>
-      <c r="Z54" s="312"/>
-      <c r="AA54" s="304" t="s">
-        <v>296</v>
-      </c>
-      <c r="AB54" s="305"/>
-      <c r="AC54" s="306"/>
+      <c r="Z54" s="249"/>
+      <c r="AA54" s="344" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB54" s="345"/>
+      <c r="AC54" s="346"/>
       <c r="AD54" s="235"/>
       <c r="AE54" s="235"/>
       <c r="AF54" s="235"/>
       <c r="AG54" s="235"/>
-      <c r="AH54" s="307"/>
+      <c r="AH54" s="244"/>
       <c r="AI54" s="235"/>
       <c r="AJ54" s="235"/>
       <c r="AK54" s="235"/>
@@ -39133,34 +39120,34 @@
       <c r="D55" s="172"/>
       <c r="E55" s="172"/>
       <c r="F55" s="172"/>
-      <c r="G55" s="308"/>
-      <c r="H55" s="308"/>
-      <c r="I55" s="308"/>
-      <c r="J55" s="309"/>
+      <c r="G55" s="245"/>
+      <c r="H55" s="245"/>
+      <c r="I55" s="245"/>
+      <c r="J55" s="246"/>
       <c r="K55" s="235"/>
       <c r="L55" s="235"/>
-      <c r="M55" s="313"/>
-      <c r="N55" s="308"/>
-      <c r="O55" s="308"/>
-      <c r="P55" s="308"/>
-      <c r="Q55" s="308"/>
-      <c r="R55" s="308"/>
-      <c r="S55" s="308"/>
-      <c r="T55" s="308"/>
-      <c r="U55" s="308"/>
-      <c r="V55" s="308"/>
-      <c r="W55" s="309"/>
+      <c r="M55" s="250"/>
+      <c r="N55" s="245"/>
+      <c r="O55" s="245"/>
+      <c r="P55" s="245"/>
+      <c r="Q55" s="245"/>
+      <c r="R55" s="245"/>
+      <c r="S55" s="245"/>
+      <c r="T55" s="245"/>
+      <c r="U55" s="245"/>
+      <c r="V55" s="245"/>
+      <c r="W55" s="246"/>
       <c r="X55" s="235"/>
       <c r="Y55" s="235"/>
-      <c r="Z55" s="313"/>
-      <c r="AA55" s="308"/>
-      <c r="AB55" s="308"/>
-      <c r="AC55" s="308"/>
-      <c r="AD55" s="308"/>
-      <c r="AE55" s="308"/>
-      <c r="AF55" s="308"/>
-      <c r="AG55" s="308"/>
-      <c r="AH55" s="309"/>
+      <c r="Z55" s="250"/>
+      <c r="AA55" s="245"/>
+      <c r="AB55" s="245"/>
+      <c r="AC55" s="245"/>
+      <c r="AD55" s="245"/>
+      <c r="AE55" s="245"/>
+      <c r="AF55" s="245"/>
+      <c r="AG55" s="245"/>
+      <c r="AH55" s="246"/>
       <c r="AI55" s="235"/>
       <c r="AJ55" s="235"/>
       <c r="AK55" s="235"/>
@@ -39297,13 +39284,13 @@
       <c r="B59" s="125">
         <v>1</v>
       </c>
-      <c r="C59" s="299">
+      <c r="C59" s="339">
         <v>42056</v>
       </c>
-      <c r="D59" s="300"/>
-      <c r="E59" s="300"/>
-      <c r="F59" s="300"/>
-      <c r="G59" s="300"/>
+      <c r="D59" s="340"/>
+      <c r="E59" s="340"/>
+      <c r="F59" s="340"/>
+      <c r="G59" s="340"/>
       <c r="H59" s="108" t="s">
         <v>176</v>
       </c>
@@ -39402,48 +39389,48 @@
       <c r="AR60" s="184"/>
     </row>
     <row r="61" spans="1:44" ht="15">
-      <c r="B61" s="325">
+      <c r="B61" s="260">
         <v>3</v>
       </c>
-      <c r="C61" s="326"/>
-      <c r="D61" s="326"/>
-      <c r="E61" s="326"/>
-      <c r="F61" s="326"/>
-      <c r="G61" s="326"/>
-      <c r="H61" s="327"/>
-      <c r="I61" s="326"/>
-      <c r="J61" s="326"/>
-      <c r="K61" s="326"/>
-      <c r="L61" s="327"/>
-      <c r="M61" s="326"/>
-      <c r="N61" s="326"/>
-      <c r="O61" s="328"/>
-      <c r="P61" s="327"/>
-      <c r="Q61" s="326"/>
-      <c r="R61" s="326"/>
-      <c r="S61" s="328"/>
-      <c r="T61" s="326"/>
-      <c r="U61" s="326"/>
-      <c r="V61" s="326"/>
-      <c r="W61" s="326"/>
-      <c r="X61" s="327"/>
-      <c r="Y61" s="326"/>
-      <c r="Z61" s="326"/>
-      <c r="AA61" s="326"/>
-      <c r="AB61" s="327"/>
-      <c r="AC61" s="326"/>
-      <c r="AD61" s="326"/>
-      <c r="AE61" s="326"/>
-      <c r="AF61" s="327"/>
-      <c r="AG61" s="326"/>
-      <c r="AH61" s="326"/>
-      <c r="AI61" s="326"/>
-      <c r="AJ61" s="327"/>
-      <c r="AK61" s="326"/>
-      <c r="AL61" s="326"/>
-      <c r="AM61" s="326"/>
-      <c r="AN61" s="326"/>
-      <c r="AO61" s="328"/>
+      <c r="C61" s="261"/>
+      <c r="D61" s="261"/>
+      <c r="E61" s="261"/>
+      <c r="F61" s="261"/>
+      <c r="G61" s="261"/>
+      <c r="H61" s="262"/>
+      <c r="I61" s="261"/>
+      <c r="J61" s="261"/>
+      <c r="K61" s="261"/>
+      <c r="L61" s="262"/>
+      <c r="M61" s="261"/>
+      <c r="N61" s="261"/>
+      <c r="O61" s="263"/>
+      <c r="P61" s="262"/>
+      <c r="Q61" s="261"/>
+      <c r="R61" s="261"/>
+      <c r="S61" s="263"/>
+      <c r="T61" s="261"/>
+      <c r="U61" s="261"/>
+      <c r="V61" s="261"/>
+      <c r="W61" s="261"/>
+      <c r="X61" s="262"/>
+      <c r="Y61" s="261"/>
+      <c r="Z61" s="261"/>
+      <c r="AA61" s="261"/>
+      <c r="AB61" s="262"/>
+      <c r="AC61" s="261"/>
+      <c r="AD61" s="261"/>
+      <c r="AE61" s="261"/>
+      <c r="AF61" s="262"/>
+      <c r="AG61" s="261"/>
+      <c r="AH61" s="261"/>
+      <c r="AI61" s="261"/>
+      <c r="AJ61" s="262"/>
+      <c r="AK61" s="261"/>
+      <c r="AL61" s="261"/>
+      <c r="AM61" s="261"/>
+      <c r="AN61" s="261"/>
+      <c r="AO61" s="263"/>
       <c r="AR61" s="184"/>
     </row>
     <row r="62" spans="1:44" ht="15">
@@ -39492,48 +39479,48 @@
       <c r="AR62" s="184"/>
     </row>
     <row r="63" spans="1:44" ht="15">
-      <c r="B63" s="325">
+      <c r="B63" s="260">
         <v>5</v>
       </c>
-      <c r="C63" s="326"/>
-      <c r="D63" s="326"/>
-      <c r="E63" s="326"/>
-      <c r="F63" s="326"/>
-      <c r="G63" s="326"/>
-      <c r="H63" s="327"/>
-      <c r="I63" s="326"/>
-      <c r="J63" s="326"/>
-      <c r="K63" s="326"/>
-      <c r="L63" s="327"/>
-      <c r="M63" s="326"/>
-      <c r="N63" s="326"/>
-      <c r="O63" s="328"/>
-      <c r="P63" s="327"/>
-      <c r="Q63" s="326"/>
-      <c r="R63" s="326"/>
-      <c r="S63" s="328"/>
-      <c r="T63" s="326"/>
-      <c r="U63" s="326"/>
-      <c r="V63" s="326"/>
-      <c r="W63" s="326"/>
-      <c r="X63" s="327"/>
-      <c r="Y63" s="326"/>
-      <c r="Z63" s="326"/>
-      <c r="AA63" s="326"/>
-      <c r="AB63" s="327"/>
-      <c r="AC63" s="326"/>
-      <c r="AD63" s="326"/>
-      <c r="AE63" s="326"/>
-      <c r="AF63" s="327"/>
-      <c r="AG63" s="326"/>
-      <c r="AH63" s="326"/>
-      <c r="AI63" s="326"/>
-      <c r="AJ63" s="327"/>
-      <c r="AK63" s="326"/>
-      <c r="AL63" s="326"/>
-      <c r="AM63" s="326"/>
-      <c r="AN63" s="326"/>
-      <c r="AO63" s="328"/>
+      <c r="C63" s="261"/>
+      <c r="D63" s="261"/>
+      <c r="E63" s="261"/>
+      <c r="F63" s="261"/>
+      <c r="G63" s="261"/>
+      <c r="H63" s="262"/>
+      <c r="I63" s="261"/>
+      <c r="J63" s="261"/>
+      <c r="K63" s="261"/>
+      <c r="L63" s="262"/>
+      <c r="M63" s="261"/>
+      <c r="N63" s="261"/>
+      <c r="O63" s="263"/>
+      <c r="P63" s="262"/>
+      <c r="Q63" s="261"/>
+      <c r="R63" s="261"/>
+      <c r="S63" s="263"/>
+      <c r="T63" s="261"/>
+      <c r="U63" s="261"/>
+      <c r="V63" s="261"/>
+      <c r="W63" s="261"/>
+      <c r="X63" s="262"/>
+      <c r="Y63" s="261"/>
+      <c r="Z63" s="261"/>
+      <c r="AA63" s="261"/>
+      <c r="AB63" s="262"/>
+      <c r="AC63" s="261"/>
+      <c r="AD63" s="261"/>
+      <c r="AE63" s="261"/>
+      <c r="AF63" s="262"/>
+      <c r="AG63" s="261"/>
+      <c r="AH63" s="261"/>
+      <c r="AI63" s="261"/>
+      <c r="AJ63" s="262"/>
+      <c r="AK63" s="261"/>
+      <c r="AL63" s="261"/>
+      <c r="AM63" s="261"/>
+      <c r="AN63" s="261"/>
+      <c r="AO63" s="263"/>
     </row>
     <row r="64" spans="1:44" ht="15">
       <c r="B64" s="126">
@@ -39580,48 +39567,48 @@
       <c r="AO64" s="113"/>
     </row>
     <row r="65" spans="2:41" ht="15">
-      <c r="B65" s="325">
+      <c r="B65" s="260">
         <v>7</v>
       </c>
-      <c r="C65" s="326"/>
-      <c r="D65" s="326"/>
-      <c r="E65" s="326"/>
-      <c r="F65" s="326"/>
-      <c r="G65" s="326"/>
-      <c r="H65" s="327"/>
-      <c r="I65" s="326"/>
-      <c r="J65" s="326"/>
-      <c r="K65" s="326"/>
-      <c r="L65" s="327"/>
-      <c r="M65" s="326"/>
-      <c r="N65" s="326"/>
-      <c r="O65" s="328"/>
-      <c r="P65" s="327"/>
-      <c r="Q65" s="326"/>
-      <c r="R65" s="326"/>
-      <c r="S65" s="328"/>
-      <c r="T65" s="326"/>
-      <c r="U65" s="326"/>
-      <c r="V65" s="326"/>
-      <c r="W65" s="326"/>
-      <c r="X65" s="327"/>
-      <c r="Y65" s="326"/>
-      <c r="Z65" s="326"/>
-      <c r="AA65" s="326"/>
-      <c r="AB65" s="327"/>
-      <c r="AC65" s="326"/>
-      <c r="AD65" s="326"/>
-      <c r="AE65" s="326"/>
-      <c r="AF65" s="327"/>
-      <c r="AG65" s="326"/>
-      <c r="AH65" s="326"/>
-      <c r="AI65" s="326"/>
-      <c r="AJ65" s="327"/>
-      <c r="AK65" s="326"/>
-      <c r="AL65" s="326"/>
-      <c r="AM65" s="326"/>
-      <c r="AN65" s="326"/>
-      <c r="AO65" s="328"/>
+      <c r="C65" s="261"/>
+      <c r="D65" s="261"/>
+      <c r="E65" s="261"/>
+      <c r="F65" s="261"/>
+      <c r="G65" s="261"/>
+      <c r="H65" s="262"/>
+      <c r="I65" s="261"/>
+      <c r="J65" s="261"/>
+      <c r="K65" s="261"/>
+      <c r="L65" s="262"/>
+      <c r="M65" s="261"/>
+      <c r="N65" s="261"/>
+      <c r="O65" s="263"/>
+      <c r="P65" s="262"/>
+      <c r="Q65" s="261"/>
+      <c r="R65" s="261"/>
+      <c r="S65" s="263"/>
+      <c r="T65" s="261"/>
+      <c r="U65" s="261"/>
+      <c r="V65" s="261"/>
+      <c r="W65" s="261"/>
+      <c r="X65" s="262"/>
+      <c r="Y65" s="261"/>
+      <c r="Z65" s="261"/>
+      <c r="AA65" s="261"/>
+      <c r="AB65" s="262"/>
+      <c r="AC65" s="261"/>
+      <c r="AD65" s="261"/>
+      <c r="AE65" s="261"/>
+      <c r="AF65" s="262"/>
+      <c r="AG65" s="261"/>
+      <c r="AH65" s="261"/>
+      <c r="AI65" s="261"/>
+      <c r="AJ65" s="262"/>
+      <c r="AK65" s="261"/>
+      <c r="AL65" s="261"/>
+      <c r="AM65" s="261"/>
+      <c r="AN65" s="261"/>
+      <c r="AO65" s="263"/>
     </row>
     <row r="66" spans="2:41" ht="15">
       <c r="B66" s="126">
@@ -39846,10 +39833,10 @@
       <c r="K75" s="196"/>
       <c r="L75" s="196"/>
       <c r="M75" s="206"/>
-      <c r="N75" s="297" t="s">
+      <c r="N75" s="337" t="s">
         <v>133</v>
       </c>
-      <c r="O75" s="298"/>
+      <c r="O75" s="338"/>
       <c r="P75" s="195" t="s">
         <v>134</v>
       </c>
@@ -40196,6 +40183,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AK1:AN1"/>
     <mergeCell ref="N75:O75"/>
     <mergeCell ref="C59:G59"/>
     <mergeCell ref="AO1:AR1"/>
@@ -40212,7 +40200,6 @@
     <mergeCell ref="L1:S1"/>
     <mergeCell ref="T1:AF1"/>
     <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AK1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -40252,166 +40239,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="321" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="269" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="304" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="296" t="s">
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="335" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="296"/>
-      <c r="S1" s="296"/>
-      <c r="T1" s="296" t="s">
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="335"/>
+      <c r="Q1" s="335"/>
+      <c r="R1" s="335"/>
+      <c r="S1" s="335"/>
+      <c r="T1" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="296"/>
-      <c r="V1" s="296"/>
-      <c r="W1" s="296"/>
-      <c r="X1" s="296"/>
-      <c r="Y1" s="296"/>
-      <c r="Z1" s="296"/>
-      <c r="AA1" s="296"/>
-      <c r="AB1" s="296"/>
-      <c r="AC1" s="296"/>
-      <c r="AD1" s="296"/>
-      <c r="AE1" s="296"/>
-      <c r="AF1" s="296"/>
-      <c r="AG1" s="269" t="s">
+      <c r="U1" s="335"/>
+      <c r="V1" s="335"/>
+      <c r="W1" s="335"/>
+      <c r="X1" s="335"/>
+      <c r="Y1" s="335"/>
+      <c r="Z1" s="335"/>
+      <c r="AA1" s="335"/>
+      <c r="AB1" s="335"/>
+      <c r="AC1" s="335"/>
+      <c r="AD1" s="335"/>
+      <c r="AE1" s="335"/>
+      <c r="AF1" s="335"/>
+      <c r="AG1" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="270"/>
-      <c r="AI1" s="270"/>
-      <c r="AJ1" s="271"/>
-      <c r="AK1" s="270" t="s">
+      <c r="AH1" s="305"/>
+      <c r="AI1" s="305"/>
+      <c r="AJ1" s="306"/>
+      <c r="AK1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="270"/>
-      <c r="AM1" s="270"/>
-      <c r="AN1" s="271"/>
-      <c r="AO1" s="269" t="s">
+      <c r="AL1" s="305"/>
+      <c r="AM1" s="305"/>
+      <c r="AN1" s="306"/>
+      <c r="AO1" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="270"/>
-      <c r="AQ1" s="270"/>
-      <c r="AR1" s="271"/>
+      <c r="AP1" s="305"/>
+      <c r="AQ1" s="305"/>
+      <c r="AR1" s="306"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="285"/>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="275" t="s">
+      <c r="A2" s="321"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="292" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="336" t="s">
         <v>161</v>
       </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="292"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="292"/>
-      <c r="Q2" s="292"/>
-      <c r="R2" s="292"/>
-      <c r="S2" s="292"/>
-      <c r="T2" s="292" t="s">
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
+      <c r="R2" s="336"/>
+      <c r="S2" s="336"/>
+      <c r="T2" s="336" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="292"/>
-      <c r="AA2" s="292"/>
-      <c r="AB2" s="292"/>
-      <c r="AC2" s="292"/>
-      <c r="AD2" s="292"/>
-      <c r="AE2" s="292"/>
-      <c r="AF2" s="292"/>
-      <c r="AG2" s="275" t="s">
+      <c r="U2" s="336"/>
+      <c r="V2" s="336"/>
+      <c r="W2" s="336"/>
+      <c r="X2" s="336"/>
+      <c r="Y2" s="336"/>
+      <c r="Z2" s="336"/>
+      <c r="AA2" s="336"/>
+      <c r="AB2" s="336"/>
+      <c r="AC2" s="336"/>
+      <c r="AD2" s="336"/>
+      <c r="AE2" s="336"/>
+      <c r="AF2" s="336"/>
+      <c r="AG2" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="276"/>
-      <c r="AI2" s="276"/>
-      <c r="AJ2" s="277"/>
-      <c r="AK2" s="281">
+      <c r="AH2" s="308"/>
+      <c r="AI2" s="308"/>
+      <c r="AJ2" s="309"/>
+      <c r="AK2" s="313">
         <v>42321</v>
       </c>
-      <c r="AL2" s="281"/>
-      <c r="AM2" s="281"/>
-      <c r="AN2" s="282"/>
-      <c r="AO2" s="281"/>
-      <c r="AP2" s="281"/>
-      <c r="AQ2" s="281"/>
-      <c r="AR2" s="282"/>
+      <c r="AL2" s="313"/>
+      <c r="AM2" s="313"/>
+      <c r="AN2" s="314"/>
+      <c r="AO2" s="313"/>
+      <c r="AP2" s="313"/>
+      <c r="AQ2" s="313"/>
+      <c r="AR2" s="314"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1">
-      <c r="A3" s="285"/>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="292"/>
-      <c r="N3" s="292"/>
-      <c r="O3" s="292"/>
-      <c r="P3" s="292"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="292"/>
-      <c r="S3" s="292"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="292"/>
-      <c r="Y3" s="292"/>
-      <c r="Z3" s="292"/>
-      <c r="AA3" s="292"/>
-      <c r="AB3" s="292"/>
-      <c r="AC3" s="292"/>
-      <c r="AD3" s="292"/>
-      <c r="AE3" s="292"/>
-      <c r="AF3" s="292"/>
-      <c r="AG3" s="278"/>
-      <c r="AH3" s="279"/>
-      <c r="AI3" s="279"/>
-      <c r="AJ3" s="280"/>
-      <c r="AK3" s="283"/>
-      <c r="AL3" s="283"/>
-      <c r="AM3" s="283"/>
-      <c r="AN3" s="284"/>
-      <c r="AO3" s="283"/>
-      <c r="AP3" s="283"/>
-      <c r="AQ3" s="283"/>
-      <c r="AR3" s="284"/>
+      <c r="A3" s="321"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
+      <c r="T3" s="336"/>
+      <c r="U3" s="336"/>
+      <c r="V3" s="336"/>
+      <c r="W3" s="336"/>
+      <c r="X3" s="336"/>
+      <c r="Y3" s="336"/>
+      <c r="Z3" s="336"/>
+      <c r="AA3" s="336"/>
+      <c r="AB3" s="336"/>
+      <c r="AC3" s="336"/>
+      <c r="AD3" s="336"/>
+      <c r="AE3" s="336"/>
+      <c r="AF3" s="336"/>
+      <c r="AG3" s="310"/>
+      <c r="AH3" s="311"/>
+      <c r="AI3" s="311"/>
+      <c r="AJ3" s="312"/>
+      <c r="AK3" s="315"/>
+      <c r="AL3" s="315"/>
+      <c r="AM3" s="315"/>
+      <c r="AN3" s="316"/>
+      <c r="AO3" s="315"/>
+      <c r="AP3" s="315"/>
+      <c r="AQ3" s="315"/>
+      <c r="AR3" s="316"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -40556,7 +40543,7 @@
     <row r="7" spans="1:44">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -40604,7 +40591,7 @@
     <row r="8" spans="1:44">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -40787,7 +40774,7 @@
     <row r="12" spans="1:44">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -41116,7 +41103,7 @@
         <v>3.1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -41162,7 +41149,7 @@
       <c r="A20" s="3"/>
       <c r="C20" s="87"/>
       <c r="E20" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -41210,7 +41197,7 @@
         <v>3.2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -41255,10 +41242,10 @@
     <row r="22" spans="1:44">
       <c r="A22" s="3"/>
       <c r="C22" s="88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -41303,7 +41290,7 @@
     <row r="23" spans="1:44">
       <c r="A23" s="3"/>
       <c r="C23" s="88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" s="146" t="s">
         <v>86</v>
@@ -41351,10 +41338,10 @@
     <row r="24" spans="1:44">
       <c r="A24" s="3"/>
       <c r="C24" s="87" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -41399,10 +41386,10 @@
     <row r="25" spans="1:44">
       <c r="A25" s="3"/>
       <c r="C25" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E25" s="66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -41447,10 +41434,10 @@
     <row r="26" spans="1:44">
       <c r="A26" s="3"/>
       <c r="C26" s="87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E26" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -41684,7 +41671,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="78"/>
       <c r="E31" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="17"/>
@@ -41866,7 +41853,7 @@
     <row r="35" spans="1:44">
       <c r="A35" s="3"/>
       <c r="C35" s="153" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -41914,7 +41901,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="13"/>
       <c r="D36" s="66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -41959,7 +41946,7 @@
     <row r="37" spans="1:44">
       <c r="A37" s="3"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="345" t="s">
+      <c r="C37" s="279" t="s">
         <v>118</v>
       </c>
       <c r="D37" s="66"/>
@@ -42007,7 +41994,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="D38" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
@@ -42035,7 +42022,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="D39" s="65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
@@ -42063,7 +42050,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="D40" s="66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -42109,7 +42096,7 @@
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="D41" s="66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -42155,7 +42142,7 @@
       <c r="A42" s="3"/>
       <c r="B42" s="73"/>
       <c r="D42" s="66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -42477,7 +42464,7 @@
     <row r="49" spans="1:44">
       <c r="A49" s="3"/>
       <c r="B49" s="71" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -42572,7 +42559,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="234"/>
       <c r="C51" s="238" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D51" s="239"/>
       <c r="E51" s="239"/>
@@ -42580,29 +42567,29 @@
         <v>140</v>
       </c>
       <c r="G51" s="234"/>
-      <c r="H51" s="321" t="s">
-        <v>306</v>
+      <c r="H51" s="257" t="s">
+        <v>305</v>
       </c>
       <c r="I51" s="239"/>
       <c r="J51" s="240"/>
       <c r="K51" s="237" t="s">
-        <v>308</v>
-      </c>
-      <c r="L51" s="321" t="s">
         <v>307</v>
+      </c>
+      <c r="L51" s="257" t="s">
+        <v>306</v>
       </c>
       <c r="M51" s="239"/>
       <c r="N51" s="240"/>
       <c r="O51" s="234"/>
       <c r="P51" s="231"/>
       <c r="Q51" s="232" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R51" s="205"/>
       <c r="S51" s="234"/>
       <c r="T51" s="231"/>
       <c r="U51" s="232" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V51" s="205"/>
       <c r="W51" s="234"/>
@@ -42676,578 +42663,578 @@
     <row r="53" spans="1:44">
       <c r="A53" s="3"/>
       <c r="B53" s="235"/>
-      <c r="C53" s="332" t="s">
+      <c r="C53" s="267" t="s">
+        <v>309</v>
+      </c>
+      <c r="D53" s="268"/>
+      <c r="E53" s="268"/>
+      <c r="F53" s="268"/>
+      <c r="G53" s="269"/>
+      <c r="H53" s="267" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="333"/>
-      <c r="E53" s="333"/>
-      <c r="F53" s="333"/>
-      <c r="G53" s="334"/>
-      <c r="H53" s="332" t="s">
+      <c r="I53" s="268"/>
+      <c r="J53" s="268"/>
+      <c r="K53" s="268"/>
+      <c r="L53" s="268"/>
+      <c r="M53" s="269"/>
+      <c r="N53" s="267" t="s">
         <v>311</v>
       </c>
-      <c r="I53" s="333"/>
-      <c r="J53" s="333"/>
-      <c r="K53" s="333"/>
-      <c r="L53" s="333"/>
-      <c r="M53" s="334"/>
-      <c r="N53" s="332" t="s">
+      <c r="O53" s="268"/>
+      <c r="P53" s="268"/>
+      <c r="Q53" s="268"/>
+      <c r="R53" s="268"/>
+      <c r="S53" s="269"/>
+      <c r="T53" s="267" t="s">
         <v>312</v>
       </c>
-      <c r="O53" s="333"/>
-      <c r="P53" s="333"/>
-      <c r="Q53" s="333"/>
-      <c r="R53" s="333"/>
-      <c r="S53" s="334"/>
-      <c r="T53" s="332" t="s">
+      <c r="U53" s="268"/>
+      <c r="V53" s="268"/>
+      <c r="W53" s="268"/>
+      <c r="X53" s="268"/>
+      <c r="Y53" s="269"/>
+      <c r="Z53" s="267" t="s">
         <v>313</v>
       </c>
-      <c r="U53" s="333"/>
-      <c r="V53" s="333"/>
-      <c r="W53" s="333"/>
-      <c r="X53" s="333"/>
-      <c r="Y53" s="334"/>
-      <c r="Z53" s="332" t="s">
+      <c r="AA53" s="268"/>
+      <c r="AB53" s="268"/>
+      <c r="AC53" s="268"/>
+      <c r="AD53" s="268"/>
+      <c r="AE53" s="269"/>
+      <c r="AF53" s="268" t="s">
         <v>314</v>
       </c>
-      <c r="AA53" s="333"/>
-      <c r="AB53" s="333"/>
-      <c r="AC53" s="333"/>
-      <c r="AD53" s="333"/>
-      <c r="AE53" s="334"/>
-      <c r="AF53" s="333" t="s">
-        <v>315</v>
-      </c>
-      <c r="AG53" s="333"/>
-      <c r="AH53" s="333"/>
-      <c r="AI53" s="333"/>
-      <c r="AJ53" s="333"/>
-      <c r="AK53" s="333"/>
-      <c r="AL53" s="334"/>
+      <c r="AG53" s="268"/>
+      <c r="AH53" s="268"/>
+      <c r="AI53" s="268"/>
+      <c r="AJ53" s="268"/>
+      <c r="AK53" s="268"/>
+      <c r="AL53" s="269"/>
       <c r="AP53" s="235"/>
       <c r="AQ53" s="235"/>
     </row>
     <row r="54" spans="1:44">
       <c r="A54" s="3"/>
       <c r="B54" s="235"/>
-      <c r="C54" s="312" t="s">
-        <v>316</v>
+      <c r="C54" s="249" t="s">
+        <v>315</v>
       </c>
       <c r="D54" s="235"/>
       <c r="E54" s="235"/>
       <c r="F54" s="235"/>
-      <c r="G54" s="307"/>
-      <c r="H54" s="336" t="s">
-        <v>318</v>
+      <c r="G54" s="244"/>
+      <c r="H54" s="270" t="s">
+        <v>317</v>
       </c>
       <c r="I54" s="235"/>
       <c r="J54" s="235"/>
       <c r="K54" s="235"/>
       <c r="L54" s="235"/>
-      <c r="M54" s="307"/>
-      <c r="N54" s="312" t="s">
-        <v>320</v>
+      <c r="M54" s="244"/>
+      <c r="N54" s="249" t="s">
+        <v>319</v>
       </c>
       <c r="O54" s="235"/>
       <c r="P54" s="235"/>
       <c r="Q54" s="235"/>
       <c r="R54" s="235"/>
-      <c r="S54" s="307"/>
-      <c r="T54" s="336" t="s">
-        <v>318</v>
+      <c r="S54" s="244"/>
+      <c r="T54" s="270" t="s">
+        <v>317</v>
       </c>
       <c r="U54" s="235"/>
       <c r="V54" s="235"/>
       <c r="W54" s="235"/>
       <c r="X54" s="235"/>
-      <c r="Y54" s="307"/>
-      <c r="Z54" s="312" t="s">
-        <v>320</v>
+      <c r="Y54" s="244"/>
+      <c r="Z54" s="249" t="s">
+        <v>319</v>
       </c>
       <c r="AA54" s="235"/>
       <c r="AB54" s="235"/>
       <c r="AC54" s="235"/>
       <c r="AD54" s="235"/>
-      <c r="AE54" s="307"/>
+      <c r="AE54" s="244"/>
       <c r="AF54" s="235" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG54" s="235"/>
       <c r="AH54" s="235"/>
       <c r="AI54" s="235"/>
       <c r="AJ54" s="235"/>
       <c r="AK54" s="235"/>
-      <c r="AL54" s="337"/>
+      <c r="AL54" s="271"/>
       <c r="AP54" s="235"/>
       <c r="AQ54" s="235"/>
     </row>
     <row r="55" spans="1:44">
       <c r="A55" s="4"/>
-      <c r="B55" s="307"/>
-      <c r="C55" s="338" t="s">
-        <v>317</v>
-      </c>
-      <c r="D55" s="338"/>
-      <c r="E55" s="338"/>
-      <c r="F55" s="338"/>
-      <c r="G55" s="339"/>
-      <c r="H55" s="340" t="s">
-        <v>321</v>
-      </c>
-      <c r="I55" s="338"/>
-      <c r="J55" s="338"/>
-      <c r="K55" s="338"/>
-      <c r="L55" s="338"/>
-      <c r="M55" s="339"/>
-      <c r="N55" s="341" t="s">
+      <c r="B55" s="244"/>
+      <c r="C55" s="272" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" s="272"/>
+      <c r="E55" s="272"/>
+      <c r="F55" s="272"/>
+      <c r="G55" s="273"/>
+      <c r="H55" s="274" t="s">
         <v>320</v>
       </c>
-      <c r="O55" s="338"/>
-      <c r="P55" s="338"/>
-      <c r="Q55" s="338"/>
-      <c r="R55" s="338"/>
-      <c r="S55" s="339"/>
-      <c r="T55" s="340" t="s">
+      <c r="I55" s="272"/>
+      <c r="J55" s="272"/>
+      <c r="K55" s="272"/>
+      <c r="L55" s="272"/>
+      <c r="M55" s="273"/>
+      <c r="N55" s="275" t="s">
         <v>319</v>
       </c>
-      <c r="U55" s="338"/>
-      <c r="V55" s="338"/>
-      <c r="W55" s="338"/>
-      <c r="X55" s="338"/>
-      <c r="Y55" s="339"/>
-      <c r="Z55" s="341" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA55" s="338"/>
-      <c r="AB55" s="338"/>
-      <c r="AC55" s="338"/>
-      <c r="AD55" s="338"/>
-      <c r="AE55" s="339"/>
-      <c r="AF55" s="338" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG55" s="338"/>
-      <c r="AH55" s="338"/>
-      <c r="AI55" s="338"/>
-      <c r="AJ55" s="338"/>
-      <c r="AK55" s="338"/>
-      <c r="AL55" s="339"/>
+      <c r="O55" s="272"/>
+      <c r="P55" s="272"/>
+      <c r="Q55" s="272"/>
+      <c r="R55" s="272"/>
+      <c r="S55" s="273"/>
+      <c r="T55" s="274" t="s">
+        <v>318</v>
+      </c>
+      <c r="U55" s="272"/>
+      <c r="V55" s="272"/>
+      <c r="W55" s="272"/>
+      <c r="X55" s="272"/>
+      <c r="Y55" s="273"/>
+      <c r="Z55" s="275" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA55" s="272"/>
+      <c r="AB55" s="272"/>
+      <c r="AC55" s="272"/>
+      <c r="AD55" s="272"/>
+      <c r="AE55" s="273"/>
+      <c r="AF55" s="272" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG55" s="272"/>
+      <c r="AH55" s="272"/>
+      <c r="AI55" s="272"/>
+      <c r="AJ55" s="272"/>
+      <c r="AK55" s="272"/>
+      <c r="AL55" s="273"/>
       <c r="AP55" s="235"/>
       <c r="AQ55" s="235"/>
     </row>
     <row r="56" spans="1:44" ht="15">
-      <c r="B56" s="307"/>
+      <c r="B56" s="244"/>
       <c r="C56" s="235"/>
       <c r="D56" s="235"/>
       <c r="E56" s="235"/>
       <c r="F56" s="235"/>
-      <c r="G56" s="307"/>
-      <c r="H56" s="311"/>
+      <c r="G56" s="244"/>
+      <c r="H56" s="248"/>
       <c r="I56" s="234"/>
       <c r="J56" s="234"/>
       <c r="K56" s="234"/>
       <c r="L56" s="234"/>
-      <c r="M56" s="322"/>
-      <c r="N56" s="311"/>
+      <c r="M56" s="258"/>
+      <c r="N56" s="248"/>
       <c r="O56" s="234"/>
       <c r="P56" s="234"/>
       <c r="Q56" s="234"/>
       <c r="R56" s="234"/>
-      <c r="S56" s="322"/>
-      <c r="T56" s="311"/>
+      <c r="S56" s="258"/>
+      <c r="T56" s="248"/>
       <c r="U56" s="234"/>
       <c r="V56" s="234"/>
       <c r="W56" s="234"/>
       <c r="X56" s="234"/>
-      <c r="Y56" s="322"/>
-      <c r="Z56" s="311"/>
+      <c r="Y56" s="258"/>
+      <c r="Z56" s="248"/>
       <c r="AA56" s="234"/>
       <c r="AB56" s="234"/>
       <c r="AC56" s="234"/>
       <c r="AD56" s="234"/>
-      <c r="AE56" s="322"/>
+      <c r="AE56" s="258"/>
       <c r="AF56" s="234"/>
       <c r="AG56" s="234"/>
       <c r="AH56" s="234"/>
       <c r="AI56" s="234"/>
       <c r="AJ56" s="234"/>
       <c r="AK56" s="234"/>
-      <c r="AL56" s="322"/>
+      <c r="AL56" s="258"/>
       <c r="AP56" s="234"/>
       <c r="AQ56" s="234"/>
       <c r="AR56" s="122"/>
     </row>
     <row r="57" spans="1:44" ht="15">
       <c r="B57" s="234"/>
-      <c r="C57" s="311"/>
+      <c r="C57" s="248"/>
       <c r="D57" s="234"/>
       <c r="E57" s="234"/>
       <c r="F57" s="234"/>
-      <c r="G57" s="322"/>
-      <c r="H57" s="311"/>
+      <c r="G57" s="258"/>
+      <c r="H57" s="248"/>
       <c r="I57" s="234"/>
       <c r="J57" s="234"/>
       <c r="K57" s="234"/>
       <c r="L57" s="234"/>
-      <c r="M57" s="322"/>
-      <c r="N57" s="311"/>
+      <c r="M57" s="258"/>
+      <c r="N57" s="248"/>
       <c r="O57" s="234"/>
       <c r="P57" s="234"/>
       <c r="Q57" s="234"/>
       <c r="R57" s="234"/>
-      <c r="S57" s="323"/>
-      <c r="T57" s="311"/>
+      <c r="S57" s="259"/>
+      <c r="T57" s="248"/>
       <c r="U57" s="234"/>
       <c r="V57" s="234"/>
       <c r="W57" s="234"/>
       <c r="X57" s="234"/>
-      <c r="Y57" s="322"/>
-      <c r="Z57" s="311"/>
+      <c r="Y57" s="258"/>
+      <c r="Z57" s="248"/>
       <c r="AA57" s="234"/>
       <c r="AB57" s="234"/>
       <c r="AC57" s="234"/>
       <c r="AD57" s="234"/>
-      <c r="AE57" s="323"/>
-      <c r="AF57" s="319"/>
-      <c r="AG57" s="319"/>
-      <c r="AH57" s="319"/>
+      <c r="AE57" s="259"/>
+      <c r="AF57" s="256"/>
+      <c r="AG57" s="256"/>
+      <c r="AH57" s="256"/>
       <c r="AI57" s="234"/>
-      <c r="AJ57" s="319"/>
-      <c r="AK57" s="319"/>
-      <c r="AL57" s="323"/>
-      <c r="AP57" s="319"/>
+      <c r="AJ57" s="256"/>
+      <c r="AK57" s="256"/>
+      <c r="AL57" s="259"/>
+      <c r="AP57" s="256"/>
       <c r="AQ57" s="234"/>
       <c r="AR57" s="122"/>
     </row>
     <row r="58" spans="1:44">
       <c r="B58" s="235"/>
-      <c r="C58" s="312"/>
+      <c r="C58" s="249"/>
       <c r="D58" s="235"/>
       <c r="E58" s="235"/>
       <c r="F58" s="235"/>
-      <c r="G58" s="307"/>
-      <c r="H58" s="312"/>
+      <c r="G58" s="244"/>
+      <c r="H58" s="249"/>
       <c r="I58" s="235"/>
       <c r="J58" s="235"/>
       <c r="K58" s="235"/>
       <c r="L58" s="235"/>
-      <c r="M58" s="307"/>
-      <c r="N58" s="312"/>
+      <c r="M58" s="244"/>
+      <c r="N58" s="249"/>
       <c r="O58" s="235"/>
       <c r="P58" s="235"/>
       <c r="Q58" s="235"/>
       <c r="R58" s="235"/>
-      <c r="S58" s="307"/>
-      <c r="T58" s="312"/>
+      <c r="S58" s="244"/>
+      <c r="T58" s="249"/>
       <c r="U58" s="235"/>
       <c r="V58" s="235"/>
       <c r="W58" s="235"/>
       <c r="X58" s="235"/>
-      <c r="Y58" s="307"/>
-      <c r="Z58" s="312"/>
+      <c r="Y58" s="244"/>
+      <c r="Z58" s="249"/>
       <c r="AA58" s="235"/>
       <c r="AB58" s="235"/>
       <c r="AC58" s="235"/>
       <c r="AD58" s="235"/>
-      <c r="AE58" s="307"/>
+      <c r="AE58" s="244"/>
       <c r="AF58" s="235"/>
       <c r="AG58" s="235"/>
       <c r="AH58" s="235"/>
       <c r="AI58" s="235"/>
       <c r="AJ58" s="235"/>
       <c r="AK58" s="235"/>
-      <c r="AL58" s="307"/>
+      <c r="AL58" s="244"/>
       <c r="AP58" s="235"/>
       <c r="AQ58" s="235"/>
     </row>
     <row r="59" spans="1:44" ht="15">
       <c r="B59" s="234"/>
-      <c r="C59" s="311"/>
+      <c r="C59" s="248"/>
       <c r="D59" s="234"/>
       <c r="E59" s="234"/>
       <c r="F59" s="234"/>
-      <c r="G59" s="322"/>
-      <c r="H59" s="311"/>
+      <c r="G59" s="258"/>
+      <c r="H59" s="248"/>
       <c r="I59" s="234"/>
       <c r="J59" s="234"/>
       <c r="K59" s="234"/>
       <c r="L59" s="234"/>
-      <c r="M59" s="322"/>
-      <c r="N59" s="311"/>
+      <c r="M59" s="258"/>
+      <c r="N59" s="248"/>
       <c r="O59" s="234"/>
       <c r="P59" s="234"/>
       <c r="Q59" s="234"/>
       <c r="R59" s="234"/>
-      <c r="S59" s="322"/>
-      <c r="T59" s="311"/>
+      <c r="S59" s="258"/>
+      <c r="T59" s="248"/>
       <c r="U59" s="234"/>
       <c r="V59" s="234"/>
       <c r="W59" s="234"/>
       <c r="X59" s="234"/>
-      <c r="Y59" s="322"/>
-      <c r="Z59" s="311"/>
+      <c r="Y59" s="258"/>
+      <c r="Z59" s="248"/>
       <c r="AA59" s="234"/>
       <c r="AB59" s="234"/>
       <c r="AC59" s="234"/>
       <c r="AD59" s="234"/>
-      <c r="AE59" s="322"/>
+      <c r="AE59" s="258"/>
       <c r="AF59" s="234"/>
       <c r="AG59" s="234"/>
       <c r="AH59" s="234"/>
       <c r="AI59" s="234"/>
       <c r="AJ59" s="234"/>
       <c r="AK59" s="234"/>
-      <c r="AL59" s="322"/>
+      <c r="AL59" s="258"/>
       <c r="AP59" s="234"/>
       <c r="AQ59" s="234"/>
       <c r="AR59" s="183"/>
     </row>
     <row r="60" spans="1:44" ht="15">
       <c r="B60" s="234"/>
-      <c r="C60" s="324"/>
-      <c r="D60" s="320"/>
-      <c r="E60" s="320"/>
-      <c r="F60" s="320"/>
-      <c r="G60" s="335"/>
-      <c r="H60" s="311"/>
+      <c r="C60" s="347"/>
+      <c r="D60" s="348"/>
+      <c r="E60" s="348"/>
+      <c r="F60" s="348"/>
+      <c r="G60" s="349"/>
+      <c r="H60" s="248"/>
       <c r="I60" s="234"/>
       <c r="J60" s="234"/>
       <c r="K60" s="234"/>
       <c r="L60" s="234"/>
-      <c r="M60" s="322"/>
-      <c r="N60" s="311"/>
+      <c r="M60" s="258"/>
+      <c r="N60" s="248"/>
       <c r="O60" s="234"/>
       <c r="P60" s="234"/>
       <c r="Q60" s="234"/>
       <c r="R60" s="234"/>
-      <c r="S60" s="322"/>
-      <c r="T60" s="311"/>
+      <c r="S60" s="258"/>
+      <c r="T60" s="248"/>
       <c r="U60" s="234"/>
       <c r="V60" s="234"/>
       <c r="W60" s="234"/>
       <c r="X60" s="234"/>
-      <c r="Y60" s="322"/>
-      <c r="Z60" s="311"/>
+      <c r="Y60" s="258"/>
+      <c r="Z60" s="248"/>
       <c r="AA60" s="234"/>
       <c r="AB60" s="234"/>
       <c r="AC60" s="234"/>
       <c r="AD60" s="234"/>
-      <c r="AE60" s="322"/>
+      <c r="AE60" s="258"/>
       <c r="AF60" s="234"/>
       <c r="AG60" s="234"/>
       <c r="AH60" s="234"/>
       <c r="AI60" s="234"/>
       <c r="AJ60" s="234"/>
       <c r="AK60" s="234"/>
-      <c r="AL60" s="322"/>
+      <c r="AL60" s="258"/>
       <c r="AP60" s="234"/>
       <c r="AQ60" s="234"/>
       <c r="AR60" s="184"/>
     </row>
     <row r="61" spans="1:44" ht="15">
       <c r="B61" s="234"/>
-      <c r="C61" s="311"/>
+      <c r="C61" s="248"/>
       <c r="D61" s="234"/>
       <c r="E61" s="234"/>
       <c r="F61" s="234"/>
-      <c r="G61" s="322"/>
-      <c r="H61" s="311"/>
+      <c r="G61" s="258"/>
+      <c r="H61" s="248"/>
       <c r="I61" s="234"/>
       <c r="J61" s="234"/>
       <c r="K61" s="234"/>
       <c r="L61" s="234"/>
-      <c r="M61" s="322"/>
-      <c r="N61" s="311"/>
+      <c r="M61" s="258"/>
+      <c r="N61" s="248"/>
       <c r="O61" s="234"/>
       <c r="P61" s="234"/>
       <c r="Q61" s="234"/>
       <c r="R61" s="234"/>
-      <c r="S61" s="322"/>
-      <c r="T61" s="311"/>
+      <c r="S61" s="258"/>
+      <c r="T61" s="248"/>
       <c r="U61" s="234"/>
       <c r="V61" s="234"/>
       <c r="W61" s="234"/>
       <c r="X61" s="234"/>
-      <c r="Y61" s="322"/>
-      <c r="Z61" s="311"/>
+      <c r="Y61" s="258"/>
+      <c r="Z61" s="248"/>
       <c r="AA61" s="234"/>
       <c r="AB61" s="234"/>
       <c r="AC61" s="234"/>
       <c r="AD61" s="234"/>
-      <c r="AE61" s="322"/>
+      <c r="AE61" s="258"/>
       <c r="AF61" s="234"/>
       <c r="AG61" s="234"/>
       <c r="AH61" s="234"/>
       <c r="AI61" s="234"/>
       <c r="AJ61" s="234"/>
       <c r="AK61" s="234"/>
-      <c r="AL61" s="322"/>
+      <c r="AL61" s="258"/>
       <c r="AP61" s="234"/>
       <c r="AQ61" s="234"/>
       <c r="AR61" s="184"/>
     </row>
     <row r="62" spans="1:44" ht="15">
       <c r="B62" s="234"/>
-      <c r="C62" s="311"/>
+      <c r="C62" s="248"/>
       <c r="D62" s="234"/>
       <c r="E62" s="234"/>
       <c r="F62" s="234"/>
-      <c r="G62" s="322"/>
-      <c r="H62" s="311"/>
+      <c r="G62" s="258"/>
+      <c r="H62" s="248"/>
       <c r="I62" s="234"/>
       <c r="J62" s="234"/>
       <c r="K62" s="234"/>
       <c r="L62" s="234"/>
-      <c r="M62" s="322"/>
-      <c r="N62" s="311"/>
+      <c r="M62" s="258"/>
+      <c r="N62" s="248"/>
       <c r="O62" s="234"/>
       <c r="P62" s="234"/>
       <c r="Q62" s="234"/>
       <c r="R62" s="234"/>
-      <c r="S62" s="322"/>
-      <c r="T62" s="311"/>
+      <c r="S62" s="258"/>
+      <c r="T62" s="248"/>
       <c r="U62" s="234"/>
       <c r="V62" s="234"/>
       <c r="W62" s="234"/>
       <c r="X62" s="234"/>
-      <c r="Y62" s="322"/>
-      <c r="Z62" s="311"/>
+      <c r="Y62" s="258"/>
+      <c r="Z62" s="248"/>
       <c r="AA62" s="234"/>
       <c r="AB62" s="234"/>
       <c r="AC62" s="234"/>
       <c r="AD62" s="234"/>
-      <c r="AE62" s="322"/>
+      <c r="AE62" s="258"/>
       <c r="AF62" s="234"/>
       <c r="AG62" s="234"/>
       <c r="AH62" s="234"/>
       <c r="AI62" s="234"/>
       <c r="AJ62" s="234"/>
       <c r="AK62" s="234"/>
-      <c r="AL62" s="322"/>
+      <c r="AL62" s="258"/>
       <c r="AP62" s="234"/>
       <c r="AQ62" s="234"/>
       <c r="AR62" s="184"/>
     </row>
     <row r="63" spans="1:44">
       <c r="B63" s="235"/>
-      <c r="C63" s="312"/>
+      <c r="C63" s="249"/>
       <c r="D63" s="235"/>
       <c r="E63" s="235"/>
       <c r="F63" s="235"/>
-      <c r="G63" s="307"/>
-      <c r="H63" s="312"/>
+      <c r="G63" s="244"/>
+      <c r="H63" s="249"/>
       <c r="I63" s="235"/>
       <c r="J63" s="235"/>
       <c r="K63" s="235"/>
       <c r="L63" s="235"/>
-      <c r="M63" s="307"/>
-      <c r="N63" s="312"/>
+      <c r="M63" s="244"/>
+      <c r="N63" s="249"/>
       <c r="O63" s="235"/>
       <c r="P63" s="235"/>
       <c r="Q63" s="235"/>
       <c r="R63" s="235"/>
-      <c r="S63" s="307"/>
-      <c r="T63" s="312"/>
+      <c r="S63" s="244"/>
+      <c r="T63" s="249"/>
       <c r="U63" s="235"/>
       <c r="V63" s="235"/>
       <c r="W63" s="235"/>
       <c r="X63" s="235"/>
-      <c r="Y63" s="307"/>
-      <c r="Z63" s="312"/>
+      <c r="Y63" s="244"/>
+      <c r="Z63" s="249"/>
       <c r="AA63" s="235"/>
       <c r="AB63" s="235"/>
       <c r="AC63" s="235"/>
       <c r="AD63" s="235"/>
-      <c r="AE63" s="307"/>
+      <c r="AE63" s="244"/>
       <c r="AF63" s="235"/>
       <c r="AG63" s="235"/>
       <c r="AH63" s="235"/>
       <c r="AI63" s="235"/>
       <c r="AJ63" s="235"/>
       <c r="AK63" s="235"/>
-      <c r="AL63" s="307"/>
+      <c r="AL63" s="244"/>
       <c r="AP63" s="235"/>
       <c r="AQ63" s="235"/>
     </row>
     <row r="64" spans="1:44">
       <c r="B64" s="235"/>
-      <c r="C64" s="312"/>
+      <c r="C64" s="249"/>
       <c r="D64" s="235"/>
       <c r="E64" s="235"/>
       <c r="F64" s="235"/>
-      <c r="G64" s="307"/>
-      <c r="H64" s="312"/>
+      <c r="G64" s="244"/>
+      <c r="H64" s="249"/>
       <c r="I64" s="235"/>
       <c r="J64" s="235"/>
       <c r="K64" s="235"/>
       <c r="L64" s="235"/>
-      <c r="M64" s="307"/>
-      <c r="N64" s="312"/>
+      <c r="M64" s="244"/>
+      <c r="N64" s="249"/>
       <c r="O64" s="235"/>
       <c r="P64" s="235"/>
       <c r="Q64" s="235"/>
       <c r="R64" s="235"/>
-      <c r="S64" s="307"/>
-      <c r="T64" s="312"/>
+      <c r="S64" s="244"/>
+      <c r="T64" s="249"/>
       <c r="U64" s="235"/>
       <c r="V64" s="235"/>
       <c r="W64" s="235"/>
       <c r="X64" s="235"/>
-      <c r="Y64" s="307"/>
-      <c r="Z64" s="312"/>
+      <c r="Y64" s="244"/>
+      <c r="Z64" s="249"/>
       <c r="AA64" s="235"/>
       <c r="AB64" s="235"/>
       <c r="AC64" s="235"/>
       <c r="AD64" s="235"/>
-      <c r="AE64" s="307"/>
+      <c r="AE64" s="244"/>
       <c r="AF64" s="235"/>
       <c r="AG64" s="235"/>
       <c r="AH64" s="235"/>
       <c r="AI64" s="235"/>
       <c r="AJ64" s="235"/>
       <c r="AK64" s="235"/>
-      <c r="AL64" s="307"/>
+      <c r="AL64" s="244"/>
       <c r="AP64" s="235"/>
       <c r="AQ64" s="235"/>
     </row>
     <row r="65" spans="2:43">
       <c r="B65" s="235"/>
-      <c r="C65" s="312"/>
+      <c r="C65" s="249"/>
       <c r="D65" s="235"/>
       <c r="E65" s="235"/>
       <c r="F65" s="235"/>
-      <c r="G65" s="307"/>
-      <c r="H65" s="312"/>
+      <c r="G65" s="244"/>
+      <c r="H65" s="249"/>
       <c r="I65" s="235"/>
       <c r="J65" s="235"/>
       <c r="K65" s="235"/>
       <c r="L65" s="235"/>
-      <c r="M65" s="307"/>
-      <c r="N65" s="312"/>
+      <c r="M65" s="244"/>
+      <c r="N65" s="249"/>
       <c r="O65" s="235"/>
       <c r="P65" s="235"/>
       <c r="Q65" s="235"/>
       <c r="R65" s="235"/>
-      <c r="S65" s="307"/>
-      <c r="T65" s="312"/>
+      <c r="S65" s="244"/>
+      <c r="T65" s="249"/>
       <c r="U65" s="235"/>
       <c r="V65" s="235"/>
       <c r="W65" s="235"/>
       <c r="X65" s="235"/>
-      <c r="Y65" s="307"/>
-      <c r="Z65" s="312"/>
+      <c r="Y65" s="244"/>
+      <c r="Z65" s="249"/>
       <c r="AA65" s="235"/>
       <c r="AB65" s="235"/>
       <c r="AC65" s="235"/>
       <c r="AD65" s="235"/>
-      <c r="AE65" s="307"/>
+      <c r="AE65" s="244"/>
       <c r="AF65" s="235"/>
       <c r="AG65" s="235"/>
       <c r="AH65" s="235"/>
       <c r="AI65" s="235"/>
       <c r="AJ65" s="235"/>
       <c r="AK65" s="235"/>
-      <c r="AL65" s="307"/>
+      <c r="AL65" s="244"/>
       <c r="AP65" s="235"/>
       <c r="AQ65" s="235"/>
     </row>
@@ -43405,10 +43392,10 @@
     </row>
     <row r="71" spans="2:43">
       <c r="Z71" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC71" s="276" t="s">
         <v>324</v>
-      </c>
-      <c r="AC71" s="342" t="s">
-        <v>325</v>
       </c>
       <c r="AD71" s="168"/>
       <c r="AE71" s="168"/>

--- a/12520406-Hồ Thị Thanh Thảo/SalesModel-UseCase.xlsx
+++ b/12520406-Hồ Thị Thanh Thảo/SalesModel-UseCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7305" tabRatio="922" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7305" tabRatio="922" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeHistory" sheetId="36" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="375">
   <si>
     <t>Created Date</t>
   </si>
@@ -893,12 +893,6 @@
     <t xml:space="preserve">Phí hoàn: </t>
   </si>
   <si>
-    <t>In phiếu trả</t>
-  </si>
-  <si>
-    <t>In phiếu đổi</t>
-  </si>
-  <si>
     <t>3.7</t>
   </si>
   <si>
@@ -1293,10 +1287,10 @@
   <numFmts count="21">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="0" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="0" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="168" formatCode="d&quot;¥&quot;\-mmm&quot;¥&quot;\-yyyy"/>
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="0" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="170" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="171" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="172" formatCode="###,###"/>
@@ -1311,7 +1305,7 @@
     <numFmt numFmtId="181" formatCode="&quot;¥&quot;#,##0;\-&quot;¥&quot;#,##0"/>
     <numFmt numFmtId="182" formatCode="&quot;€&quot;#,##0;[Red]\-&quot;€&quot;#,##0"/>
     <numFmt numFmtId="183" formatCode="&quot;¥&quot;#,##0;[Red]\-&quot;¥&quot;#,##0"/>
-    <numFmt numFmtId="184" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="0" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="80">
     <font>
@@ -5833,7 +5827,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
@@ -6326,19 +6320,19 @@
   </cellStyleXfs>
   <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="51" fillId="24" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="16" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="17" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="18" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="19" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="16" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="17" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="18" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="19" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="51" fillId="24" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="51" fillId="24" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="52" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6373,12 +6367,12 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="53" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="14" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="53" fillId="24" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="24" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6408,22 +6402,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="56" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="54" fillId="28" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="57" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="51" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="58" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="55" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="23" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="22" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="23" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="22" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="51" fillId="25" borderId="0" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6431,16 +6425,16 @@
     <xf numFmtId="0" fontId="51" fillId="24" borderId="4" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="53" fillId="25" borderId="21" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="21" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="59" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="60" fillId="25" borderId="0" xfId="3158" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="72" fillId="25" borderId="0" xfId="3158" applyFill="1"/>
     <xf numFmtId="0" fontId="51" fillId="25" borderId="0" xfId="3158" applyFont="1" applyFill="1"/>
@@ -6467,7 +6461,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" xfId="3250" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="25" borderId="14" xfId="3250" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="14" xfId="3250" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="25" borderId="14" xfId="3250" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6488,11 +6482,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="33" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="34" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="51" fillId="31" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="51" fillId="31" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="51" fillId="31" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="33" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="34" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6531,56 +6525,56 @@
     <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="61" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="62" fillId="25" borderId="16" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="63" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="16" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="62" fillId="25" borderId="0" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="62" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="62" fillId="25" borderId="19" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="62" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="19" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="50" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="50" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="62" fillId="25" borderId="0" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="50" fillId="25" borderId="0" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="64" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="65" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="66" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="66" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="66" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="39" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="40" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="41" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="42" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="43" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="44" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="29" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="29" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="21" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="20" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="67" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="67" fillId="29" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="39" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="40" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="41" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="42" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="43" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="44" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="21" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="20" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="67" fillId="29" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="69" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="69" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="69" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="68" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="50" fillId="25" borderId="12" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="12" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="49" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="29" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="23" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="17" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="63" fillId="25" borderId="17" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6636,30 +6630,30 @@
     <xf numFmtId="0" fontId="74" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="74" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="76" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="76" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="36" borderId="0" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="50" fillId="36" borderId="0" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="0" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="19" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="21" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="20" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="61" fillId="36" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="19" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="21" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="20" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="36" borderId="0" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="16" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="22" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="16" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="22" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6677,22 +6671,22 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="35" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="35" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="35" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="34" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="34" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="34" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="16" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="36" borderId="18" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="37" borderId="28" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="37" borderId="29" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="37" borderId="27" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="37" borderId="27" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="12" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="78" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="34" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="16" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="18" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="28" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="29" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="27" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="37" borderId="27" xfId="3249" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="12" xfId="3249" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="78" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="64" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="64" fillId="25" borderId="0" xfId="3249" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="50" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6701,39 +6695,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="54" fillId="28" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="54" fillId="28" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="54" fillId="28" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6750,6 +6711,60 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6788,76 +6803,55 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="25" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="25" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="25" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="54" fillId="28" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="14" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="25" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="50" fillId="29" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="50" fillId="29" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="50" fillId="29" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="29" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="32" borderId="12" xfId="3249" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6870,22 +6864,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="35" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="35" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="35" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="50" fillId="35" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="12" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="50" fillId="35" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="4" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="50" fillId="35" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="15" xfId="3249" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12344,16 +12338,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D7" s="96">
         <v>42321</v>
       </c>
       <c r="E7" s="97" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="98" customFormat="1">
@@ -12480,176 +12474,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="12.75" customHeight="1">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="300" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="304" t="s">
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="311" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
-      <c r="M1" s="305"/>
-      <c r="N1" s="305"/>
-      <c r="O1" s="305"/>
-      <c r="P1" s="305"/>
-      <c r="Q1" s="305"/>
-      <c r="R1" s="305"/>
-      <c r="S1" s="305"/>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
-      <c r="V1" s="305"/>
-      <c r="W1" s="305"/>
-      <c r="X1" s="305"/>
-      <c r="Y1" s="305"/>
-      <c r="Z1" s="305"/>
-      <c r="AA1" s="305"/>
-      <c r="AB1" s="305"/>
-      <c r="AC1" s="305"/>
-      <c r="AD1" s="305"/>
-      <c r="AE1" s="305"/>
-      <c r="AF1" s="305"/>
-      <c r="AG1" s="305"/>
-      <c r="AH1" s="305"/>
-      <c r="AI1" s="305"/>
-      <c r="AJ1" s="305"/>
-      <c r="AK1" s="305"/>
-      <c r="AL1" s="306"/>
-      <c r="AM1" s="304" t="s">
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="312"/>
+      <c r="S1" s="312"/>
+      <c r="T1" s="312"/>
+      <c r="U1" s="312"/>
+      <c r="V1" s="312"/>
+      <c r="W1" s="312"/>
+      <c r="X1" s="312"/>
+      <c r="Y1" s="312"/>
+      <c r="Z1" s="312"/>
+      <c r="AA1" s="312"/>
+      <c r="AB1" s="312"/>
+      <c r="AC1" s="312"/>
+      <c r="AD1" s="312"/>
+      <c r="AE1" s="312"/>
+      <c r="AF1" s="312"/>
+      <c r="AG1" s="312"/>
+      <c r="AH1" s="312"/>
+      <c r="AI1" s="312"/>
+      <c r="AJ1" s="312"/>
+      <c r="AK1" s="312"/>
+      <c r="AL1" s="313"/>
+      <c r="AM1" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="305"/>
-      <c r="AO1" s="305"/>
-      <c r="AP1" s="306"/>
-      <c r="AQ1" s="305" t="s">
+      <c r="AN1" s="312"/>
+      <c r="AO1" s="312"/>
+      <c r="AP1" s="313"/>
+      <c r="AQ1" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="AR1" s="305"/>
-      <c r="AS1" s="305"/>
-      <c r="AT1" s="306"/>
-      <c r="AU1" s="304" t="s">
+      <c r="AR1" s="312"/>
+      <c r="AS1" s="312"/>
+      <c r="AT1" s="313"/>
+      <c r="AU1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="305"/>
-      <c r="AW1" s="305"/>
-      <c r="AX1" s="306"/>
+      <c r="AV1" s="312"/>
+      <c r="AW1" s="312"/>
+      <c r="AX1" s="313"/>
     </row>
     <row r="2" spans="1:50" ht="15" customHeight="1">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="307" t="s">
+      <c r="A2" s="300"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="314" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="308"/>
-      <c r="L2" s="308"/>
-      <c r="M2" s="308"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="308"/>
-      <c r="P2" s="308"/>
-      <c r="Q2" s="308"/>
-      <c r="R2" s="308"/>
-      <c r="S2" s="308"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="308"/>
-      <c r="AA2" s="308"/>
-      <c r="AB2" s="308"/>
-      <c r="AC2" s="308"/>
-      <c r="AD2" s="308"/>
-      <c r="AE2" s="308"/>
-      <c r="AF2" s="308"/>
-      <c r="AG2" s="308"/>
-      <c r="AH2" s="308"/>
-      <c r="AI2" s="308"/>
-      <c r="AJ2" s="308"/>
-      <c r="AK2" s="308"/>
-      <c r="AL2" s="309"/>
-      <c r="AM2" s="307" t="s">
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="315"/>
+      <c r="L2" s="315"/>
+      <c r="M2" s="315"/>
+      <c r="N2" s="315"/>
+      <c r="O2" s="315"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="315"/>
+      <c r="S2" s="315"/>
+      <c r="T2" s="315"/>
+      <c r="U2" s="315"/>
+      <c r="V2" s="315"/>
+      <c r="W2" s="315"/>
+      <c r="X2" s="315"/>
+      <c r="Y2" s="315"/>
+      <c r="Z2" s="315"/>
+      <c r="AA2" s="315"/>
+      <c r="AB2" s="315"/>
+      <c r="AC2" s="315"/>
+      <c r="AD2" s="315"/>
+      <c r="AE2" s="315"/>
+      <c r="AF2" s="315"/>
+      <c r="AG2" s="315"/>
+      <c r="AH2" s="315"/>
+      <c r="AI2" s="315"/>
+      <c r="AJ2" s="315"/>
+      <c r="AK2" s="315"/>
+      <c r="AL2" s="316"/>
+      <c r="AM2" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="AN2" s="308"/>
-      <c r="AO2" s="308"/>
-      <c r="AP2" s="309"/>
-      <c r="AQ2" s="313">
+      <c r="AN2" s="315"/>
+      <c r="AO2" s="315"/>
+      <c r="AP2" s="316"/>
+      <c r="AQ2" s="320">
         <v>42314</v>
       </c>
-      <c r="AR2" s="313"/>
-      <c r="AS2" s="313"/>
-      <c r="AT2" s="314"/>
-      <c r="AU2" s="313"/>
-      <c r="AV2" s="313"/>
-      <c r="AW2" s="313"/>
-      <c r="AX2" s="314"/>
+      <c r="AR2" s="320"/>
+      <c r="AS2" s="320"/>
+      <c r="AT2" s="321"/>
+      <c r="AU2" s="320"/>
+      <c r="AV2" s="320"/>
+      <c r="AW2" s="320"/>
+      <c r="AX2" s="321"/>
     </row>
     <row r="3" spans="1:50">
-      <c r="A3" s="321"/>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
-      <c r="K3" s="311"/>
-      <c r="L3" s="311"/>
-      <c r="M3" s="311"/>
-      <c r="N3" s="311"/>
-      <c r="O3" s="311"/>
-      <c r="P3" s="311"/>
-      <c r="Q3" s="311"/>
-      <c r="R3" s="311"/>
-      <c r="S3" s="311"/>
-      <c r="T3" s="311"/>
-      <c r="U3" s="311"/>
-      <c r="V3" s="311"/>
-      <c r="W3" s="311"/>
-      <c r="X3" s="311"/>
-      <c r="Y3" s="311"/>
-      <c r="Z3" s="311"/>
-      <c r="AA3" s="311"/>
-      <c r="AB3" s="311"/>
-      <c r="AC3" s="311"/>
-      <c r="AD3" s="311"/>
-      <c r="AE3" s="311"/>
-      <c r="AF3" s="311"/>
-      <c r="AG3" s="311"/>
-      <c r="AH3" s="311"/>
-      <c r="AI3" s="311"/>
-      <c r="AJ3" s="311"/>
-      <c r="AK3" s="311"/>
-      <c r="AL3" s="312"/>
-      <c r="AM3" s="310"/>
-      <c r="AN3" s="311"/>
-      <c r="AO3" s="311"/>
-      <c r="AP3" s="312"/>
-      <c r="AQ3" s="315"/>
-      <c r="AR3" s="315"/>
-      <c r="AS3" s="315"/>
-      <c r="AT3" s="316"/>
-      <c r="AU3" s="315"/>
-      <c r="AV3" s="315"/>
-      <c r="AW3" s="315"/>
-      <c r="AX3" s="316"/>
+      <c r="A3" s="300"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="318"/>
+      <c r="O3" s="318"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="318"/>
+      <c r="R3" s="318"/>
+      <c r="S3" s="318"/>
+      <c r="T3" s="318"/>
+      <c r="U3" s="318"/>
+      <c r="V3" s="318"/>
+      <c r="W3" s="318"/>
+      <c r="X3" s="318"/>
+      <c r="Y3" s="318"/>
+      <c r="Z3" s="318"/>
+      <c r="AA3" s="318"/>
+      <c r="AB3" s="318"/>
+      <c r="AC3" s="318"/>
+      <c r="AD3" s="318"/>
+      <c r="AE3" s="318"/>
+      <c r="AF3" s="318"/>
+      <c r="AG3" s="318"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="318"/>
+      <c r="AK3" s="318"/>
+      <c r="AL3" s="319"/>
+      <c r="AM3" s="317"/>
+      <c r="AN3" s="318"/>
+      <c r="AO3" s="318"/>
+      <c r="AP3" s="319"/>
+      <c r="AQ3" s="322"/>
+      <c r="AR3" s="322"/>
+      <c r="AS3" s="322"/>
+      <c r="AT3" s="323"/>
+      <c r="AU3" s="322"/>
+      <c r="AV3" s="322"/>
+      <c r="AW3" s="322"/>
+      <c r="AX3" s="323"/>
     </row>
     <row r="4" spans="1:50">
       <c r="A4" s="18"/>
@@ -12866,7 +12860,7 @@
     <row r="8" spans="1:50" ht="12.75" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -12920,7 +12914,7 @@
     <row r="9" spans="1:50" ht="12.75" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -13299,32 +13293,32 @@
       <c r="C16" s="34">
         <v>1</v>
       </c>
-      <c r="D16" s="287" t="s">
-        <v>373</v>
-      </c>
-      <c r="E16" s="288"/>
-      <c r="F16" s="288"/>
-      <c r="G16" s="288"/>
-      <c r="H16" s="288"/>
-      <c r="I16" s="288"/>
-      <c r="J16" s="288"/>
-      <c r="K16" s="289"/>
-      <c r="L16" s="287" t="s">
+      <c r="D16" s="329" t="s">
+        <v>371</v>
+      </c>
+      <c r="E16" s="330"/>
+      <c r="F16" s="330"/>
+      <c r="G16" s="330"/>
+      <c r="H16" s="330"/>
+      <c r="I16" s="330"/>
+      <c r="J16" s="330"/>
+      <c r="K16" s="331"/>
+      <c r="L16" s="329" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="288"/>
-      <c r="N16" s="288"/>
-      <c r="O16" s="288"/>
-      <c r="P16" s="288"/>
-      <c r="Q16" s="288"/>
-      <c r="R16" s="288"/>
-      <c r="S16" s="288"/>
-      <c r="T16" s="288"/>
-      <c r="U16" s="288"/>
-      <c r="V16" s="288"/>
-      <c r="W16" s="288"/>
-      <c r="X16" s="288"/>
-      <c r="Y16" s="289"/>
+      <c r="M16" s="330"/>
+      <c r="N16" s="330"/>
+      <c r="O16" s="330"/>
+      <c r="P16" s="330"/>
+      <c r="Q16" s="330"/>
+      <c r="R16" s="330"/>
+      <c r="S16" s="330"/>
+      <c r="T16" s="330"/>
+      <c r="U16" s="330"/>
+      <c r="V16" s="330"/>
+      <c r="W16" s="330"/>
+      <c r="X16" s="330"/>
+      <c r="Y16" s="331"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
@@ -13355,28 +13349,28 @@
       <c r="A17" s="18"/>
       <c r="B17" s="25"/>
       <c r="C17" s="34"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="288"/>
-      <c r="F17" s="288"/>
-      <c r="G17" s="288"/>
-      <c r="H17" s="288"/>
-      <c r="I17" s="288"/>
-      <c r="J17" s="288"/>
-      <c r="K17" s="289"/>
-      <c r="L17" s="287"/>
-      <c r="M17" s="288"/>
-      <c r="N17" s="288"/>
-      <c r="O17" s="288"/>
-      <c r="P17" s="288"/>
-      <c r="Q17" s="288"/>
-      <c r="R17" s="288"/>
-      <c r="S17" s="288"/>
-      <c r="T17" s="288"/>
-      <c r="U17" s="288"/>
-      <c r="V17" s="288"/>
-      <c r="W17" s="288"/>
-      <c r="X17" s="288"/>
-      <c r="Y17" s="289"/>
+      <c r="D17" s="329"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="330"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="330"/>
+      <c r="I17" s="330"/>
+      <c r="J17" s="330"/>
+      <c r="K17" s="331"/>
+      <c r="L17" s="329"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="330"/>
+      <c r="O17" s="330"/>
+      <c r="P17" s="330"/>
+      <c r="Q17" s="330"/>
+      <c r="R17" s="330"/>
+      <c r="S17" s="330"/>
+      <c r="T17" s="330"/>
+      <c r="U17" s="330"/>
+      <c r="V17" s="330"/>
+      <c r="W17" s="330"/>
+      <c r="X17" s="330"/>
+      <c r="Y17" s="331"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
       <c r="AB17" s="19"/>
@@ -14824,54 +14818,54 @@
       <c r="C45" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="317" t="s">
+      <c r="D45" s="324" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="317"/>
-      <c r="F45" s="317"/>
-      <c r="G45" s="317"/>
-      <c r="H45" s="317" t="s">
+      <c r="E45" s="324"/>
+      <c r="F45" s="324"/>
+      <c r="G45" s="324"/>
+      <c r="H45" s="324" t="s">
         <v>24</v>
       </c>
-      <c r="I45" s="317"/>
-      <c r="J45" s="317"/>
-      <c r="K45" s="317"/>
-      <c r="L45" s="317"/>
-      <c r="M45" s="317"/>
-      <c r="N45" s="317"/>
-      <c r="O45" s="317"/>
-      <c r="P45" s="317"/>
-      <c r="Q45" s="317"/>
-      <c r="R45" s="317"/>
-      <c r="S45" s="317"/>
-      <c r="T45" s="317"/>
-      <c r="U45" s="317"/>
-      <c r="V45" s="317"/>
-      <c r="W45" s="284" t="s">
+      <c r="I45" s="324"/>
+      <c r="J45" s="324"/>
+      <c r="K45" s="324"/>
+      <c r="L45" s="324"/>
+      <c r="M45" s="324"/>
+      <c r="N45" s="324"/>
+      <c r="O45" s="324"/>
+      <c r="P45" s="324"/>
+      <c r="Q45" s="324"/>
+      <c r="R45" s="324"/>
+      <c r="S45" s="324"/>
+      <c r="T45" s="324"/>
+      <c r="U45" s="324"/>
+      <c r="V45" s="324"/>
+      <c r="W45" s="326" t="s">
         <v>5</v>
       </c>
-      <c r="X45" s="285"/>
-      <c r="Y45" s="285"/>
-      <c r="Z45" s="285"/>
-      <c r="AA45" s="285"/>
-      <c r="AB45" s="285"/>
-      <c r="AC45" s="285"/>
-      <c r="AD45" s="285"/>
-      <c r="AE45" s="285"/>
-      <c r="AF45" s="285"/>
-      <c r="AG45" s="285"/>
-      <c r="AH45" s="285"/>
-      <c r="AI45" s="285"/>
-      <c r="AJ45" s="285"/>
-      <c r="AK45" s="285"/>
-      <c r="AL45" s="285"/>
-      <c r="AM45" s="285"/>
-      <c r="AN45" s="285"/>
-      <c r="AO45" s="285"/>
-      <c r="AP45" s="285"/>
-      <c r="AQ45" s="285"/>
-      <c r="AR45" s="285"/>
-      <c r="AS45" s="286"/>
+      <c r="X45" s="327"/>
+      <c r="Y45" s="327"/>
+      <c r="Z45" s="327"/>
+      <c r="AA45" s="327"/>
+      <c r="AB45" s="327"/>
+      <c r="AC45" s="327"/>
+      <c r="AD45" s="327"/>
+      <c r="AE45" s="327"/>
+      <c r="AF45" s="327"/>
+      <c r="AG45" s="327"/>
+      <c r="AH45" s="327"/>
+      <c r="AI45" s="327"/>
+      <c r="AJ45" s="327"/>
+      <c r="AK45" s="327"/>
+      <c r="AL45" s="327"/>
+      <c r="AM45" s="327"/>
+      <c r="AN45" s="327"/>
+      <c r="AO45" s="327"/>
+      <c r="AP45" s="327"/>
+      <c r="AQ45" s="327"/>
+      <c r="AR45" s="327"/>
+      <c r="AS45" s="328"/>
       <c r="AT45" s="4"/>
       <c r="AU45" s="4"/>
       <c r="AV45" s="4"/>
@@ -14884,54 +14878,54 @@
       <c r="C46" s="42">
         <v>1</v>
       </c>
-      <c r="D46" s="294" t="s">
+      <c r="D46" s="293" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="294"/>
-      <c r="F46" s="294"/>
-      <c r="G46" s="294"/>
-      <c r="H46" s="318" t="s">
+      <c r="E46" s="293"/>
+      <c r="F46" s="293"/>
+      <c r="G46" s="293"/>
+      <c r="H46" s="294" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="319"/>
-      <c r="J46" s="319"/>
-      <c r="K46" s="319"/>
-      <c r="L46" s="319"/>
-      <c r="M46" s="319"/>
-      <c r="N46" s="319"/>
-      <c r="O46" s="319"/>
-      <c r="P46" s="319"/>
-      <c r="Q46" s="319"/>
-      <c r="R46" s="319"/>
-      <c r="S46" s="319"/>
-      <c r="T46" s="319"/>
-      <c r="U46" s="319"/>
-      <c r="V46" s="320"/>
-      <c r="W46" s="290" t="s">
+      <c r="I46" s="295"/>
+      <c r="J46" s="295"/>
+      <c r="K46" s="295"/>
+      <c r="L46" s="295"/>
+      <c r="M46" s="295"/>
+      <c r="N46" s="295"/>
+      <c r="O46" s="295"/>
+      <c r="P46" s="295"/>
+      <c r="Q46" s="295"/>
+      <c r="R46" s="295"/>
+      <c r="S46" s="295"/>
+      <c r="T46" s="295"/>
+      <c r="U46" s="295"/>
+      <c r="V46" s="296"/>
+      <c r="W46" s="297" t="s">
         <v>8</v>
       </c>
-      <c r="X46" s="291"/>
-      <c r="Y46" s="291"/>
-      <c r="Z46" s="291"/>
-      <c r="AA46" s="291"/>
-      <c r="AB46" s="291"/>
-      <c r="AC46" s="291"/>
-      <c r="AD46" s="291"/>
-      <c r="AE46" s="291"/>
-      <c r="AF46" s="291"/>
-      <c r="AG46" s="291"/>
-      <c r="AH46" s="291"/>
-      <c r="AI46" s="291"/>
-      <c r="AJ46" s="291"/>
-      <c r="AK46" s="291"/>
-      <c r="AL46" s="291"/>
-      <c r="AM46" s="291"/>
-      <c r="AN46" s="291"/>
-      <c r="AO46" s="291"/>
-      <c r="AP46" s="291"/>
-      <c r="AQ46" s="291"/>
-      <c r="AR46" s="291"/>
-      <c r="AS46" s="292"/>
+      <c r="X46" s="298"/>
+      <c r="Y46" s="298"/>
+      <c r="Z46" s="298"/>
+      <c r="AA46" s="298"/>
+      <c r="AB46" s="298"/>
+      <c r="AC46" s="298"/>
+      <c r="AD46" s="298"/>
+      <c r="AE46" s="298"/>
+      <c r="AF46" s="298"/>
+      <c r="AG46" s="298"/>
+      <c r="AH46" s="298"/>
+      <c r="AI46" s="298"/>
+      <c r="AJ46" s="298"/>
+      <c r="AK46" s="298"/>
+      <c r="AL46" s="298"/>
+      <c r="AM46" s="298"/>
+      <c r="AN46" s="298"/>
+      <c r="AO46" s="298"/>
+      <c r="AP46" s="298"/>
+      <c r="AQ46" s="298"/>
+      <c r="AR46" s="298"/>
+      <c r="AS46" s="299"/>
       <c r="AT46" s="4"/>
       <c r="AU46" s="4"/>
       <c r="AV46" s="4"/>
@@ -14944,54 +14938,54 @@
       <c r="C47" s="42">
         <v>2</v>
       </c>
-      <c r="D47" s="293" t="s">
+      <c r="D47" s="325" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="294"/>
-      <c r="F47" s="294"/>
-      <c r="G47" s="294"/>
-      <c r="H47" s="318" t="s">
+      <c r="E47" s="293"/>
+      <c r="F47" s="293"/>
+      <c r="G47" s="293"/>
+      <c r="H47" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="319"/>
-      <c r="J47" s="319"/>
-      <c r="K47" s="319"/>
-      <c r="L47" s="319"/>
-      <c r="M47" s="319"/>
-      <c r="N47" s="319"/>
-      <c r="O47" s="319"/>
-      <c r="P47" s="319"/>
-      <c r="Q47" s="319"/>
-      <c r="R47" s="319"/>
-      <c r="S47" s="319"/>
-      <c r="T47" s="319"/>
-      <c r="U47" s="319"/>
-      <c r="V47" s="320"/>
-      <c r="W47" s="290" t="s">
+      <c r="I47" s="295"/>
+      <c r="J47" s="295"/>
+      <c r="K47" s="295"/>
+      <c r="L47" s="295"/>
+      <c r="M47" s="295"/>
+      <c r="N47" s="295"/>
+      <c r="O47" s="295"/>
+      <c r="P47" s="295"/>
+      <c r="Q47" s="295"/>
+      <c r="R47" s="295"/>
+      <c r="S47" s="295"/>
+      <c r="T47" s="295"/>
+      <c r="U47" s="295"/>
+      <c r="V47" s="296"/>
+      <c r="W47" s="297" t="s">
         <v>10</v>
       </c>
-      <c r="X47" s="291"/>
-      <c r="Y47" s="291"/>
-      <c r="Z47" s="291"/>
-      <c r="AA47" s="291"/>
-      <c r="AB47" s="291"/>
-      <c r="AC47" s="291"/>
-      <c r="AD47" s="291"/>
-      <c r="AE47" s="291"/>
-      <c r="AF47" s="291"/>
-      <c r="AG47" s="291"/>
-      <c r="AH47" s="291"/>
-      <c r="AI47" s="291"/>
-      <c r="AJ47" s="291"/>
-      <c r="AK47" s="291"/>
-      <c r="AL47" s="291"/>
-      <c r="AM47" s="291"/>
-      <c r="AN47" s="291"/>
-      <c r="AO47" s="291"/>
-      <c r="AP47" s="291"/>
-      <c r="AQ47" s="291"/>
-      <c r="AR47" s="291"/>
-      <c r="AS47" s="292"/>
+      <c r="X47" s="298"/>
+      <c r="Y47" s="298"/>
+      <c r="Z47" s="298"/>
+      <c r="AA47" s="298"/>
+      <c r="AB47" s="298"/>
+      <c r="AC47" s="298"/>
+      <c r="AD47" s="298"/>
+      <c r="AE47" s="298"/>
+      <c r="AF47" s="298"/>
+      <c r="AG47" s="298"/>
+      <c r="AH47" s="298"/>
+      <c r="AI47" s="298"/>
+      <c r="AJ47" s="298"/>
+      <c r="AK47" s="298"/>
+      <c r="AL47" s="298"/>
+      <c r="AM47" s="298"/>
+      <c r="AN47" s="298"/>
+      <c r="AO47" s="298"/>
+      <c r="AP47" s="298"/>
+      <c r="AQ47" s="298"/>
+      <c r="AR47" s="298"/>
+      <c r="AS47" s="299"/>
       <c r="AT47" s="4"/>
       <c r="AU47" s="4"/>
       <c r="AV47" s="4"/>
@@ -15004,54 +14998,54 @@
       <c r="C48" s="42">
         <v>3</v>
       </c>
-      <c r="D48" s="293" t="s">
+      <c r="D48" s="325" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="294"/>
-      <c r="F48" s="294"/>
-      <c r="G48" s="294"/>
-      <c r="H48" s="318" t="s">
+      <c r="E48" s="293"/>
+      <c r="F48" s="293"/>
+      <c r="G48" s="293"/>
+      <c r="H48" s="294" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="319"/>
-      <c r="J48" s="319"/>
-      <c r="K48" s="319"/>
-      <c r="L48" s="319"/>
-      <c r="M48" s="319"/>
-      <c r="N48" s="319"/>
-      <c r="O48" s="319"/>
-      <c r="P48" s="319"/>
-      <c r="Q48" s="319"/>
-      <c r="R48" s="319"/>
-      <c r="S48" s="319"/>
-      <c r="T48" s="319"/>
-      <c r="U48" s="319"/>
-      <c r="V48" s="320"/>
-      <c r="W48" s="290" t="s">
+      <c r="I48" s="295"/>
+      <c r="J48" s="295"/>
+      <c r="K48" s="295"/>
+      <c r="L48" s="295"/>
+      <c r="M48" s="295"/>
+      <c r="N48" s="295"/>
+      <c r="O48" s="295"/>
+      <c r="P48" s="295"/>
+      <c r="Q48" s="295"/>
+      <c r="R48" s="295"/>
+      <c r="S48" s="295"/>
+      <c r="T48" s="295"/>
+      <c r="U48" s="295"/>
+      <c r="V48" s="296"/>
+      <c r="W48" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="X48" s="291"/>
-      <c r="Y48" s="291"/>
-      <c r="Z48" s="291"/>
-      <c r="AA48" s="291"/>
-      <c r="AB48" s="291"/>
-      <c r="AC48" s="291"/>
-      <c r="AD48" s="291"/>
-      <c r="AE48" s="291"/>
-      <c r="AF48" s="291"/>
-      <c r="AG48" s="291"/>
-      <c r="AH48" s="291"/>
-      <c r="AI48" s="291"/>
-      <c r="AJ48" s="291"/>
-      <c r="AK48" s="291"/>
-      <c r="AL48" s="291"/>
-      <c r="AM48" s="291"/>
-      <c r="AN48" s="291"/>
-      <c r="AO48" s="291"/>
-      <c r="AP48" s="291"/>
-      <c r="AQ48" s="291"/>
-      <c r="AR48" s="291"/>
-      <c r="AS48" s="292"/>
+      <c r="X48" s="298"/>
+      <c r="Y48" s="298"/>
+      <c r="Z48" s="298"/>
+      <c r="AA48" s="298"/>
+      <c r="AB48" s="298"/>
+      <c r="AC48" s="298"/>
+      <c r="AD48" s="298"/>
+      <c r="AE48" s="298"/>
+      <c r="AF48" s="298"/>
+      <c r="AG48" s="298"/>
+      <c r="AH48" s="298"/>
+      <c r="AI48" s="298"/>
+      <c r="AJ48" s="298"/>
+      <c r="AK48" s="298"/>
+      <c r="AL48" s="298"/>
+      <c r="AM48" s="298"/>
+      <c r="AN48" s="298"/>
+      <c r="AO48" s="298"/>
+      <c r="AP48" s="298"/>
+      <c r="AQ48" s="298"/>
+      <c r="AR48" s="298"/>
+      <c r="AS48" s="299"/>
       <c r="AT48" s="4"/>
       <c r="AU48" s="4"/>
       <c r="AV48" s="4"/>
@@ -15064,54 +15058,54 @@
       <c r="C49" s="42">
         <v>4</v>
       </c>
-      <c r="D49" s="293" t="s">
+      <c r="D49" s="325" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="294"/>
-      <c r="F49" s="294"/>
-      <c r="G49" s="294"/>
-      <c r="H49" s="318" t="s">
+      <c r="E49" s="293"/>
+      <c r="F49" s="293"/>
+      <c r="G49" s="293"/>
+      <c r="H49" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="319"/>
-      <c r="J49" s="319"/>
-      <c r="K49" s="319"/>
-      <c r="L49" s="319"/>
-      <c r="M49" s="319"/>
-      <c r="N49" s="319"/>
-      <c r="O49" s="319"/>
-      <c r="P49" s="319"/>
-      <c r="Q49" s="319"/>
-      <c r="R49" s="319"/>
-      <c r="S49" s="319"/>
-      <c r="T49" s="319"/>
-      <c r="U49" s="319"/>
-      <c r="V49" s="320"/>
-      <c r="W49" s="290" t="s">
+      <c r="I49" s="295"/>
+      <c r="J49" s="295"/>
+      <c r="K49" s="295"/>
+      <c r="L49" s="295"/>
+      <c r="M49" s="295"/>
+      <c r="N49" s="295"/>
+      <c r="O49" s="295"/>
+      <c r="P49" s="295"/>
+      <c r="Q49" s="295"/>
+      <c r="R49" s="295"/>
+      <c r="S49" s="295"/>
+      <c r="T49" s="295"/>
+      <c r="U49" s="295"/>
+      <c r="V49" s="296"/>
+      <c r="W49" s="297" t="s">
         <v>15</v>
       </c>
-      <c r="X49" s="291"/>
-      <c r="Y49" s="291"/>
-      <c r="Z49" s="291"/>
-      <c r="AA49" s="291"/>
-      <c r="AB49" s="291"/>
-      <c r="AC49" s="291"/>
-      <c r="AD49" s="291"/>
-      <c r="AE49" s="291"/>
-      <c r="AF49" s="291"/>
-      <c r="AG49" s="291"/>
-      <c r="AH49" s="291"/>
-      <c r="AI49" s="291"/>
-      <c r="AJ49" s="291"/>
-      <c r="AK49" s="291"/>
-      <c r="AL49" s="291"/>
-      <c r="AM49" s="291"/>
-      <c r="AN49" s="291"/>
-      <c r="AO49" s="291"/>
-      <c r="AP49" s="291"/>
-      <c r="AQ49" s="291"/>
-      <c r="AR49" s="291"/>
-      <c r="AS49" s="292"/>
+      <c r="X49" s="298"/>
+      <c r="Y49" s="298"/>
+      <c r="Z49" s="298"/>
+      <c r="AA49" s="298"/>
+      <c r="AB49" s="298"/>
+      <c r="AC49" s="298"/>
+      <c r="AD49" s="298"/>
+      <c r="AE49" s="298"/>
+      <c r="AF49" s="298"/>
+      <c r="AG49" s="298"/>
+      <c r="AH49" s="298"/>
+      <c r="AI49" s="298"/>
+      <c r="AJ49" s="298"/>
+      <c r="AK49" s="298"/>
+      <c r="AL49" s="298"/>
+      <c r="AM49" s="298"/>
+      <c r="AN49" s="298"/>
+      <c r="AO49" s="298"/>
+      <c r="AP49" s="298"/>
+      <c r="AQ49" s="298"/>
+      <c r="AR49" s="298"/>
+      <c r="AS49" s="299"/>
       <c r="AT49" s="4"/>
       <c r="AU49" s="4"/>
       <c r="AV49" s="4"/>
@@ -15124,54 +15118,54 @@
       <c r="C50" s="42">
         <v>5</v>
       </c>
-      <c r="D50" s="293" t="s">
+      <c r="D50" s="325" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="294"/>
-      <c r="F50" s="294"/>
-      <c r="G50" s="294"/>
-      <c r="H50" s="290" t="s">
+      <c r="E50" s="293"/>
+      <c r="F50" s="293"/>
+      <c r="G50" s="293"/>
+      <c r="H50" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="291"/>
-      <c r="J50" s="291"/>
-      <c r="K50" s="291"/>
-      <c r="L50" s="291"/>
-      <c r="M50" s="291"/>
-      <c r="N50" s="291"/>
-      <c r="O50" s="291"/>
-      <c r="P50" s="291"/>
-      <c r="Q50" s="291"/>
-      <c r="R50" s="291"/>
-      <c r="S50" s="291"/>
-      <c r="T50" s="291"/>
-      <c r="U50" s="291"/>
-      <c r="V50" s="292"/>
-      <c r="W50" s="290" t="s">
+      <c r="I50" s="298"/>
+      <c r="J50" s="298"/>
+      <c r="K50" s="298"/>
+      <c r="L50" s="298"/>
+      <c r="M50" s="298"/>
+      <c r="N50" s="298"/>
+      <c r="O50" s="298"/>
+      <c r="P50" s="298"/>
+      <c r="Q50" s="298"/>
+      <c r="R50" s="298"/>
+      <c r="S50" s="298"/>
+      <c r="T50" s="298"/>
+      <c r="U50" s="298"/>
+      <c r="V50" s="299"/>
+      <c r="W50" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="X50" s="291"/>
-      <c r="Y50" s="291"/>
-      <c r="Z50" s="291"/>
-      <c r="AA50" s="291"/>
-      <c r="AB50" s="291"/>
-      <c r="AC50" s="291"/>
-      <c r="AD50" s="291"/>
-      <c r="AE50" s="291"/>
-      <c r="AF50" s="291"/>
-      <c r="AG50" s="291"/>
-      <c r="AH50" s="291"/>
-      <c r="AI50" s="291"/>
-      <c r="AJ50" s="291"/>
-      <c r="AK50" s="291"/>
-      <c r="AL50" s="291"/>
-      <c r="AM50" s="291"/>
-      <c r="AN50" s="291"/>
-      <c r="AO50" s="291"/>
-      <c r="AP50" s="291"/>
-      <c r="AQ50" s="291"/>
-      <c r="AR50" s="291"/>
-      <c r="AS50" s="292"/>
+      <c r="X50" s="298"/>
+      <c r="Y50" s="298"/>
+      <c r="Z50" s="298"/>
+      <c r="AA50" s="298"/>
+      <c r="AB50" s="298"/>
+      <c r="AC50" s="298"/>
+      <c r="AD50" s="298"/>
+      <c r="AE50" s="298"/>
+      <c r="AF50" s="298"/>
+      <c r="AG50" s="298"/>
+      <c r="AH50" s="298"/>
+      <c r="AI50" s="298"/>
+      <c r="AJ50" s="298"/>
+      <c r="AK50" s="298"/>
+      <c r="AL50" s="298"/>
+      <c r="AM50" s="298"/>
+      <c r="AN50" s="298"/>
+      <c r="AO50" s="298"/>
+      <c r="AP50" s="298"/>
+      <c r="AQ50" s="298"/>
+      <c r="AR50" s="298"/>
+      <c r="AS50" s="299"/>
       <c r="AT50" s="4"/>
       <c r="AU50" s="4"/>
       <c r="AV50" s="4"/>
@@ -15289,53 +15283,53 @@
       <c r="B53" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="325" t="s">
+      <c r="C53" s="301" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="325"/>
-      <c r="E53" s="325"/>
-      <c r="F53" s="325"/>
-      <c r="G53" s="325"/>
-      <c r="H53" s="325" t="s">
+      <c r="D53" s="301"/>
+      <c r="E53" s="301"/>
+      <c r="F53" s="301"/>
+      <c r="G53" s="301"/>
+      <c r="H53" s="301" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="325"/>
-      <c r="J53" s="325"/>
-      <c r="K53" s="325"/>
-      <c r="L53" s="325"/>
-      <c r="M53" s="325"/>
-      <c r="N53" s="325"/>
-      <c r="O53" s="325"/>
-      <c r="P53" s="325"/>
-      <c r="Q53" s="325"/>
-      <c r="R53" s="325" t="s">
+      <c r="I53" s="301"/>
+      <c r="J53" s="301"/>
+      <c r="K53" s="301"/>
+      <c r="L53" s="301"/>
+      <c r="M53" s="301"/>
+      <c r="N53" s="301"/>
+      <c r="O53" s="301"/>
+      <c r="P53" s="301"/>
+      <c r="Q53" s="301"/>
+      <c r="R53" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="S53" s="325"/>
-      <c r="T53" s="325"/>
-      <c r="U53" s="325"/>
-      <c r="V53" s="325"/>
-      <c r="W53" s="325"/>
-      <c r="X53" s="325"/>
-      <c r="Y53" s="325"/>
-      <c r="Z53" s="325"/>
-      <c r="AA53" s="325"/>
-      <c r="AB53" s="325"/>
-      <c r="AC53" s="325"/>
-      <c r="AD53" s="325"/>
-      <c r="AE53" s="325"/>
-      <c r="AF53" s="325"/>
-      <c r="AG53" s="325"/>
-      <c r="AH53" s="325"/>
-      <c r="AI53" s="325"/>
-      <c r="AJ53" s="325"/>
-      <c r="AK53" s="325"/>
-      <c r="AL53" s="325"/>
-      <c r="AM53" s="325"/>
-      <c r="AN53" s="325"/>
-      <c r="AO53" s="325"/>
-      <c r="AP53" s="325"/>
-      <c r="AQ53" s="325"/>
+      <c r="S53" s="301"/>
+      <c r="T53" s="301"/>
+      <c r="U53" s="301"/>
+      <c r="V53" s="301"/>
+      <c r="W53" s="301"/>
+      <c r="X53" s="301"/>
+      <c r="Y53" s="301"/>
+      <c r="Z53" s="301"/>
+      <c r="AA53" s="301"/>
+      <c r="AB53" s="301"/>
+      <c r="AC53" s="301"/>
+      <c r="AD53" s="301"/>
+      <c r="AE53" s="301"/>
+      <c r="AF53" s="301"/>
+      <c r="AG53" s="301"/>
+      <c r="AH53" s="301"/>
+      <c r="AI53" s="301"/>
+      <c r="AJ53" s="301"/>
+      <c r="AK53" s="301"/>
+      <c r="AL53" s="301"/>
+      <c r="AM53" s="301"/>
+      <c r="AN53" s="301"/>
+      <c r="AO53" s="301"/>
+      <c r="AP53" s="301"/>
+      <c r="AQ53" s="301"/>
       <c r="AR53" s="35"/>
       <c r="AS53" s="35"/>
       <c r="AT53" s="35"/>
@@ -15349,13 +15343,13 @@
       <c r="B54" s="133">
         <v>1</v>
       </c>
-      <c r="C54" s="326" t="s">
+      <c r="C54" s="302" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="327"/>
-      <c r="E54" s="327"/>
-      <c r="F54" s="327"/>
-      <c r="G54" s="328"/>
+      <c r="D54" s="303"/>
+      <c r="E54" s="303"/>
+      <c r="F54" s="303"/>
+      <c r="G54" s="304"/>
       <c r="H54" s="134" t="s">
         <v>57</v>
       </c>
@@ -15368,34 +15362,34 @@
       <c r="O54" s="135"/>
       <c r="P54" s="135"/>
       <c r="Q54" s="135"/>
-      <c r="R54" s="329" t="s">
+      <c r="R54" s="305" t="s">
         <v>65</v>
       </c>
-      <c r="S54" s="330"/>
-      <c r="T54" s="330"/>
-      <c r="U54" s="330"/>
-      <c r="V54" s="330"/>
-      <c r="W54" s="330"/>
-      <c r="X54" s="330"/>
-      <c r="Y54" s="330"/>
-      <c r="Z54" s="330"/>
-      <c r="AA54" s="330"/>
-      <c r="AB54" s="330"/>
-      <c r="AC54" s="330"/>
-      <c r="AD54" s="330"/>
-      <c r="AE54" s="330"/>
-      <c r="AF54" s="330"/>
-      <c r="AG54" s="330"/>
-      <c r="AH54" s="330"/>
-      <c r="AI54" s="330"/>
-      <c r="AJ54" s="330"/>
-      <c r="AK54" s="330"/>
-      <c r="AL54" s="330"/>
-      <c r="AM54" s="330"/>
-      <c r="AN54" s="330"/>
-      <c r="AO54" s="330"/>
-      <c r="AP54" s="330"/>
-      <c r="AQ54" s="331"/>
+      <c r="S54" s="306"/>
+      <c r="T54" s="306"/>
+      <c r="U54" s="306"/>
+      <c r="V54" s="306"/>
+      <c r="W54" s="306"/>
+      <c r="X54" s="306"/>
+      <c r="Y54" s="306"/>
+      <c r="Z54" s="306"/>
+      <c r="AA54" s="306"/>
+      <c r="AB54" s="306"/>
+      <c r="AC54" s="306"/>
+      <c r="AD54" s="306"/>
+      <c r="AE54" s="306"/>
+      <c r="AF54" s="306"/>
+      <c r="AG54" s="306"/>
+      <c r="AH54" s="306"/>
+      <c r="AI54" s="306"/>
+      <c r="AJ54" s="306"/>
+      <c r="AK54" s="306"/>
+      <c r="AL54" s="306"/>
+      <c r="AM54" s="306"/>
+      <c r="AN54" s="306"/>
+      <c r="AO54" s="306"/>
+      <c r="AP54" s="306"/>
+      <c r="AQ54" s="307"/>
       <c r="AR54" s="4"/>
       <c r="AS54" s="4"/>
       <c r="AT54" s="4"/>
@@ -15409,13 +15403,13 @@
       <c r="B55" s="137">
         <v>2</v>
       </c>
-      <c r="C55" s="295" t="s">
+      <c r="C55" s="284" t="s">
         <v>156</v>
       </c>
-      <c r="D55" s="296"/>
-      <c r="E55" s="296"/>
-      <c r="F55" s="296"/>
-      <c r="G55" s="297"/>
+      <c r="D55" s="285"/>
+      <c r="E55" s="285"/>
+      <c r="F55" s="285"/>
+      <c r="G55" s="286"/>
       <c r="H55" s="130" t="s">
         <v>58</v>
       </c>
@@ -15428,34 +15422,34 @@
       <c r="O55" s="131"/>
       <c r="P55" s="131"/>
       <c r="Q55" s="131"/>
-      <c r="R55" s="322" t="s">
+      <c r="R55" s="290" t="s">
         <v>59</v>
       </c>
-      <c r="S55" s="323"/>
-      <c r="T55" s="323"/>
-      <c r="U55" s="323"/>
-      <c r="V55" s="323"/>
-      <c r="W55" s="323"/>
-      <c r="X55" s="323"/>
-      <c r="Y55" s="323"/>
-      <c r="Z55" s="323"/>
-      <c r="AA55" s="323"/>
-      <c r="AB55" s="323"/>
-      <c r="AC55" s="323"/>
-      <c r="AD55" s="323"/>
-      <c r="AE55" s="323"/>
-      <c r="AF55" s="323"/>
-      <c r="AG55" s="323"/>
-      <c r="AH55" s="323"/>
-      <c r="AI55" s="323"/>
-      <c r="AJ55" s="323"/>
-      <c r="AK55" s="323"/>
-      <c r="AL55" s="323"/>
-      <c r="AM55" s="323"/>
-      <c r="AN55" s="323"/>
-      <c r="AO55" s="323"/>
-      <c r="AP55" s="323"/>
-      <c r="AQ55" s="324"/>
+      <c r="S55" s="291"/>
+      <c r="T55" s="291"/>
+      <c r="U55" s="291"/>
+      <c r="V55" s="291"/>
+      <c r="W55" s="291"/>
+      <c r="X55" s="291"/>
+      <c r="Y55" s="291"/>
+      <c r="Z55" s="291"/>
+      <c r="AA55" s="291"/>
+      <c r="AB55" s="291"/>
+      <c r="AC55" s="291"/>
+      <c r="AD55" s="291"/>
+      <c r="AE55" s="291"/>
+      <c r="AF55" s="291"/>
+      <c r="AG55" s="291"/>
+      <c r="AH55" s="291"/>
+      <c r="AI55" s="291"/>
+      <c r="AJ55" s="291"/>
+      <c r="AK55" s="291"/>
+      <c r="AL55" s="291"/>
+      <c r="AM55" s="291"/>
+      <c r="AN55" s="291"/>
+      <c r="AO55" s="291"/>
+      <c r="AP55" s="291"/>
+      <c r="AQ55" s="292"/>
       <c r="AR55" s="19"/>
       <c r="AS55" s="19"/>
       <c r="AT55" s="19"/>
@@ -15469,15 +15463,15 @@
       <c r="B56" s="133">
         <v>3</v>
       </c>
-      <c r="C56" s="295" t="s">
+      <c r="C56" s="284" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="296"/>
-      <c r="E56" s="296"/>
-      <c r="F56" s="296"/>
-      <c r="G56" s="297"/>
+      <c r="D56" s="285"/>
+      <c r="E56" s="285"/>
+      <c r="F56" s="285"/>
+      <c r="G56" s="286"/>
       <c r="H56" s="132" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I56" s="131"/>
       <c r="J56" s="131"/>
@@ -15488,34 +15482,34 @@
       <c r="O56" s="131"/>
       <c r="P56" s="131"/>
       <c r="Q56" s="131"/>
-      <c r="R56" s="295" t="s">
+      <c r="R56" s="284" t="s">
         <v>155</v>
       </c>
-      <c r="S56" s="296"/>
-      <c r="T56" s="296"/>
-      <c r="U56" s="296"/>
-      <c r="V56" s="296"/>
-      <c r="W56" s="296"/>
-      <c r="X56" s="296"/>
-      <c r="Y56" s="296"/>
-      <c r="Z56" s="296"/>
-      <c r="AA56" s="296"/>
-      <c r="AB56" s="296"/>
-      <c r="AC56" s="296"/>
-      <c r="AD56" s="296"/>
-      <c r="AE56" s="296"/>
-      <c r="AF56" s="296"/>
-      <c r="AG56" s="296"/>
-      <c r="AH56" s="296"/>
-      <c r="AI56" s="296"/>
-      <c r="AJ56" s="296"/>
-      <c r="AK56" s="296"/>
-      <c r="AL56" s="296"/>
-      <c r="AM56" s="296"/>
-      <c r="AN56" s="296"/>
-      <c r="AO56" s="296"/>
-      <c r="AP56" s="296"/>
-      <c r="AQ56" s="297"/>
+      <c r="S56" s="285"/>
+      <c r="T56" s="285"/>
+      <c r="U56" s="285"/>
+      <c r="V56" s="285"/>
+      <c r="W56" s="285"/>
+      <c r="X56" s="285"/>
+      <c r="Y56" s="285"/>
+      <c r="Z56" s="285"/>
+      <c r="AA56" s="285"/>
+      <c r="AB56" s="285"/>
+      <c r="AC56" s="285"/>
+      <c r="AD56" s="285"/>
+      <c r="AE56" s="285"/>
+      <c r="AF56" s="285"/>
+      <c r="AG56" s="285"/>
+      <c r="AH56" s="285"/>
+      <c r="AI56" s="285"/>
+      <c r="AJ56" s="285"/>
+      <c r="AK56" s="285"/>
+      <c r="AL56" s="285"/>
+      <c r="AM56" s="285"/>
+      <c r="AN56" s="285"/>
+      <c r="AO56" s="285"/>
+      <c r="AP56" s="285"/>
+      <c r="AQ56" s="286"/>
       <c r="AR56" s="19"/>
       <c r="AS56" s="19"/>
       <c r="AT56" s="19"/>
@@ -15529,15 +15523,15 @@
       <c r="B57" s="137">
         <v>4</v>
       </c>
-      <c r="C57" s="295" t="s">
+      <c r="C57" s="284" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="296"/>
-      <c r="E57" s="296"/>
-      <c r="F57" s="296"/>
-      <c r="G57" s="297"/>
+      <c r="D57" s="285"/>
+      <c r="E57" s="285"/>
+      <c r="F57" s="285"/>
+      <c r="G57" s="286"/>
       <c r="H57" s="134" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I57" s="135"/>
       <c r="J57" s="135"/>
@@ -15548,34 +15542,34 @@
       <c r="O57" s="135"/>
       <c r="P57" s="135"/>
       <c r="Q57" s="135"/>
-      <c r="R57" s="298" t="s">
-        <v>356</v>
-      </c>
-      <c r="S57" s="299"/>
-      <c r="T57" s="299"/>
-      <c r="U57" s="299"/>
-      <c r="V57" s="299"/>
-      <c r="W57" s="299"/>
-      <c r="X57" s="299"/>
-      <c r="Y57" s="299"/>
-      <c r="Z57" s="299"/>
-      <c r="AA57" s="299"/>
-      <c r="AB57" s="299"/>
-      <c r="AC57" s="299"/>
-      <c r="AD57" s="299"/>
-      <c r="AE57" s="299"/>
-      <c r="AF57" s="299"/>
-      <c r="AG57" s="299"/>
-      <c r="AH57" s="299"/>
-      <c r="AI57" s="299"/>
-      <c r="AJ57" s="299"/>
-      <c r="AK57" s="299"/>
-      <c r="AL57" s="299"/>
-      <c r="AM57" s="299"/>
-      <c r="AN57" s="299"/>
-      <c r="AO57" s="299"/>
-      <c r="AP57" s="299"/>
-      <c r="AQ57" s="300"/>
+      <c r="R57" s="287" t="s">
+        <v>354</v>
+      </c>
+      <c r="S57" s="288"/>
+      <c r="T57" s="288"/>
+      <c r="U57" s="288"/>
+      <c r="V57" s="288"/>
+      <c r="W57" s="288"/>
+      <c r="X57" s="288"/>
+      <c r="Y57" s="288"/>
+      <c r="Z57" s="288"/>
+      <c r="AA57" s="288"/>
+      <c r="AB57" s="288"/>
+      <c r="AC57" s="288"/>
+      <c r="AD57" s="288"/>
+      <c r="AE57" s="288"/>
+      <c r="AF57" s="288"/>
+      <c r="AG57" s="288"/>
+      <c r="AH57" s="288"/>
+      <c r="AI57" s="288"/>
+      <c r="AJ57" s="288"/>
+      <c r="AK57" s="288"/>
+      <c r="AL57" s="288"/>
+      <c r="AM57" s="288"/>
+      <c r="AN57" s="288"/>
+      <c r="AO57" s="288"/>
+      <c r="AP57" s="288"/>
+      <c r="AQ57" s="289"/>
       <c r="AR57" s="19"/>
       <c r="AS57" s="19"/>
       <c r="AT57" s="19"/>
@@ -15589,15 +15583,15 @@
       <c r="B58" s="133">
         <v>5</v>
       </c>
-      <c r="C58" s="301" t="s">
+      <c r="C58" s="308" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="302"/>
-      <c r="E58" s="302"/>
-      <c r="F58" s="302"/>
-      <c r="G58" s="303"/>
+      <c r="D58" s="309"/>
+      <c r="E58" s="309"/>
+      <c r="F58" s="309"/>
+      <c r="G58" s="310"/>
       <c r="H58" s="130" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I58" s="131"/>
       <c r="J58" s="131"/>
@@ -15608,34 +15602,34 @@
       <c r="O58" s="131"/>
       <c r="P58" s="131"/>
       <c r="Q58" s="138"/>
-      <c r="R58" s="322" t="s">
-        <v>274</v>
-      </c>
-      <c r="S58" s="323"/>
-      <c r="T58" s="323"/>
-      <c r="U58" s="323"/>
-      <c r="V58" s="323"/>
-      <c r="W58" s="323"/>
-      <c r="X58" s="323"/>
-      <c r="Y58" s="323"/>
-      <c r="Z58" s="323"/>
-      <c r="AA58" s="323"/>
-      <c r="AB58" s="323"/>
-      <c r="AC58" s="323"/>
-      <c r="AD58" s="323"/>
-      <c r="AE58" s="323"/>
-      <c r="AF58" s="323"/>
-      <c r="AG58" s="323"/>
-      <c r="AH58" s="323"/>
-      <c r="AI58" s="323"/>
-      <c r="AJ58" s="323"/>
-      <c r="AK58" s="323"/>
-      <c r="AL58" s="323"/>
-      <c r="AM58" s="323"/>
-      <c r="AN58" s="323"/>
-      <c r="AO58" s="323"/>
-      <c r="AP58" s="323"/>
-      <c r="AQ58" s="324"/>
+      <c r="R58" s="290" t="s">
+        <v>272</v>
+      </c>
+      <c r="S58" s="291"/>
+      <c r="T58" s="291"/>
+      <c r="U58" s="291"/>
+      <c r="V58" s="291"/>
+      <c r="W58" s="291"/>
+      <c r="X58" s="291"/>
+      <c r="Y58" s="291"/>
+      <c r="Z58" s="291"/>
+      <c r="AA58" s="291"/>
+      <c r="AB58" s="291"/>
+      <c r="AC58" s="291"/>
+      <c r="AD58" s="291"/>
+      <c r="AE58" s="291"/>
+      <c r="AF58" s="291"/>
+      <c r="AG58" s="291"/>
+      <c r="AH58" s="291"/>
+      <c r="AI58" s="291"/>
+      <c r="AJ58" s="291"/>
+      <c r="AK58" s="291"/>
+      <c r="AL58" s="291"/>
+      <c r="AM58" s="291"/>
+      <c r="AN58" s="291"/>
+      <c r="AO58" s="291"/>
+      <c r="AP58" s="291"/>
+      <c r="AQ58" s="292"/>
       <c r="AR58" s="19"/>
       <c r="AS58" s="19"/>
       <c r="AT58" s="19"/>
@@ -15649,13 +15643,13 @@
       <c r="B59" s="137">
         <v>6</v>
       </c>
-      <c r="C59" s="295" t="s">
+      <c r="C59" s="284" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="296"/>
-      <c r="E59" s="296"/>
-      <c r="F59" s="296"/>
-      <c r="G59" s="297"/>
+      <c r="D59" s="285"/>
+      <c r="E59" s="285"/>
+      <c r="F59" s="285"/>
+      <c r="G59" s="286"/>
       <c r="H59" s="134" t="s">
         <v>67</v>
       </c>
@@ -15668,34 +15662,34 @@
       <c r="O59" s="135"/>
       <c r="P59" s="135"/>
       <c r="Q59" s="135"/>
-      <c r="R59" s="298" t="s">
+      <c r="R59" s="287" t="s">
         <v>66</v>
       </c>
-      <c r="S59" s="299"/>
-      <c r="T59" s="299"/>
-      <c r="U59" s="299"/>
-      <c r="V59" s="299"/>
-      <c r="W59" s="299"/>
-      <c r="X59" s="299"/>
-      <c r="Y59" s="299"/>
-      <c r="Z59" s="299"/>
-      <c r="AA59" s="299"/>
-      <c r="AB59" s="299"/>
-      <c r="AC59" s="299"/>
-      <c r="AD59" s="299"/>
-      <c r="AE59" s="299"/>
-      <c r="AF59" s="299"/>
-      <c r="AG59" s="299"/>
-      <c r="AH59" s="299"/>
-      <c r="AI59" s="299"/>
-      <c r="AJ59" s="299"/>
-      <c r="AK59" s="299"/>
-      <c r="AL59" s="299"/>
-      <c r="AM59" s="299"/>
-      <c r="AN59" s="299"/>
-      <c r="AO59" s="299"/>
-      <c r="AP59" s="299"/>
-      <c r="AQ59" s="300"/>
+      <c r="S59" s="288"/>
+      <c r="T59" s="288"/>
+      <c r="U59" s="288"/>
+      <c r="V59" s="288"/>
+      <c r="W59" s="288"/>
+      <c r="X59" s="288"/>
+      <c r="Y59" s="288"/>
+      <c r="Z59" s="288"/>
+      <c r="AA59" s="288"/>
+      <c r="AB59" s="288"/>
+      <c r="AC59" s="288"/>
+      <c r="AD59" s="288"/>
+      <c r="AE59" s="288"/>
+      <c r="AF59" s="288"/>
+      <c r="AG59" s="288"/>
+      <c r="AH59" s="288"/>
+      <c r="AI59" s="288"/>
+      <c r="AJ59" s="288"/>
+      <c r="AK59" s="288"/>
+      <c r="AL59" s="288"/>
+      <c r="AM59" s="288"/>
+      <c r="AN59" s="288"/>
+      <c r="AO59" s="288"/>
+      <c r="AP59" s="288"/>
+      <c r="AQ59" s="289"/>
       <c r="AR59" s="19"/>
       <c r="AS59" s="19"/>
       <c r="AT59" s="19"/>
@@ -15914,7 +15908,7 @@
       <c r="AM63" s="60"/>
       <c r="AN63" s="204"/>
       <c r="AO63" s="281" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AP63" s="203"/>
       <c r="AQ63" s="203"/>
@@ -16093,7 +16087,7 @@
       <c r="AB66" s="280"/>
       <c r="AC66" s="27"/>
       <c r="AD66" s="51" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AE66" s="48"/>
       <c r="AF66" s="48"/>
@@ -16155,7 +16149,7 @@
       <c r="AB67" s="280"/>
       <c r="AC67" s="27"/>
       <c r="AD67" s="134" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AE67" s="48"/>
       <c r="AF67" s="48"/>
@@ -16217,7 +16211,7 @@
       <c r="AB68" s="280"/>
       <c r="AC68" s="27"/>
       <c r="AD68" s="130" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AE68" s="48"/>
       <c r="AF68" s="48"/>
@@ -17964,12 +17958,20 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="R59:AQ59"/>
-    <mergeCell ref="R58:AQ58"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:V46"/>
-    <mergeCell ref="W46:AS46"/>
+    <mergeCell ref="H48:V48"/>
+    <mergeCell ref="W45:AS45"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="L16:Y16"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="L17:Y17"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="G2:AL3"/>
+    <mergeCell ref="AM2:AP3"/>
+    <mergeCell ref="AQ2:AT3"/>
+    <mergeCell ref="AU2:AX3"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="G1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="A1:F3"/>
     <mergeCell ref="C55:G55"/>
     <mergeCell ref="R55:AQ55"/>
@@ -17981,22 +17983,20 @@
     <mergeCell ref="R54:AQ54"/>
     <mergeCell ref="W50:AS50"/>
     <mergeCell ref="W49:AS49"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="R57:AQ57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="G2:AL3"/>
-    <mergeCell ref="AM2:AP3"/>
-    <mergeCell ref="AQ2:AT3"/>
-    <mergeCell ref="AU2:AX3"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="G1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="H45:V45"/>
     <mergeCell ref="W48:AS48"/>
     <mergeCell ref="D47:G47"/>
     <mergeCell ref="H47:V47"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="R59:AQ59"/>
+    <mergeCell ref="R58:AQ58"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:V46"/>
+    <mergeCell ref="W46:AS46"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="R57:AQ57"/>
+    <mergeCell ref="C58:G58"/>
     <mergeCell ref="W47:AS47"/>
     <mergeCell ref="D50:G50"/>
     <mergeCell ref="H50:V50"/>
@@ -18004,12 +18004,6 @@
     <mergeCell ref="R56:AQ56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:V48"/>
-    <mergeCell ref="W45:AS45"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="L16:Y16"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="L17:Y17"/>
   </mergeCells>
   <phoneticPr fontId="48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18059,7 +18053,7 @@
   </sheetPr>
   <dimension ref="A1:AR135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A82" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
@@ -18073,166 +18067,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="300" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="304" t="s">
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="335" t="s">
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="336" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
-      <c r="P1" s="335"/>
-      <c r="Q1" s="335"/>
-      <c r="R1" s="335"/>
-      <c r="S1" s="335"/>
-      <c r="T1" s="335" t="s">
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
+      <c r="S1" s="336"/>
+      <c r="T1" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="335"/>
-      <c r="V1" s="335"/>
-      <c r="W1" s="335"/>
-      <c r="X1" s="335"/>
-      <c r="Y1" s="335"/>
-      <c r="Z1" s="335"/>
-      <c r="AA1" s="335"/>
-      <c r="AB1" s="335"/>
-      <c r="AC1" s="335"/>
-      <c r="AD1" s="335"/>
-      <c r="AE1" s="335"/>
-      <c r="AF1" s="335"/>
-      <c r="AG1" s="304" t="s">
+      <c r="U1" s="336"/>
+      <c r="V1" s="336"/>
+      <c r="W1" s="336"/>
+      <c r="X1" s="336"/>
+      <c r="Y1" s="336"/>
+      <c r="Z1" s="336"/>
+      <c r="AA1" s="336"/>
+      <c r="AB1" s="336"/>
+      <c r="AC1" s="336"/>
+      <c r="AD1" s="336"/>
+      <c r="AE1" s="336"/>
+      <c r="AF1" s="336"/>
+      <c r="AG1" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="305"/>
-      <c r="AI1" s="305"/>
-      <c r="AJ1" s="306"/>
-      <c r="AK1" s="305" t="s">
+      <c r="AH1" s="312"/>
+      <c r="AI1" s="312"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="305"/>
-      <c r="AM1" s="305"/>
-      <c r="AN1" s="306"/>
-      <c r="AO1" s="304" t="s">
+      <c r="AL1" s="312"/>
+      <c r="AM1" s="312"/>
+      <c r="AN1" s="313"/>
+      <c r="AO1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="305"/>
-      <c r="AQ1" s="305"/>
-      <c r="AR1" s="306"/>
+      <c r="AP1" s="312"/>
+      <c r="AQ1" s="312"/>
+      <c r="AR1" s="313"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="307" t="s">
+      <c r="A2" s="300"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="336" t="s">
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="332" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
-      <c r="S2" s="336"/>
-      <c r="T2" s="336" t="s">
+      <c r="M2" s="332"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="332"/>
+      <c r="Q2" s="332"/>
+      <c r="R2" s="332"/>
+      <c r="S2" s="332"/>
+      <c r="T2" s="332" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="336"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="336"/>
-      <c r="X2" s="336"/>
-      <c r="Y2" s="336"/>
-      <c r="Z2" s="336"/>
-      <c r="AA2" s="336"/>
-      <c r="AB2" s="336"/>
-      <c r="AC2" s="336"/>
-      <c r="AD2" s="336"/>
-      <c r="AE2" s="336"/>
-      <c r="AF2" s="336"/>
-      <c r="AG2" s="307" t="s">
+      <c r="U2" s="332"/>
+      <c r="V2" s="332"/>
+      <c r="W2" s="332"/>
+      <c r="X2" s="332"/>
+      <c r="Y2" s="332"/>
+      <c r="Z2" s="332"/>
+      <c r="AA2" s="332"/>
+      <c r="AB2" s="332"/>
+      <c r="AC2" s="332"/>
+      <c r="AD2" s="332"/>
+      <c r="AE2" s="332"/>
+      <c r="AF2" s="332"/>
+      <c r="AG2" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="308"/>
-      <c r="AI2" s="308"/>
-      <c r="AJ2" s="309"/>
-      <c r="AK2" s="313">
+      <c r="AH2" s="315"/>
+      <c r="AI2" s="315"/>
+      <c r="AJ2" s="316"/>
+      <c r="AK2" s="320">
         <v>42314</v>
       </c>
-      <c r="AL2" s="313"/>
-      <c r="AM2" s="313"/>
-      <c r="AN2" s="314"/>
-      <c r="AO2" s="313"/>
-      <c r="AP2" s="313"/>
-      <c r="AQ2" s="313"/>
-      <c r="AR2" s="314"/>
+      <c r="AL2" s="320"/>
+      <c r="AM2" s="320"/>
+      <c r="AN2" s="321"/>
+      <c r="AO2" s="320"/>
+      <c r="AP2" s="320"/>
+      <c r="AQ2" s="320"/>
+      <c r="AR2" s="321"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="321"/>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
-      <c r="T3" s="336"/>
-      <c r="U3" s="336"/>
-      <c r="V3" s="336"/>
-      <c r="W3" s="336"/>
-      <c r="X3" s="336"/>
-      <c r="Y3" s="336"/>
-      <c r="Z3" s="336"/>
-      <c r="AA3" s="336"/>
-      <c r="AB3" s="336"/>
-      <c r="AC3" s="336"/>
-      <c r="AD3" s="336"/>
-      <c r="AE3" s="336"/>
-      <c r="AF3" s="336"/>
-      <c r="AG3" s="310"/>
-      <c r="AH3" s="311"/>
-      <c r="AI3" s="311"/>
-      <c r="AJ3" s="312"/>
-      <c r="AK3" s="315"/>
-      <c r="AL3" s="315"/>
-      <c r="AM3" s="315"/>
-      <c r="AN3" s="316"/>
-      <c r="AO3" s="315"/>
-      <c r="AP3" s="315"/>
-      <c r="AQ3" s="315"/>
-      <c r="AR3" s="316"/>
+      <c r="A3" s="300"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="332"/>
+      <c r="M3" s="332"/>
+      <c r="N3" s="332"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="332"/>
+      <c r="Q3" s="332"/>
+      <c r="R3" s="332"/>
+      <c r="S3" s="332"/>
+      <c r="T3" s="332"/>
+      <c r="U3" s="332"/>
+      <c r="V3" s="332"/>
+      <c r="W3" s="332"/>
+      <c r="X3" s="332"/>
+      <c r="Y3" s="332"/>
+      <c r="Z3" s="332"/>
+      <c r="AA3" s="332"/>
+      <c r="AB3" s="332"/>
+      <c r="AC3" s="332"/>
+      <c r="AD3" s="332"/>
+      <c r="AE3" s="332"/>
+      <c r="AF3" s="332"/>
+      <c r="AG3" s="317"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="319"/>
+      <c r="AK3" s="322"/>
+      <c r="AL3" s="322"/>
+      <c r="AM3" s="322"/>
+      <c r="AN3" s="323"/>
+      <c r="AO3" s="322"/>
+      <c r="AP3" s="322"/>
+      <c r="AQ3" s="322"/>
+      <c r="AR3" s="323"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -18425,7 +18419,7 @@
     <row r="8" spans="1:44" s="9" customFormat="1">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="15"/>
@@ -18958,7 +18952,7 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="66" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -21024,7 +21018,7 @@
       <c r="B62" s="13"/>
       <c r="C62" s="4"/>
       <c r="D62" s="65" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -21312,7 +21306,7 @@
       <c r="B68" s="156"/>
       <c r="C68" s="154"/>
       <c r="D68" s="64" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E68" s="155"/>
       <c r="F68" s="40"/>
@@ -21360,7 +21354,7 @@
       <c r="B69" s="156"/>
       <c r="C69" s="154"/>
       <c r="D69" s="66" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E69" s="155"/>
       <c r="F69" s="40"/>
@@ -21503,7 +21497,7 @@
       <c r="B72" s="86"/>
       <c r="C72" s="40"/>
       <c r="D72" s="154" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="40"/>
@@ -23990,18 +23984,18 @@
       <c r="AD124" s="4"/>
       <c r="AE124" s="4"/>
       <c r="AF124" s="4"/>
-      <c r="AG124" s="332" t="s">
+      <c r="AG124" s="333" t="s">
         <v>142</v>
       </c>
-      <c r="AH124" s="333"/>
-      <c r="AI124" s="334"/>
+      <c r="AH124" s="334"/>
+      <c r="AI124" s="335"/>
       <c r="AJ124" s="4"/>
       <c r="AK124" s="4"/>
-      <c r="AL124" s="332" t="s">
+      <c r="AL124" s="333" t="s">
         <v>143</v>
       </c>
-      <c r="AM124" s="333"/>
-      <c r="AN124" s="334"/>
+      <c r="AM124" s="334"/>
+      <c r="AN124" s="335"/>
       <c r="AO124" s="4"/>
       <c r="AP124" s="117"/>
       <c r="AQ124" s="4"/>
@@ -24527,11 +24521,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="G2:K3"/>
-    <mergeCell ref="L2:S3"/>
-    <mergeCell ref="T2:AF3"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
     <mergeCell ref="AG124:AI124"/>
     <mergeCell ref="AL124:AN124"/>
     <mergeCell ref="L1:S1"/>
@@ -24542,6 +24531,11 @@
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AG2:AJ3"/>
     <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="L2:S3"/>
+    <mergeCell ref="T2:AF3"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <phoneticPr fontId="48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24561,7 +24555,7 @@
   <dimension ref="A1:AR85"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A49" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75"/>
@@ -24577,166 +24571,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="300" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="304" t="s">
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="335" t="s">
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="336" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
-      <c r="P1" s="335"/>
-      <c r="Q1" s="335"/>
-      <c r="R1" s="335"/>
-      <c r="S1" s="335"/>
-      <c r="T1" s="335" t="s">
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
+      <c r="S1" s="336"/>
+      <c r="T1" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="335"/>
-      <c r="V1" s="335"/>
-      <c r="W1" s="335"/>
-      <c r="X1" s="335"/>
-      <c r="Y1" s="335"/>
-      <c r="Z1" s="335"/>
-      <c r="AA1" s="335"/>
-      <c r="AB1" s="335"/>
-      <c r="AC1" s="335"/>
-      <c r="AD1" s="335"/>
-      <c r="AE1" s="335"/>
-      <c r="AF1" s="335"/>
-      <c r="AG1" s="304" t="s">
+      <c r="U1" s="336"/>
+      <c r="V1" s="336"/>
+      <c r="W1" s="336"/>
+      <c r="X1" s="336"/>
+      <c r="Y1" s="336"/>
+      <c r="Z1" s="336"/>
+      <c r="AA1" s="336"/>
+      <c r="AB1" s="336"/>
+      <c r="AC1" s="336"/>
+      <c r="AD1" s="336"/>
+      <c r="AE1" s="336"/>
+      <c r="AF1" s="336"/>
+      <c r="AG1" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="305"/>
-      <c r="AI1" s="305"/>
-      <c r="AJ1" s="306"/>
-      <c r="AK1" s="305" t="s">
+      <c r="AH1" s="312"/>
+      <c r="AI1" s="312"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="305"/>
-      <c r="AM1" s="305"/>
-      <c r="AN1" s="306"/>
-      <c r="AO1" s="304" t="s">
+      <c r="AL1" s="312"/>
+      <c r="AM1" s="312"/>
+      <c r="AN1" s="313"/>
+      <c r="AO1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="305"/>
-      <c r="AQ1" s="305"/>
-      <c r="AR1" s="306"/>
+      <c r="AP1" s="312"/>
+      <c r="AQ1" s="312"/>
+      <c r="AR1" s="313"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="307" t="s">
+      <c r="A2" s="300"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="336" t="s">
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="332" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
-      <c r="S2" s="336"/>
-      <c r="T2" s="336" t="s">
+      <c r="M2" s="332"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="332"/>
+      <c r="Q2" s="332"/>
+      <c r="R2" s="332"/>
+      <c r="S2" s="332"/>
+      <c r="T2" s="332" t="s">
         <v>162</v>
       </c>
-      <c r="U2" s="336"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="336"/>
-      <c r="X2" s="336"/>
-      <c r="Y2" s="336"/>
-      <c r="Z2" s="336"/>
-      <c r="AA2" s="336"/>
-      <c r="AB2" s="336"/>
-      <c r="AC2" s="336"/>
-      <c r="AD2" s="336"/>
-      <c r="AE2" s="336"/>
-      <c r="AF2" s="336"/>
-      <c r="AG2" s="307" t="s">
+      <c r="U2" s="332"/>
+      <c r="V2" s="332"/>
+      <c r="W2" s="332"/>
+      <c r="X2" s="332"/>
+      <c r="Y2" s="332"/>
+      <c r="Z2" s="332"/>
+      <c r="AA2" s="332"/>
+      <c r="AB2" s="332"/>
+      <c r="AC2" s="332"/>
+      <c r="AD2" s="332"/>
+      <c r="AE2" s="332"/>
+      <c r="AF2" s="332"/>
+      <c r="AG2" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="308"/>
-      <c r="AI2" s="308"/>
-      <c r="AJ2" s="309"/>
-      <c r="AK2" s="313">
+      <c r="AH2" s="315"/>
+      <c r="AI2" s="315"/>
+      <c r="AJ2" s="316"/>
+      <c r="AK2" s="320">
         <v>42318</v>
       </c>
-      <c r="AL2" s="313"/>
-      <c r="AM2" s="313"/>
-      <c r="AN2" s="314"/>
-      <c r="AO2" s="313"/>
-      <c r="AP2" s="313"/>
-      <c r="AQ2" s="313"/>
-      <c r="AR2" s="314"/>
+      <c r="AL2" s="320"/>
+      <c r="AM2" s="320"/>
+      <c r="AN2" s="321"/>
+      <c r="AO2" s="320"/>
+      <c r="AP2" s="320"/>
+      <c r="AQ2" s="320"/>
+      <c r="AR2" s="321"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1">
-      <c r="A3" s="321"/>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
-      <c r="T3" s="336"/>
-      <c r="U3" s="336"/>
-      <c r="V3" s="336"/>
-      <c r="W3" s="336"/>
-      <c r="X3" s="336"/>
-      <c r="Y3" s="336"/>
-      <c r="Z3" s="336"/>
-      <c r="AA3" s="336"/>
-      <c r="AB3" s="336"/>
-      <c r="AC3" s="336"/>
-      <c r="AD3" s="336"/>
-      <c r="AE3" s="336"/>
-      <c r="AF3" s="336"/>
-      <c r="AG3" s="310"/>
-      <c r="AH3" s="311"/>
-      <c r="AI3" s="311"/>
-      <c r="AJ3" s="312"/>
-      <c r="AK3" s="315"/>
-      <c r="AL3" s="315"/>
-      <c r="AM3" s="315"/>
-      <c r="AN3" s="316"/>
-      <c r="AO3" s="315"/>
-      <c r="AP3" s="315"/>
-      <c r="AQ3" s="315"/>
-      <c r="AR3" s="316"/>
+      <c r="A3" s="300"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="332"/>
+      <c r="M3" s="332"/>
+      <c r="N3" s="332"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="332"/>
+      <c r="Q3" s="332"/>
+      <c r="R3" s="332"/>
+      <c r="S3" s="332"/>
+      <c r="T3" s="332"/>
+      <c r="U3" s="332"/>
+      <c r="V3" s="332"/>
+      <c r="W3" s="332"/>
+      <c r="X3" s="332"/>
+      <c r="Y3" s="332"/>
+      <c r="Z3" s="332"/>
+      <c r="AA3" s="332"/>
+      <c r="AB3" s="332"/>
+      <c r="AC3" s="332"/>
+      <c r="AD3" s="332"/>
+      <c r="AE3" s="332"/>
+      <c r="AF3" s="332"/>
+      <c r="AG3" s="317"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="319"/>
+      <c r="AK3" s="322"/>
+      <c r="AL3" s="322"/>
+      <c r="AM3" s="322"/>
+      <c r="AN3" s="323"/>
+      <c r="AO3" s="322"/>
+      <c r="AP3" s="322"/>
+      <c r="AQ3" s="322"/>
+      <c r="AR3" s="323"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -26129,7 +26123,7 @@
       <c r="A34" s="3"/>
       <c r="B34" s="13"/>
       <c r="D34" s="65" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -26237,7 +26231,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="153" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -26285,7 +26279,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="D38" s="66" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -26332,7 +26326,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="73"/>
       <c r="D39" s="66" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -26379,7 +26373,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="D40" s="66" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -26892,7 +26886,7 @@
     <row r="51" spans="1:44">
       <c r="A51" s="3"/>
       <c r="B51" s="71" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -27890,7 +27884,7 @@
   </sheetPr>
   <dimension ref="A1:AR73"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A52" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -27909,166 +27903,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="300" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="304" t="s">
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="335" t="s">
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="336" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
-      <c r="P1" s="335"/>
-      <c r="Q1" s="335"/>
-      <c r="R1" s="335"/>
-      <c r="S1" s="335"/>
-      <c r="T1" s="335" t="s">
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
+      <c r="S1" s="336"/>
+      <c r="T1" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="335"/>
-      <c r="V1" s="335"/>
-      <c r="W1" s="335"/>
-      <c r="X1" s="335"/>
-      <c r="Y1" s="335"/>
-      <c r="Z1" s="335"/>
-      <c r="AA1" s="335"/>
-      <c r="AB1" s="335"/>
-      <c r="AC1" s="335"/>
-      <c r="AD1" s="335"/>
-      <c r="AE1" s="335"/>
-      <c r="AF1" s="335"/>
-      <c r="AG1" s="304" t="s">
+      <c r="U1" s="336"/>
+      <c r="V1" s="336"/>
+      <c r="W1" s="336"/>
+      <c r="X1" s="336"/>
+      <c r="Y1" s="336"/>
+      <c r="Z1" s="336"/>
+      <c r="AA1" s="336"/>
+      <c r="AB1" s="336"/>
+      <c r="AC1" s="336"/>
+      <c r="AD1" s="336"/>
+      <c r="AE1" s="336"/>
+      <c r="AF1" s="336"/>
+      <c r="AG1" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="305"/>
-      <c r="AI1" s="305"/>
-      <c r="AJ1" s="306"/>
-      <c r="AK1" s="305" t="s">
+      <c r="AH1" s="312"/>
+      <c r="AI1" s="312"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="305"/>
-      <c r="AM1" s="305"/>
-      <c r="AN1" s="306"/>
-      <c r="AO1" s="304" t="s">
+      <c r="AL1" s="312"/>
+      <c r="AM1" s="312"/>
+      <c r="AN1" s="313"/>
+      <c r="AO1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="305"/>
-      <c r="AQ1" s="305"/>
-      <c r="AR1" s="306"/>
+      <c r="AP1" s="312"/>
+      <c r="AQ1" s="312"/>
+      <c r="AR1" s="313"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="307" t="s">
+      <c r="A2" s="300"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="336" t="s">
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="332" t="s">
         <v>158</v>
       </c>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
-      <c r="S2" s="336"/>
-      <c r="T2" s="336" t="s">
-        <v>359</v>
-      </c>
-      <c r="U2" s="336"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="336"/>
-      <c r="X2" s="336"/>
-      <c r="Y2" s="336"/>
-      <c r="Z2" s="336"/>
-      <c r="AA2" s="336"/>
-      <c r="AB2" s="336"/>
-      <c r="AC2" s="336"/>
-      <c r="AD2" s="336"/>
-      <c r="AE2" s="336"/>
-      <c r="AF2" s="336"/>
-      <c r="AG2" s="307" t="s">
+      <c r="M2" s="332"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="332"/>
+      <c r="Q2" s="332"/>
+      <c r="R2" s="332"/>
+      <c r="S2" s="332"/>
+      <c r="T2" s="332" t="s">
+        <v>357</v>
+      </c>
+      <c r="U2" s="332"/>
+      <c r="V2" s="332"/>
+      <c r="W2" s="332"/>
+      <c r="X2" s="332"/>
+      <c r="Y2" s="332"/>
+      <c r="Z2" s="332"/>
+      <c r="AA2" s="332"/>
+      <c r="AB2" s="332"/>
+      <c r="AC2" s="332"/>
+      <c r="AD2" s="332"/>
+      <c r="AE2" s="332"/>
+      <c r="AF2" s="332"/>
+      <c r="AG2" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="308"/>
-      <c r="AI2" s="308"/>
-      <c r="AJ2" s="309"/>
-      <c r="AK2" s="313">
+      <c r="AH2" s="315"/>
+      <c r="AI2" s="315"/>
+      <c r="AJ2" s="316"/>
+      <c r="AK2" s="320">
         <v>42320</v>
       </c>
-      <c r="AL2" s="313"/>
-      <c r="AM2" s="313"/>
-      <c r="AN2" s="314"/>
-      <c r="AO2" s="313"/>
-      <c r="AP2" s="313"/>
-      <c r="AQ2" s="313"/>
-      <c r="AR2" s="314"/>
+      <c r="AL2" s="320"/>
+      <c r="AM2" s="320"/>
+      <c r="AN2" s="321"/>
+      <c r="AO2" s="320"/>
+      <c r="AP2" s="320"/>
+      <c r="AQ2" s="320"/>
+      <c r="AR2" s="321"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1">
-      <c r="A3" s="321"/>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
-      <c r="T3" s="336"/>
-      <c r="U3" s="336"/>
-      <c r="V3" s="336"/>
-      <c r="W3" s="336"/>
-      <c r="X3" s="336"/>
-      <c r="Y3" s="336"/>
-      <c r="Z3" s="336"/>
-      <c r="AA3" s="336"/>
-      <c r="AB3" s="336"/>
-      <c r="AC3" s="336"/>
-      <c r="AD3" s="336"/>
-      <c r="AE3" s="336"/>
-      <c r="AF3" s="336"/>
-      <c r="AG3" s="310"/>
-      <c r="AH3" s="311"/>
-      <c r="AI3" s="311"/>
-      <c r="AJ3" s="312"/>
-      <c r="AK3" s="315"/>
-      <c r="AL3" s="315"/>
-      <c r="AM3" s="315"/>
-      <c r="AN3" s="316"/>
-      <c r="AO3" s="315"/>
-      <c r="AP3" s="315"/>
-      <c r="AQ3" s="315"/>
-      <c r="AR3" s="316"/>
+      <c r="A3" s="300"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="332"/>
+      <c r="M3" s="332"/>
+      <c r="N3" s="332"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="332"/>
+      <c r="Q3" s="332"/>
+      <c r="R3" s="332"/>
+      <c r="S3" s="332"/>
+      <c r="T3" s="332"/>
+      <c r="U3" s="332"/>
+      <c r="V3" s="332"/>
+      <c r="W3" s="332"/>
+      <c r="X3" s="332"/>
+      <c r="Y3" s="332"/>
+      <c r="Z3" s="332"/>
+      <c r="AA3" s="332"/>
+      <c r="AB3" s="332"/>
+      <c r="AC3" s="332"/>
+      <c r="AD3" s="332"/>
+      <c r="AE3" s="332"/>
+      <c r="AF3" s="332"/>
+      <c r="AG3" s="317"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="319"/>
+      <c r="AK3" s="322"/>
+      <c r="AL3" s="322"/>
+      <c r="AM3" s="322"/>
+      <c r="AN3" s="323"/>
+      <c r="AO3" s="322"/>
+      <c r="AP3" s="322"/>
+      <c r="AQ3" s="322"/>
+      <c r="AR3" s="323"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -29911,7 +29905,7 @@
       <c r="A44" s="3"/>
       <c r="B44" s="71"/>
       <c r="C44" s="144" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -31120,11 +31114,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
     <mergeCell ref="T1:AF1"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AK1:AN1"/>
@@ -31135,6 +31124,11 @@
     <mergeCell ref="AG2:AJ3"/>
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -31155,8 +31149,8 @@
   </sheetPr>
   <dimension ref="A1:AR123"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A97" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T122" sqref="T122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75"/>
@@ -31169,166 +31163,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="300" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="304" t="s">
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="335" t="s">
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="336" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
-      <c r="P1" s="335"/>
-      <c r="Q1" s="335"/>
-      <c r="R1" s="335"/>
-      <c r="S1" s="335"/>
-      <c r="T1" s="335" t="s">
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
+      <c r="S1" s="336"/>
+      <c r="T1" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="335"/>
-      <c r="V1" s="335"/>
-      <c r="W1" s="335"/>
-      <c r="X1" s="335"/>
-      <c r="Y1" s="335"/>
-      <c r="Z1" s="335"/>
-      <c r="AA1" s="335"/>
-      <c r="AB1" s="335"/>
-      <c r="AC1" s="335"/>
-      <c r="AD1" s="335"/>
-      <c r="AE1" s="335"/>
-      <c r="AF1" s="335"/>
-      <c r="AG1" s="304" t="s">
+      <c r="U1" s="336"/>
+      <c r="V1" s="336"/>
+      <c r="W1" s="336"/>
+      <c r="X1" s="336"/>
+      <c r="Y1" s="336"/>
+      <c r="Z1" s="336"/>
+      <c r="AA1" s="336"/>
+      <c r="AB1" s="336"/>
+      <c r="AC1" s="336"/>
+      <c r="AD1" s="336"/>
+      <c r="AE1" s="336"/>
+      <c r="AF1" s="336"/>
+      <c r="AG1" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="305"/>
-      <c r="AI1" s="305"/>
-      <c r="AJ1" s="306"/>
-      <c r="AK1" s="305" t="s">
+      <c r="AH1" s="312"/>
+      <c r="AI1" s="312"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="305"/>
-      <c r="AM1" s="305"/>
-      <c r="AN1" s="306"/>
-      <c r="AO1" s="304" t="s">
+      <c r="AL1" s="312"/>
+      <c r="AM1" s="312"/>
+      <c r="AN1" s="313"/>
+      <c r="AO1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="305"/>
-      <c r="AQ1" s="305"/>
-      <c r="AR1" s="306"/>
+      <c r="AP1" s="312"/>
+      <c r="AQ1" s="312"/>
+      <c r="AR1" s="313"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="307" t="s">
+      <c r="A2" s="300"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="336" t="s">
-        <v>360</v>
-      </c>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
-      <c r="S2" s="336"/>
-      <c r="T2" s="336" t="s">
-        <v>361</v>
-      </c>
-      <c r="U2" s="336"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="336"/>
-      <c r="X2" s="336"/>
-      <c r="Y2" s="336"/>
-      <c r="Z2" s="336"/>
-      <c r="AA2" s="336"/>
-      <c r="AB2" s="336"/>
-      <c r="AC2" s="336"/>
-      <c r="AD2" s="336"/>
-      <c r="AE2" s="336"/>
-      <c r="AF2" s="336"/>
-      <c r="AG2" s="307" t="s">
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="332" t="s">
+        <v>358</v>
+      </c>
+      <c r="M2" s="332"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="332"/>
+      <c r="Q2" s="332"/>
+      <c r="R2" s="332"/>
+      <c r="S2" s="332"/>
+      <c r="T2" s="332" t="s">
+        <v>359</v>
+      </c>
+      <c r="U2" s="332"/>
+      <c r="V2" s="332"/>
+      <c r="W2" s="332"/>
+      <c r="X2" s="332"/>
+      <c r="Y2" s="332"/>
+      <c r="Z2" s="332"/>
+      <c r="AA2" s="332"/>
+      <c r="AB2" s="332"/>
+      <c r="AC2" s="332"/>
+      <c r="AD2" s="332"/>
+      <c r="AE2" s="332"/>
+      <c r="AF2" s="332"/>
+      <c r="AG2" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="308"/>
-      <c r="AI2" s="308"/>
-      <c r="AJ2" s="309"/>
-      <c r="AK2" s="313">
+      <c r="AH2" s="315"/>
+      <c r="AI2" s="315"/>
+      <c r="AJ2" s="316"/>
+      <c r="AK2" s="320">
         <v>42320</v>
       </c>
-      <c r="AL2" s="313"/>
-      <c r="AM2" s="313"/>
-      <c r="AN2" s="314"/>
-      <c r="AO2" s="313"/>
-      <c r="AP2" s="313"/>
-      <c r="AQ2" s="313"/>
-      <c r="AR2" s="314"/>
+      <c r="AL2" s="320"/>
+      <c r="AM2" s="320"/>
+      <c r="AN2" s="321"/>
+      <c r="AO2" s="320"/>
+      <c r="AP2" s="320"/>
+      <c r="AQ2" s="320"/>
+      <c r="AR2" s="321"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="321"/>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
-      <c r="T3" s="336"/>
-      <c r="U3" s="336"/>
-      <c r="V3" s="336"/>
-      <c r="W3" s="336"/>
-      <c r="X3" s="336"/>
-      <c r="Y3" s="336"/>
-      <c r="Z3" s="336"/>
-      <c r="AA3" s="336"/>
-      <c r="AB3" s="336"/>
-      <c r="AC3" s="336"/>
-      <c r="AD3" s="336"/>
-      <c r="AE3" s="336"/>
-      <c r="AF3" s="336"/>
-      <c r="AG3" s="310"/>
-      <c r="AH3" s="311"/>
-      <c r="AI3" s="311"/>
-      <c r="AJ3" s="312"/>
-      <c r="AK3" s="315"/>
-      <c r="AL3" s="315"/>
-      <c r="AM3" s="315"/>
-      <c r="AN3" s="316"/>
-      <c r="AO3" s="315"/>
-      <c r="AP3" s="315"/>
-      <c r="AQ3" s="315"/>
-      <c r="AR3" s="316"/>
+      <c r="A3" s="300"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="332"/>
+      <c r="M3" s="332"/>
+      <c r="N3" s="332"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="332"/>
+      <c r="Q3" s="332"/>
+      <c r="R3" s="332"/>
+      <c r="S3" s="332"/>
+      <c r="T3" s="332"/>
+      <c r="U3" s="332"/>
+      <c r="V3" s="332"/>
+      <c r="W3" s="332"/>
+      <c r="X3" s="332"/>
+      <c r="Y3" s="332"/>
+      <c r="Z3" s="332"/>
+      <c r="AA3" s="332"/>
+      <c r="AB3" s="332"/>
+      <c r="AC3" s="332"/>
+      <c r="AD3" s="332"/>
+      <c r="AE3" s="332"/>
+      <c r="AF3" s="332"/>
+      <c r="AG3" s="317"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="319"/>
+      <c r="AK3" s="322"/>
+      <c r="AL3" s="322"/>
+      <c r="AM3" s="322"/>
+      <c r="AN3" s="323"/>
+      <c r="AO3" s="322"/>
+      <c r="AP3" s="322"/>
+      <c r="AQ3" s="322"/>
+      <c r="AR3" s="323"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -31521,7 +31515,7 @@
     <row r="8" spans="1:44" s="9" customFormat="1">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="15"/>
@@ -32002,7 +31996,7 @@
       <c r="C18" s="80"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -32248,13 +32242,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="67"/>
       <c r="C23" s="80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E23" s="66" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -32300,11 +32294,11 @@
       <c r="A24" s="3"/>
       <c r="B24" s="67"/>
       <c r="C24" s="80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -32350,11 +32344,11 @@
       <c r="A25" s="3"/>
       <c r="B25" s="67"/>
       <c r="C25" s="80" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -32403,7 +32397,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="66"/>
       <c r="F26" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -32451,7 +32445,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="66"/>
       <c r="F27" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -32499,7 +32493,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="66"/>
       <c r="F28" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -32547,7 +32541,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="66"/>
       <c r="F29" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -32592,11 +32586,11 @@
       <c r="A30" s="3"/>
       <c r="B30" s="67"/>
       <c r="C30" s="80" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="66" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -32642,11 +32636,11 @@
       <c r="A31" s="3"/>
       <c r="B31" s="67"/>
       <c r="C31" s="80" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -32692,10 +32686,10 @@
       <c r="A32" s="3"/>
       <c r="B32" s="67"/>
       <c r="C32" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -32741,7 +32735,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="67"/>
       <c r="C33" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>85</v>
@@ -32787,10 +32781,10 @@
       <c r="A34" s="3"/>
       <c r="B34" s="67"/>
       <c r="C34" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -32976,7 +32970,7 @@
         <v>195</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F38" s="66"/>
       <c r="G38" s="4"/>
@@ -33023,7 +33017,7 @@
       <c r="B39" s="67"/>
       <c r="E39" s="4"/>
       <c r="F39" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -33070,7 +33064,7 @@
       <c r="C40" s="80"/>
       <c r="E40" s="4"/>
       <c r="F40" s="66" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -33728,7 +33722,7 @@
       <c r="B54" s="157"/>
       <c r="C54" s="157"/>
       <c r="D54" s="64" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
@@ -33776,7 +33770,7 @@
       <c r="B55" s="157"/>
       <c r="C55" s="157"/>
       <c r="D55" s="64" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -33824,7 +33818,7 @@
       <c r="B56" s="157"/>
       <c r="C56" s="157"/>
       <c r="D56" s="64" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -33920,7 +33914,7 @@
       <c r="B58" s="157"/>
       <c r="C58" s="157"/>
       <c r="D58" s="64" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
@@ -34291,7 +34285,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="144" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D66" s="4"/>
       <c r="Y66" s="4"/>
@@ -34985,7 +34979,7 @@
       </c>
       <c r="P83" s="168"/>
       <c r="Q83" s="167" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R83" s="168"/>
       <c r="S83" s="169"/>
@@ -35204,11 +35198,11 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
-      <c r="AB88" s="222"/>
-      <c r="AC88" s="223"/>
-      <c r="AD88" s="223"/>
-      <c r="AE88" s="223"/>
-      <c r="AF88" s="224"/>
+      <c r="AB88" s="238"/>
+      <c r="AC88" s="239"/>
+      <c r="AD88" s="239"/>
+      <c r="AE88" s="239"/>
+      <c r="AF88" s="240"/>
       <c r="AG88" s="230" t="s">
         <v>152</v>
       </c>
@@ -35469,10 +35463,10 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95"/>
-      <c r="Y95" s="231" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z95" s="232"/>
+      <c r="Y95" s="231"/>
+      <c r="Z95" s="232" t="s">
+        <v>142</v>
+      </c>
       <c r="AA95" s="232"/>
       <c r="AB95" s="205"/>
       <c r="AC95" s="4"/>
@@ -35946,7 +35940,7 @@
       <c r="I108" s="4"/>
       <c r="J108" s="3"/>
       <c r="R108" s="277" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="W108"/>
       <c r="X108"/>
@@ -36454,10 +36448,10 @@
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121"/>
-      <c r="S121" s="231" t="s">
-        <v>246</v>
-      </c>
-      <c r="T121" s="232"/>
+      <c r="S121" s="231"/>
+      <c r="T121" s="232" t="s">
+        <v>142</v>
+      </c>
       <c r="U121" s="232"/>
       <c r="V121" s="205"/>
       <c r="W121" s="4"/>
@@ -36534,6 +36528,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AG104:AI104"/>
     <mergeCell ref="AL104:AN104"/>
     <mergeCell ref="AO1:AR1"/>
@@ -36544,11 +36543,6 @@
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
     <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -36570,7 +36564,7 @@
   </sheetPr>
   <dimension ref="A1:AR88"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A52" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -36590,166 +36584,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="300" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="304" t="s">
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="335" t="s">
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="336" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
-      <c r="P1" s="335"/>
-      <c r="Q1" s="335"/>
-      <c r="R1" s="335"/>
-      <c r="S1" s="335"/>
-      <c r="T1" s="335" t="s">
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
+      <c r="S1" s="336"/>
+      <c r="T1" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="335"/>
-      <c r="V1" s="335"/>
-      <c r="W1" s="335"/>
-      <c r="X1" s="335"/>
-      <c r="Y1" s="335"/>
-      <c r="Z1" s="335"/>
-      <c r="AA1" s="335"/>
-      <c r="AB1" s="335"/>
-      <c r="AC1" s="335"/>
-      <c r="AD1" s="335"/>
-      <c r="AE1" s="335"/>
-      <c r="AF1" s="335"/>
-      <c r="AG1" s="304" t="s">
+      <c r="U1" s="336"/>
+      <c r="V1" s="336"/>
+      <c r="W1" s="336"/>
+      <c r="X1" s="336"/>
+      <c r="Y1" s="336"/>
+      <c r="Z1" s="336"/>
+      <c r="AA1" s="336"/>
+      <c r="AB1" s="336"/>
+      <c r="AC1" s="336"/>
+      <c r="AD1" s="336"/>
+      <c r="AE1" s="336"/>
+      <c r="AF1" s="336"/>
+      <c r="AG1" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="305"/>
-      <c r="AI1" s="305"/>
-      <c r="AJ1" s="306"/>
-      <c r="AK1" s="305" t="s">
+      <c r="AH1" s="312"/>
+      <c r="AI1" s="312"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="305"/>
-      <c r="AM1" s="305"/>
-      <c r="AN1" s="306"/>
-      <c r="AO1" s="304" t="s">
+      <c r="AL1" s="312"/>
+      <c r="AM1" s="312"/>
+      <c r="AN1" s="313"/>
+      <c r="AO1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="305"/>
-      <c r="AQ1" s="305"/>
-      <c r="AR1" s="306"/>
+      <c r="AP1" s="312"/>
+      <c r="AQ1" s="312"/>
+      <c r="AR1" s="313"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="307" t="s">
+      <c r="A2" s="300"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="336" t="s">
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="332" t="s">
         <v>160</v>
       </c>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
-      <c r="S2" s="336"/>
-      <c r="T2" s="336" t="s">
-        <v>362</v>
-      </c>
-      <c r="U2" s="336"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="336"/>
-      <c r="X2" s="336"/>
-      <c r="Y2" s="336"/>
-      <c r="Z2" s="336"/>
-      <c r="AA2" s="336"/>
-      <c r="AB2" s="336"/>
-      <c r="AC2" s="336"/>
-      <c r="AD2" s="336"/>
-      <c r="AE2" s="336"/>
-      <c r="AF2" s="336"/>
-      <c r="AG2" s="307" t="s">
+      <c r="M2" s="332"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="332"/>
+      <c r="Q2" s="332"/>
+      <c r="R2" s="332"/>
+      <c r="S2" s="332"/>
+      <c r="T2" s="332" t="s">
+        <v>360</v>
+      </c>
+      <c r="U2" s="332"/>
+      <c r="V2" s="332"/>
+      <c r="W2" s="332"/>
+      <c r="X2" s="332"/>
+      <c r="Y2" s="332"/>
+      <c r="Z2" s="332"/>
+      <c r="AA2" s="332"/>
+      <c r="AB2" s="332"/>
+      <c r="AC2" s="332"/>
+      <c r="AD2" s="332"/>
+      <c r="AE2" s="332"/>
+      <c r="AF2" s="332"/>
+      <c r="AG2" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="308"/>
-      <c r="AI2" s="308"/>
-      <c r="AJ2" s="309"/>
-      <c r="AK2" s="313">
+      <c r="AH2" s="315"/>
+      <c r="AI2" s="315"/>
+      <c r="AJ2" s="316"/>
+      <c r="AK2" s="320">
         <v>42321</v>
       </c>
-      <c r="AL2" s="313"/>
-      <c r="AM2" s="313"/>
-      <c r="AN2" s="314"/>
-      <c r="AO2" s="313"/>
-      <c r="AP2" s="313"/>
-      <c r="AQ2" s="313"/>
-      <c r="AR2" s="314"/>
+      <c r="AL2" s="320"/>
+      <c r="AM2" s="320"/>
+      <c r="AN2" s="321"/>
+      <c r="AO2" s="320"/>
+      <c r="AP2" s="320"/>
+      <c r="AQ2" s="320"/>
+      <c r="AR2" s="321"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1">
-      <c r="A3" s="321"/>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
-      <c r="T3" s="336"/>
-      <c r="U3" s="336"/>
-      <c r="V3" s="336"/>
-      <c r="W3" s="336"/>
-      <c r="X3" s="336"/>
-      <c r="Y3" s="336"/>
-      <c r="Z3" s="336"/>
-      <c r="AA3" s="336"/>
-      <c r="AB3" s="336"/>
-      <c r="AC3" s="336"/>
-      <c r="AD3" s="336"/>
-      <c r="AE3" s="336"/>
-      <c r="AF3" s="336"/>
-      <c r="AG3" s="310"/>
-      <c r="AH3" s="311"/>
-      <c r="AI3" s="311"/>
-      <c r="AJ3" s="312"/>
-      <c r="AK3" s="315"/>
-      <c r="AL3" s="315"/>
-      <c r="AM3" s="315"/>
-      <c r="AN3" s="316"/>
-      <c r="AO3" s="315"/>
-      <c r="AP3" s="315"/>
-      <c r="AQ3" s="315"/>
-      <c r="AR3" s="316"/>
+      <c r="A3" s="300"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="332"/>
+      <c r="M3" s="332"/>
+      <c r="N3" s="332"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="332"/>
+      <c r="Q3" s="332"/>
+      <c r="R3" s="332"/>
+      <c r="S3" s="332"/>
+      <c r="T3" s="332"/>
+      <c r="U3" s="332"/>
+      <c r="V3" s="332"/>
+      <c r="W3" s="332"/>
+      <c r="X3" s="332"/>
+      <c r="Y3" s="332"/>
+      <c r="Z3" s="332"/>
+      <c r="AA3" s="332"/>
+      <c r="AB3" s="332"/>
+      <c r="AC3" s="332"/>
+      <c r="AD3" s="332"/>
+      <c r="AE3" s="332"/>
+      <c r="AF3" s="332"/>
+      <c r="AG3" s="317"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="319"/>
+      <c r="AK3" s="322"/>
+      <c r="AL3" s="322"/>
+      <c r="AM3" s="322"/>
+      <c r="AN3" s="323"/>
+      <c r="AO3" s="322"/>
+      <c r="AP3" s="322"/>
+      <c r="AQ3" s="322"/>
+      <c r="AR3" s="323"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -36894,7 +36888,7 @@
     <row r="7" spans="1:44">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -36942,7 +36936,7 @@
     <row r="8" spans="1:44">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -37125,7 +37119,7 @@
     <row r="12" spans="1:44">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -37454,7 +37448,7 @@
         <v>3.1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -37500,7 +37494,7 @@
       <c r="A20" s="3"/>
       <c r="C20" s="87"/>
       <c r="E20" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -37545,10 +37539,10 @@
     <row r="21" spans="1:44">
       <c r="A21" s="3"/>
       <c r="C21" s="87" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -37594,7 +37588,7 @@
       <c r="A22" s="3"/>
       <c r="C22" s="87"/>
       <c r="E22" s="142" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -37642,7 +37636,7 @@
         <v>221</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -37687,7 +37681,7 @@
     <row r="24" spans="1:44">
       <c r="A24" s="3"/>
       <c r="C24" s="87" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>86</v>
@@ -37736,7 +37730,7 @@
       <c r="A25" s="3"/>
       <c r="C25" s="88"/>
       <c r="E25" s="66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -37782,7 +37776,7 @@
       <c r="A26" s="3"/>
       <c r="C26" s="88"/>
       <c r="E26" s="66" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -37828,7 +37822,7 @@
       <c r="A27" s="3"/>
       <c r="C27" s="88"/>
       <c r="E27" s="65" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -37873,10 +37867,10 @@
     <row r="28" spans="1:44">
       <c r="A28" s="3"/>
       <c r="C28" s="88" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E28" s="146" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -37922,7 +37916,7 @@
       <c r="A29" s="3"/>
       <c r="C29" s="87"/>
       <c r="E29" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -37968,7 +37962,7 @@
       <c r="A30" s="3"/>
       <c r="C30" s="87"/>
       <c r="E30" s="66" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -38156,7 +38150,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -38202,7 +38196,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="78"/>
       <c r="E35" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="17"/>
@@ -38385,7 +38379,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="73"/>
       <c r="C39" s="153" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -38433,7 +38427,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="13"/>
       <c r="D40" s="66" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -38480,7 +38474,7 @@
       <c r="B41" s="4"/>
       <c r="C41" s="66"/>
       <c r="D41" s="66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -38527,7 +38521,7 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="66" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -38849,7 +38843,7 @@
     <row r="49" spans="1:44">
       <c r="A49" s="3"/>
       <c r="B49" s="71" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -38924,7 +38918,7 @@
     <row r="51" spans="1:44" ht="15">
       <c r="A51" s="3"/>
       <c r="B51" s="75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -38937,7 +38931,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="75" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -38975,14 +38969,14 @@
       <c r="A52" s="234"/>
       <c r="B52" s="3"/>
       <c r="C52" s="234" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D52" s="234"/>
       <c r="E52" s="254">
         <v>42107</v>
       </c>
       <c r="F52" s="237" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G52" s="255">
         <v>42137</v>
@@ -38991,7 +38985,7 @@
       <c r="I52" s="240"/>
       <c r="J52" s="8"/>
       <c r="M52" s="248" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N52" s="234"/>
       <c r="O52" s="234"/>
@@ -39010,14 +39004,14 @@
       <c r="Y52" s="247"/>
       <c r="Z52" s="249"/>
       <c r="AA52" s="341" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AB52" s="342"/>
       <c r="AC52" s="343"/>
       <c r="AD52" s="235"/>
       <c r="AE52" s="235"/>
       <c r="AF52" s="222" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG52" s="224"/>
       <c r="AH52" s="244"/>
@@ -39068,12 +39062,12 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="235" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D54" s="235"/>
       <c r="E54" s="235"/>
       <c r="F54" s="241" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G54" s="242"/>
       <c r="H54" s="242"/>
@@ -39082,7 +39076,7 @@
       </c>
       <c r="J54" s="8"/>
       <c r="M54" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -39100,7 +39094,7 @@
       <c r="Y54" s="235"/>
       <c r="Z54" s="249"/>
       <c r="AA54" s="344" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AB54" s="345"/>
       <c r="AC54" s="346"/>
@@ -40183,6 +40177,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AK1:AN1"/>
     <mergeCell ref="N75:O75"/>
     <mergeCell ref="C59:G59"/>
@@ -40199,7 +40194,6 @@
     <mergeCell ref="AA54:AC54"/>
     <mergeCell ref="L1:S1"/>
     <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -40239,166 +40233,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="2" customFormat="1">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="300" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="304" t="s">
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="335" t="s">
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="336" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
-      <c r="P1" s="335"/>
-      <c r="Q1" s="335"/>
-      <c r="R1" s="335"/>
-      <c r="S1" s="335"/>
-      <c r="T1" s="335" t="s">
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
+      <c r="S1" s="336"/>
+      <c r="T1" s="336" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="335"/>
-      <c r="V1" s="335"/>
-      <c r="W1" s="335"/>
-      <c r="X1" s="335"/>
-      <c r="Y1" s="335"/>
-      <c r="Z1" s="335"/>
-      <c r="AA1" s="335"/>
-      <c r="AB1" s="335"/>
-      <c r="AC1" s="335"/>
-      <c r="AD1" s="335"/>
-      <c r="AE1" s="335"/>
-      <c r="AF1" s="335"/>
-      <c r="AG1" s="304" t="s">
+      <c r="U1" s="336"/>
+      <c r="V1" s="336"/>
+      <c r="W1" s="336"/>
+      <c r="X1" s="336"/>
+      <c r="Y1" s="336"/>
+      <c r="Z1" s="336"/>
+      <c r="AA1" s="336"/>
+      <c r="AB1" s="336"/>
+      <c r="AC1" s="336"/>
+      <c r="AD1" s="336"/>
+      <c r="AE1" s="336"/>
+      <c r="AF1" s="336"/>
+      <c r="AG1" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="305"/>
-      <c r="AI1" s="305"/>
-      <c r="AJ1" s="306"/>
-      <c r="AK1" s="305" t="s">
+      <c r="AH1" s="312"/>
+      <c r="AI1" s="312"/>
+      <c r="AJ1" s="313"/>
+      <c r="AK1" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="305"/>
-      <c r="AM1" s="305"/>
-      <c r="AN1" s="306"/>
-      <c r="AO1" s="304" t="s">
+      <c r="AL1" s="312"/>
+      <c r="AM1" s="312"/>
+      <c r="AN1" s="313"/>
+      <c r="AO1" s="311" t="s">
         <v>2</v>
       </c>
-      <c r="AP1" s="305"/>
-      <c r="AQ1" s="305"/>
-      <c r="AR1" s="306"/>
+      <c r="AP1" s="312"/>
+      <c r="AQ1" s="312"/>
+      <c r="AR1" s="313"/>
     </row>
     <row r="2" spans="1:44" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="321"/>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="307" t="s">
+      <c r="A2" s="300"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="336" t="s">
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="332" t="s">
         <v>161</v>
       </c>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
-      <c r="S2" s="336"/>
-      <c r="T2" s="336" t="s">
+      <c r="M2" s="332"/>
+      <c r="N2" s="332"/>
+      <c r="O2" s="332"/>
+      <c r="P2" s="332"/>
+      <c r="Q2" s="332"/>
+      <c r="R2" s="332"/>
+      <c r="S2" s="332"/>
+      <c r="T2" s="332" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="336"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="336"/>
-      <c r="X2" s="336"/>
-      <c r="Y2" s="336"/>
-      <c r="Z2" s="336"/>
-      <c r="AA2" s="336"/>
-      <c r="AB2" s="336"/>
-      <c r="AC2" s="336"/>
-      <c r="AD2" s="336"/>
-      <c r="AE2" s="336"/>
-      <c r="AF2" s="336"/>
-      <c r="AG2" s="307" t="s">
+      <c r="U2" s="332"/>
+      <c r="V2" s="332"/>
+      <c r="W2" s="332"/>
+      <c r="X2" s="332"/>
+      <c r="Y2" s="332"/>
+      <c r="Z2" s="332"/>
+      <c r="AA2" s="332"/>
+      <c r="AB2" s="332"/>
+      <c r="AC2" s="332"/>
+      <c r="AD2" s="332"/>
+      <c r="AE2" s="332"/>
+      <c r="AF2" s="332"/>
+      <c r="AG2" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="AH2" s="308"/>
-      <c r="AI2" s="308"/>
-      <c r="AJ2" s="309"/>
-      <c r="AK2" s="313">
+      <c r="AH2" s="315"/>
+      <c r="AI2" s="315"/>
+      <c r="AJ2" s="316"/>
+      <c r="AK2" s="320">
         <v>42321</v>
       </c>
-      <c r="AL2" s="313"/>
-      <c r="AM2" s="313"/>
-      <c r="AN2" s="314"/>
-      <c r="AO2" s="313"/>
-      <c r="AP2" s="313"/>
-      <c r="AQ2" s="313"/>
-      <c r="AR2" s="314"/>
+      <c r="AL2" s="320"/>
+      <c r="AM2" s="320"/>
+      <c r="AN2" s="321"/>
+      <c r="AO2" s="320"/>
+      <c r="AP2" s="320"/>
+      <c r="AQ2" s="320"/>
+      <c r="AR2" s="321"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1">
-      <c r="A3" s="321"/>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
-      <c r="S3" s="336"/>
-      <c r="T3" s="336"/>
-      <c r="U3" s="336"/>
-      <c r="V3" s="336"/>
-      <c r="W3" s="336"/>
-      <c r="X3" s="336"/>
-      <c r="Y3" s="336"/>
-      <c r="Z3" s="336"/>
-      <c r="AA3" s="336"/>
-      <c r="AB3" s="336"/>
-      <c r="AC3" s="336"/>
-      <c r="AD3" s="336"/>
-      <c r="AE3" s="336"/>
-      <c r="AF3" s="336"/>
-      <c r="AG3" s="310"/>
-      <c r="AH3" s="311"/>
-      <c r="AI3" s="311"/>
-      <c r="AJ3" s="312"/>
-      <c r="AK3" s="315"/>
-      <c r="AL3" s="315"/>
-      <c r="AM3" s="315"/>
-      <c r="AN3" s="316"/>
-      <c r="AO3" s="315"/>
-      <c r="AP3" s="315"/>
-      <c r="AQ3" s="315"/>
-      <c r="AR3" s="316"/>
+      <c r="A3" s="300"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="332"/>
+      <c r="M3" s="332"/>
+      <c r="N3" s="332"/>
+      <c r="O3" s="332"/>
+      <c r="P3" s="332"/>
+      <c r="Q3" s="332"/>
+      <c r="R3" s="332"/>
+      <c r="S3" s="332"/>
+      <c r="T3" s="332"/>
+      <c r="U3" s="332"/>
+      <c r="V3" s="332"/>
+      <c r="W3" s="332"/>
+      <c r="X3" s="332"/>
+      <c r="Y3" s="332"/>
+      <c r="Z3" s="332"/>
+      <c r="AA3" s="332"/>
+      <c r="AB3" s="332"/>
+      <c r="AC3" s="332"/>
+      <c r="AD3" s="332"/>
+      <c r="AE3" s="332"/>
+      <c r="AF3" s="332"/>
+      <c r="AG3" s="317"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="319"/>
+      <c r="AK3" s="322"/>
+      <c r="AL3" s="322"/>
+      <c r="AM3" s="322"/>
+      <c r="AN3" s="323"/>
+      <c r="AO3" s="322"/>
+      <c r="AP3" s="322"/>
+      <c r="AQ3" s="322"/>
+      <c r="AR3" s="323"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="3"/>
@@ -40543,7 +40537,7 @@
     <row r="7" spans="1:44">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -40591,7 +40585,7 @@
     <row r="8" spans="1:44">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -40774,7 +40768,7 @@
     <row r="12" spans="1:44">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -41103,7 +41097,7 @@
         <v>3.1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -41149,7 +41143,7 @@
       <c r="A20" s="3"/>
       <c r="C20" s="87"/>
       <c r="E20" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -41197,7 +41191,7 @@
         <v>3.2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -41245,7 +41239,7 @@
         <v>221</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -41338,10 +41332,10 @@
     <row r="24" spans="1:44">
       <c r="A24" s="3"/>
       <c r="C24" s="87" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -41389,7 +41383,7 @@
         <v>236</v>
       </c>
       <c r="E25" s="66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -41434,10 +41428,10 @@
     <row r="26" spans="1:44">
       <c r="A26" s="3"/>
       <c r="C26" s="87" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E26" s="66" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -41671,7 +41665,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="78"/>
       <c r="E31" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="17"/>
@@ -41853,7 +41847,7 @@
     <row r="35" spans="1:44">
       <c r="A35" s="3"/>
       <c r="C35" s="153" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -41901,7 +41895,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="13"/>
       <c r="D36" s="66" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -41994,7 +41988,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="D38" s="65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
@@ -42022,7 +42016,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="D39" s="65" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
@@ -42050,7 +42044,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="D40" s="66" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -42096,7 +42090,7 @@
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="D41" s="66" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -42142,7 +42136,7 @@
       <c r="A42" s="3"/>
       <c r="B42" s="73"/>
       <c r="D42" s="66" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -42464,7 +42458,7 @@
     <row r="49" spans="1:44">
       <c r="A49" s="3"/>
       <c r="B49" s="71" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -42559,7 +42553,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="234"/>
       <c r="C51" s="238" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D51" s="239"/>
       <c r="E51" s="239"/>
@@ -42568,28 +42562,28 @@
       </c>
       <c r="G51" s="234"/>
       <c r="H51" s="257" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I51" s="239"/>
       <c r="J51" s="240"/>
       <c r="K51" s="237" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L51" s="257" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M51" s="239"/>
       <c r="N51" s="240"/>
       <c r="O51" s="234"/>
       <c r="P51" s="231"/>
       <c r="Q51" s="232" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="R51" s="205"/>
       <c r="S51" s="234"/>
       <c r="T51" s="231"/>
       <c r="U51" s="232" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="V51" s="205"/>
       <c r="W51" s="234"/>
@@ -42664,14 +42658,14 @@
       <c r="A53" s="3"/>
       <c r="B53" s="235"/>
       <c r="C53" s="267" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D53" s="268"/>
       <c r="E53" s="268"/>
       <c r="F53" s="268"/>
       <c r="G53" s="269"/>
       <c r="H53" s="267" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I53" s="268"/>
       <c r="J53" s="268"/>
@@ -42679,7 +42673,7 @@
       <c r="L53" s="268"/>
       <c r="M53" s="269"/>
       <c r="N53" s="267" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O53" s="268"/>
       <c r="P53" s="268"/>
@@ -42687,7 +42681,7 @@
       <c r="R53" s="268"/>
       <c r="S53" s="269"/>
       <c r="T53" s="267" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="U53" s="268"/>
       <c r="V53" s="268"/>
@@ -42695,7 +42689,7 @@
       <c r="X53" s="268"/>
       <c r="Y53" s="269"/>
       <c r="Z53" s="267" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AA53" s="268"/>
       <c r="AB53" s="268"/>
@@ -42703,7 +42697,7 @@
       <c r="AD53" s="268"/>
       <c r="AE53" s="269"/>
       <c r="AF53" s="268" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AG53" s="268"/>
       <c r="AH53" s="268"/>
@@ -42718,14 +42712,14 @@
       <c r="A54" s="3"/>
       <c r="B54" s="235"/>
       <c r="C54" s="249" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D54" s="235"/>
       <c r="E54" s="235"/>
       <c r="F54" s="235"/>
       <c r="G54" s="244"/>
       <c r="H54" s="270" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I54" s="235"/>
       <c r="J54" s="235"/>
@@ -42733,7 +42727,7 @@
       <c r="L54" s="235"/>
       <c r="M54" s="244"/>
       <c r="N54" s="249" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O54" s="235"/>
       <c r="P54" s="235"/>
@@ -42741,7 +42735,7 @@
       <c r="R54" s="235"/>
       <c r="S54" s="244"/>
       <c r="T54" s="270" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="U54" s="235"/>
       <c r="V54" s="235"/>
@@ -42749,7 +42743,7 @@
       <c r="X54" s="235"/>
       <c r="Y54" s="244"/>
       <c r="Z54" s="249" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AA54" s="235"/>
       <c r="AB54" s="235"/>
@@ -42757,7 +42751,7 @@
       <c r="AD54" s="235"/>
       <c r="AE54" s="244"/>
       <c r="AF54" s="235" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG54" s="235"/>
       <c r="AH54" s="235"/>
@@ -42772,14 +42766,14 @@
       <c r="A55" s="4"/>
       <c r="B55" s="244"/>
       <c r="C55" s="272" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D55" s="272"/>
       <c r="E55" s="272"/>
       <c r="F55" s="272"/>
       <c r="G55" s="273"/>
       <c r="H55" s="274" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I55" s="272"/>
       <c r="J55" s="272"/>
@@ -42787,7 +42781,7 @@
       <c r="L55" s="272"/>
       <c r="M55" s="273"/>
       <c r="N55" s="275" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O55" s="272"/>
       <c r="P55" s="272"/>
@@ -42795,7 +42789,7 @@
       <c r="R55" s="272"/>
       <c r="S55" s="273"/>
       <c r="T55" s="274" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="U55" s="272"/>
       <c r="V55" s="272"/>
@@ -42803,7 +42797,7 @@
       <c r="X55" s="272"/>
       <c r="Y55" s="273"/>
       <c r="Z55" s="275" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AA55" s="272"/>
       <c r="AB55" s="272"/>
@@ -42811,7 +42805,7 @@
       <c r="AD55" s="272"/>
       <c r="AE55" s="273"/>
       <c r="AF55" s="272" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AG55" s="272"/>
       <c r="AH55" s="272"/>
@@ -43392,10 +43386,10 @@
     </row>
     <row r="71" spans="2:43">
       <c r="Z71" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AC71" s="276" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AD71" s="168"/>
       <c r="AE71" s="168"/>
